--- a/Python-code/kmodes_result.xlsx
+++ b/Python-code/kmodes_result.xlsx
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,7 +579,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -671,7 +671,7 @@
         <v>6</v>
       </c>
       <c r="G12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -717,7 +717,7 @@
         <v>4</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1062,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1131,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1177,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1269,7 +1269,7 @@
         <v>6</v>
       </c>
       <c r="G38">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1292,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1361,7 +1361,7 @@
         <v>4</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1591,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="G54">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1683,7 +1683,7 @@
         <v>3</v>
       </c>
       <c r="G56">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="G57">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1729,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1752,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="G59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1775,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="G62">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="G66">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>4</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="G74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2166,7 +2166,7 @@
         <v>3</v>
       </c>
       <c r="G77">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2189,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2212,7 +2212,7 @@
         <v>6</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2235,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2281,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2304,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="G83">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2327,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="G84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2350,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="G85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2419,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2465,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="G90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2488,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2511,7 +2511,7 @@
         <v>4</v>
       </c>
       <c r="G92">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2534,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2557,7 +2557,7 @@
         <v>3</v>
       </c>
       <c r="G94">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2580,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="G95">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2626,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2649,7 +2649,7 @@
         <v>3</v>
       </c>
       <c r="G98">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2672,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2695,7 +2695,7 @@
         <v>3</v>
       </c>
       <c r="G100">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="G102">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="G103">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2787,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="G104">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2833,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="G106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2856,7 +2856,7 @@
         <v>3</v>
       </c>
       <c r="G107">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2925,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2971,7 +2971,7 @@
         <v>4</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3017,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="G114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3040,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="G115">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3063,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3109,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="G118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="G119">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3178,7 +3178,7 @@
         <v>4</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3201,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="G122">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3224,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="G123">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3247,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="G124">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3293,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3316,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3362,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="G129">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3385,7 +3385,7 @@
         <v>2</v>
       </c>
       <c r="G130">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3408,7 +3408,7 @@
         <v>3</v>
       </c>
       <c r="G131">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3431,7 +3431,7 @@
         <v>4</v>
       </c>
       <c r="G132">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3454,7 +3454,7 @@
         <v>4</v>
       </c>
       <c r="G133">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3477,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="G134">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3523,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="G136">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3546,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3569,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3592,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3615,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3638,7 +3638,7 @@
         <v>4</v>
       </c>
       <c r="G141">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3661,7 +3661,7 @@
         <v>3</v>
       </c>
       <c r="G142">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3707,7 +3707,7 @@
         <v>3</v>
       </c>
       <c r="G144">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="G145">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="G147">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3799,7 +3799,7 @@
         <v>5</v>
       </c>
       <c r="G148">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -3822,7 +3822,7 @@
         <v>4</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3845,7 +3845,7 @@
         <v>4</v>
       </c>
       <c r="G150">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3868,7 +3868,7 @@
         <v>5</v>
       </c>
       <c r="G151">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3891,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="G152">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3914,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3937,7 +3937,7 @@
         <v>4</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3960,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="G155">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3983,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="G156">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4006,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4075,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="G160">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4098,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="G161">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4121,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="G162">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4144,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="G163">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4167,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4190,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="G165">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4213,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="G166">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4259,7 +4259,7 @@
         <v>6</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4282,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="G169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4351,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="G175">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4443,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="G176">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4466,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="G177">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="G178">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4512,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="G179">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4535,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="G180">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -4558,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="G181">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4581,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="G182">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4604,7 +4604,7 @@
         <v>4</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="G184">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4650,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="G185">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="G186">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4696,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4719,7 +4719,7 @@
         <v>2</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4742,7 +4742,7 @@
         <v>4</v>
       </c>
       <c r="G189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4788,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="G191">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4811,7 +4811,7 @@
         <v>4</v>
       </c>
       <c r="G192">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4834,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4880,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="G195">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4926,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="G198">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4972,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4995,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5018,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="G201">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5041,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="G202">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5064,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="G203">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5110,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="G205">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5133,7 +5133,7 @@
         <v>6</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5156,7 +5156,7 @@
         <v>4</v>
       </c>
       <c r="G207">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="G208">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5202,7 +5202,7 @@
         <v>4</v>
       </c>
       <c r="G209">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5225,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="G210">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5271,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="G212">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5340,7 +5340,7 @@
         <v>6</v>
       </c>
       <c r="G215">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="G216">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>5</v>
       </c>
       <c r="G217">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5432,7 +5432,7 @@
         <v>4</v>
       </c>
       <c r="G219">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="G222">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5524,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="G224">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5593,7 +5593,7 @@
         <v>3</v>
       </c>
       <c r="G226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5662,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="G229">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5685,7 +5685,7 @@
         <v>6</v>
       </c>
       <c r="G230">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5731,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="G232">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5754,7 +5754,7 @@
         <v>5</v>
       </c>
       <c r="G233">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5777,7 +5777,7 @@
         <v>6</v>
       </c>
       <c r="G234">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5800,7 +5800,7 @@
         <v>4</v>
       </c>
       <c r="G235">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5823,7 +5823,7 @@
         <v>4</v>
       </c>
       <c r="G236">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5846,7 +5846,7 @@
         <v>2</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5869,7 +5869,7 @@
         <v>5</v>
       </c>
       <c r="G238">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5915,7 +5915,7 @@
         <v>3</v>
       </c>
       <c r="G240">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>3</v>
       </c>
       <c r="G242">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5984,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="G243">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6007,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="G244">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6030,7 +6030,7 @@
         <v>3</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6053,7 +6053,7 @@
         <v>4</v>
       </c>
       <c r="G246">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6099,7 +6099,7 @@
         <v>3</v>
       </c>
       <c r="G248">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6122,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="G249">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6145,7 +6145,7 @@
         <v>4</v>
       </c>
       <c r="G250">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6168,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="G251">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>2</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6260,7 +6260,7 @@
         <v>3</v>
       </c>
       <c r="G255">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6283,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="G256">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6306,7 +6306,7 @@
         <v>2</v>
       </c>
       <c r="G257">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6329,7 +6329,7 @@
         <v>3</v>
       </c>
       <c r="G258">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6352,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6375,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="G260">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6398,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="G261">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="G264">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6490,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="G265">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6513,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="G266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6536,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="G267">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6559,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6582,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="G269">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6605,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="G270">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6651,7 +6651,7 @@
         <v>4</v>
       </c>
       <c r="G272">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>2</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6743,7 +6743,7 @@
         <v>3</v>
       </c>
       <c r="G276">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6789,7 +6789,7 @@
         <v>5</v>
       </c>
       <c r="G278">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6812,7 +6812,7 @@
         <v>3</v>
       </c>
       <c r="G279">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6835,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="G280">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6881,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="G282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6904,7 +6904,7 @@
         <v>3</v>
       </c>
       <c r="G283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6927,7 +6927,7 @@
         <v>4</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="G285">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="G286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6996,7 +6996,7 @@
         <v>2</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7019,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="G288">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7042,7 +7042,7 @@
         <v>2</v>
       </c>
       <c r="G289">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7065,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7088,7 +7088,7 @@
         <v>2</v>
       </c>
       <c r="G291">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7111,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="G292">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7134,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="G293">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
       <c r="G294">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7180,7 +7180,7 @@
         <v>3</v>
       </c>
       <c r="G295">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7249,7 +7249,7 @@
         <v>3</v>
       </c>
       <c r="G298">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7295,7 +7295,7 @@
         <v>6</v>
       </c>
       <c r="G300">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7318,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="G301">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7364,7 +7364,7 @@
         <v>2</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7433,7 +7433,7 @@
         <v>4</v>
       </c>
       <c r="G306">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7456,7 +7456,7 @@
         <v>4</v>
       </c>
       <c r="G307">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7479,7 +7479,7 @@
         <v>2</v>
       </c>
       <c r="G308">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7502,7 +7502,7 @@
         <v>4</v>
       </c>
       <c r="G309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7525,7 +7525,7 @@
         <v>3</v>
       </c>
       <c r="G310">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7548,7 +7548,7 @@
         <v>4</v>
       </c>
       <c r="G311">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7571,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="G312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7617,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="G314">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7640,7 +7640,7 @@
         <v>3</v>
       </c>
       <c r="G315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7663,7 +7663,7 @@
         <v>5</v>
       </c>
       <c r="G316">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7686,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="G317">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7709,7 +7709,7 @@
         <v>3</v>
       </c>
       <c r="G318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7732,7 +7732,7 @@
         <v>2</v>
       </c>
       <c r="G319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7755,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="G320">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7778,7 +7778,7 @@
         <v>5</v>
       </c>
       <c r="G321">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7801,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="G322">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7824,7 +7824,7 @@
         <v>4</v>
       </c>
       <c r="G323">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7847,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="G324">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7893,7 +7893,7 @@
         <v>4</v>
       </c>
       <c r="G326">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7916,7 +7916,7 @@
         <v>2</v>
       </c>
       <c r="G327">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7939,7 +7939,7 @@
         <v>3</v>
       </c>
       <c r="G328">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7962,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="G329">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -8031,7 +8031,7 @@
         <v>3</v>
       </c>
       <c r="G332">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8054,7 +8054,7 @@
         <v>6</v>
       </c>
       <c r="G333">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8077,7 +8077,7 @@
         <v>5</v>
       </c>
       <c r="G334">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8100,7 +8100,7 @@
         <v>4</v>
       </c>
       <c r="G335">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8123,7 +8123,7 @@
         <v>3</v>
       </c>
       <c r="G336">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="G337">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8169,7 +8169,7 @@
         <v>4</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8192,7 +8192,7 @@
         <v>3</v>
       </c>
       <c r="G339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8215,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="G340">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8238,7 +8238,7 @@
         <v>3</v>
       </c>
       <c r="G341">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8261,7 +8261,7 @@
         <v>3</v>
       </c>
       <c r="G342">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8284,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="G343">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8307,7 +8307,7 @@
         <v>4</v>
       </c>
       <c r="G344">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8330,7 +8330,7 @@
         <v>3</v>
       </c>
       <c r="G345">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8376,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="G347">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8399,7 +8399,7 @@
         <v>2</v>
       </c>
       <c r="G348">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -8422,7 +8422,7 @@
         <v>3</v>
       </c>
       <c r="G349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -8445,7 +8445,7 @@
         <v>3</v>
       </c>
       <c r="G350">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8468,7 +8468,7 @@
         <v>2</v>
       </c>
       <c r="G351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -8514,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="G353">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -8537,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="G354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -8560,7 +8560,7 @@
         <v>3</v>
       </c>
       <c r="G355">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -8583,7 +8583,7 @@
         <v>2</v>
       </c>
       <c r="G356">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -8606,7 +8606,7 @@
         <v>4</v>
       </c>
       <c r="G357">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -8629,7 +8629,7 @@
         <v>4</v>
       </c>
       <c r="G358">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -8652,7 +8652,7 @@
         <v>4</v>
       </c>
       <c r="G359">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -8675,7 +8675,7 @@
         <v>2</v>
       </c>
       <c r="G360">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -8698,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="G361">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -8721,7 +8721,7 @@
         <v>3</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -8744,7 +8744,7 @@
         <v>2</v>
       </c>
       <c r="G363">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -8767,7 +8767,7 @@
         <v>2</v>
       </c>
       <c r="G364">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8790,7 +8790,7 @@
         <v>5</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -8813,7 +8813,7 @@
         <v>2</v>
       </c>
       <c r="G366">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -8836,7 +8836,7 @@
         <v>4</v>
       </c>
       <c r="G367">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -8859,7 +8859,7 @@
         <v>3</v>
       </c>
       <c r="G368">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -8882,7 +8882,7 @@
         <v>2</v>
       </c>
       <c r="G369">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -8905,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="G370">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -8951,7 +8951,7 @@
         <v>3</v>
       </c>
       <c r="G372">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -8974,7 +8974,7 @@
         <v>2</v>
       </c>
       <c r="G373">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -8997,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="G374">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="G375">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -9043,7 +9043,7 @@
         <v>3</v>
       </c>
       <c r="G376">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9066,7 +9066,7 @@
         <v>2</v>
       </c>
       <c r="G377">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9089,7 +9089,7 @@
         <v>6</v>
       </c>
       <c r="G378">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -9135,7 +9135,7 @@
         <v>3</v>
       </c>
       <c r="G380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -9158,7 +9158,7 @@
         <v>4</v>
       </c>
       <c r="G381">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -9181,7 +9181,7 @@
         <v>3</v>
       </c>
       <c r="G382">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -9204,7 +9204,7 @@
         <v>4</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -9227,7 +9227,7 @@
         <v>3</v>
       </c>
       <c r="G384">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9250,7 +9250,7 @@
         <v>6</v>
       </c>
       <c r="G385">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9296,7 +9296,7 @@
         <v>3</v>
       </c>
       <c r="G387">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -9319,7 +9319,7 @@
         <v>4</v>
       </c>
       <c r="G388">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -9365,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="G390">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -9388,7 +9388,7 @@
         <v>3</v>
       </c>
       <c r="G391">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -9411,7 +9411,7 @@
         <v>3</v>
       </c>
       <c r="G392">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -9434,7 +9434,7 @@
         <v>2</v>
       </c>
       <c r="G393">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="G394">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -9480,7 +9480,7 @@
         <v>2</v>
       </c>
       <c r="G395">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -9526,7 +9526,7 @@
         <v>4</v>
       </c>
       <c r="G397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -9549,7 +9549,7 @@
         <v>4</v>
       </c>
       <c r="G398">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -9572,7 +9572,7 @@
         <v>4</v>
       </c>
       <c r="G399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -9595,7 +9595,7 @@
         <v>5</v>
       </c>
       <c r="G400">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -9618,7 +9618,7 @@
         <v>2</v>
       </c>
       <c r="G401">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -9641,7 +9641,7 @@
         <v>5</v>
       </c>
       <c r="G402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -9664,7 +9664,7 @@
         <v>2</v>
       </c>
       <c r="G403">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -9687,7 +9687,7 @@
         <v>4</v>
       </c>
       <c r="G404">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -9710,7 +9710,7 @@
         <v>3</v>
       </c>
       <c r="G405">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -9733,7 +9733,7 @@
         <v>3</v>
       </c>
       <c r="G406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -9756,7 +9756,7 @@
         <v>4</v>
       </c>
       <c r="G407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -9779,7 +9779,7 @@
         <v>2</v>
       </c>
       <c r="G408">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="G409">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -9825,7 +9825,7 @@
         <v>3</v>
       </c>
       <c r="G410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -9871,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="G412">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -9894,7 +9894,7 @@
         <v>3</v>
       </c>
       <c r="G413">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -9917,7 +9917,7 @@
         <v>3</v>
       </c>
       <c r="G414">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -9940,7 +9940,7 @@
         <v>6</v>
       </c>
       <c r="G415">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -9963,7 +9963,7 @@
         <v>5</v>
       </c>
       <c r="G416">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -10009,7 +10009,7 @@
         <v>3</v>
       </c>
       <c r="G418">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="419" spans="1:7">
@@ -10032,7 +10032,7 @@
         <v>6</v>
       </c>
       <c r="G419">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -10055,7 +10055,7 @@
         <v>4</v>
       </c>
       <c r="G420">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -10078,7 +10078,7 @@
         <v>3</v>
       </c>
       <c r="G421">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -10101,7 +10101,7 @@
         <v>4</v>
       </c>
       <c r="G422">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -10124,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="G423">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -10147,7 +10147,7 @@
         <v>3</v>
       </c>
       <c r="G424">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -10170,7 +10170,7 @@
         <v>4</v>
       </c>
       <c r="G425">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -10193,7 +10193,7 @@
         <v>3</v>
       </c>
       <c r="G426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -10216,7 +10216,7 @@
         <v>4</v>
       </c>
       <c r="G427">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -10239,7 +10239,7 @@
         <v>2</v>
       </c>
       <c r="G428">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -10262,7 +10262,7 @@
         <v>2</v>
       </c>
       <c r="G429">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -10285,7 +10285,7 @@
         <v>4</v>
       </c>
       <c r="G430">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -10308,7 +10308,7 @@
         <v>3</v>
       </c>
       <c r="G431">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -10331,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="G432">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -10354,7 +10354,7 @@
         <v>6</v>
       </c>
       <c r="G433">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -10377,7 +10377,7 @@
         <v>3</v>
       </c>
       <c r="G434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -10400,7 +10400,7 @@
         <v>2</v>
       </c>
       <c r="G435">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -10423,7 +10423,7 @@
         <v>4</v>
       </c>
       <c r="G436">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -10446,7 +10446,7 @@
         <v>3</v>
       </c>
       <c r="G437">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -10469,7 +10469,7 @@
         <v>3</v>
       </c>
       <c r="G438">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -10492,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="G439">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -10515,7 +10515,7 @@
         <v>4</v>
       </c>
       <c r="G440">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -10561,7 +10561,7 @@
         <v>3</v>
       </c>
       <c r="G442">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -10607,7 +10607,7 @@
         <v>3</v>
       </c>
       <c r="G444">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -10630,7 +10630,7 @@
         <v>2</v>
       </c>
       <c r="G445">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="G446">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -10676,7 +10676,7 @@
         <v>4</v>
       </c>
       <c r="G447">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -10699,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="G448">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -10722,7 +10722,7 @@
         <v>3</v>
       </c>
       <c r="G449">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -10745,7 +10745,7 @@
         <v>3</v>
       </c>
       <c r="G450">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -10791,7 +10791,7 @@
         <v>4</v>
       </c>
       <c r="G452">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -10837,7 +10837,7 @@
         <v>3</v>
       </c>
       <c r="G454">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -10883,7 +10883,7 @@
         <v>3</v>
       </c>
       <c r="G456">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -10906,7 +10906,7 @@
         <v>3</v>
       </c>
       <c r="G457">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -10929,7 +10929,7 @@
         <v>3</v>
       </c>
       <c r="G458">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="459" spans="1:7">
@@ -10952,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="G459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -11021,7 +11021,7 @@
         <v>3</v>
       </c>
       <c r="G462">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -11044,7 +11044,7 @@
         <v>3</v>
       </c>
       <c r="G463">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -11067,7 +11067,7 @@
         <v>6</v>
       </c>
       <c r="G464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -11090,7 +11090,7 @@
         <v>2</v>
       </c>
       <c r="G465">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -11113,7 +11113,7 @@
         <v>2</v>
       </c>
       <c r="G466">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11136,7 +11136,7 @@
         <v>2</v>
       </c>
       <c r="G467">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11159,7 +11159,7 @@
         <v>3</v>
       </c>
       <c r="G468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -11182,7 +11182,7 @@
         <v>5</v>
       </c>
       <c r="G469">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -11205,7 +11205,7 @@
         <v>4</v>
       </c>
       <c r="G470">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -11251,7 +11251,7 @@
         <v>2</v>
       </c>
       <c r="G472">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11274,7 +11274,7 @@
         <v>3</v>
       </c>
       <c r="G473">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -11297,7 +11297,7 @@
         <v>3</v>
       </c>
       <c r="G474">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -11320,7 +11320,7 @@
         <v>2</v>
       </c>
       <c r="G475">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -11343,7 +11343,7 @@
         <v>2</v>
       </c>
       <c r="G476">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -11366,7 +11366,7 @@
         <v>3</v>
       </c>
       <c r="G477">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -11389,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="G478">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -11412,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="G479">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -11435,7 +11435,7 @@
         <v>2</v>
       </c>
       <c r="G480">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -11458,7 +11458,7 @@
         <v>6</v>
       </c>
       <c r="G481">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -11481,7 +11481,7 @@
         <v>4</v>
       </c>
       <c r="G482">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -11504,7 +11504,7 @@
         <v>2</v>
       </c>
       <c r="G483">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -11550,7 +11550,7 @@
         <v>3</v>
       </c>
       <c r="G485">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -11573,7 +11573,7 @@
         <v>2</v>
       </c>
       <c r="G486">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -11596,7 +11596,7 @@
         <v>3</v>
       </c>
       <c r="G487">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:7">
@@ -11665,7 +11665,7 @@
         <v>3</v>
       </c>
       <c r="G490">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -11688,7 +11688,7 @@
         <v>5</v>
       </c>
       <c r="G491">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -11711,7 +11711,7 @@
         <v>4</v>
       </c>
       <c r="G492">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -11734,7 +11734,7 @@
         <v>5</v>
       </c>
       <c r="G493">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -11757,7 +11757,7 @@
         <v>3</v>
       </c>
       <c r="G494">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -11780,7 +11780,7 @@
         <v>3</v>
       </c>
       <c r="G495">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -11803,7 +11803,7 @@
         <v>4</v>
       </c>
       <c r="G496">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -11826,7 +11826,7 @@
         <v>5</v>
       </c>
       <c r="G497">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -11849,7 +11849,7 @@
         <v>2</v>
       </c>
       <c r="G498">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -11872,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="G499">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -11918,7 +11918,7 @@
         <v>4</v>
       </c>
       <c r="G501">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -11941,7 +11941,7 @@
         <v>2</v>
       </c>
       <c r="G502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -11964,7 +11964,7 @@
         <v>2</v>
       </c>
       <c r="G503">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -11987,7 +11987,7 @@
         <v>5</v>
       </c>
       <c r="G504">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -12010,7 +12010,7 @@
         <v>3</v>
       </c>
       <c r="G505">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12056,7 +12056,7 @@
         <v>2</v>
       </c>
       <c r="G507">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -12079,7 +12079,7 @@
         <v>4</v>
       </c>
       <c r="G508">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -12102,7 +12102,7 @@
         <v>2</v>
       </c>
       <c r="G509">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -12148,7 +12148,7 @@
         <v>2</v>
       </c>
       <c r="G511">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -12171,7 +12171,7 @@
         <v>3</v>
       </c>
       <c r="G512">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -12194,7 +12194,7 @@
         <v>5</v>
       </c>
       <c r="G513">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -12217,7 +12217,7 @@
         <v>5</v>
       </c>
       <c r="G514">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -12240,7 +12240,7 @@
         <v>2</v>
       </c>
       <c r="G515">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -12263,7 +12263,7 @@
         <v>3</v>
       </c>
       <c r="G516">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -12286,7 +12286,7 @@
         <v>4</v>
       </c>
       <c r="G517">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -12309,7 +12309,7 @@
         <v>2</v>
       </c>
       <c r="G518">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -12332,7 +12332,7 @@
         <v>6</v>
       </c>
       <c r="G519">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -12355,7 +12355,7 @@
         <v>4</v>
       </c>
       <c r="G520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -12378,7 +12378,7 @@
         <v>5</v>
       </c>
       <c r="G521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -12401,7 +12401,7 @@
         <v>2</v>
       </c>
       <c r="G522">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -12424,7 +12424,7 @@
         <v>2</v>
       </c>
       <c r="G523">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -12470,7 +12470,7 @@
         <v>4</v>
       </c>
       <c r="G525">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -12493,7 +12493,7 @@
         <v>5</v>
       </c>
       <c r="G526">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -12516,7 +12516,7 @@
         <v>3</v>
       </c>
       <c r="G527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -12539,7 +12539,7 @@
         <v>2</v>
       </c>
       <c r="G528">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -12585,7 +12585,7 @@
         <v>3</v>
       </c>
       <c r="G530">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -12608,7 +12608,7 @@
         <v>5</v>
       </c>
       <c r="G531">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -12631,7 +12631,7 @@
         <v>2</v>
       </c>
       <c r="G532">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -12654,7 +12654,7 @@
         <v>2</v>
       </c>
       <c r="G533">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -12677,7 +12677,7 @@
         <v>4</v>
       </c>
       <c r="G534">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -12700,7 +12700,7 @@
         <v>3</v>
       </c>
       <c r="G535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -12723,7 +12723,7 @@
         <v>3</v>
       </c>
       <c r="G536">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -12746,7 +12746,7 @@
         <v>4</v>
       </c>
       <c r="G537">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -12769,7 +12769,7 @@
         <v>4</v>
       </c>
       <c r="G538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -12792,7 +12792,7 @@
         <v>2</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -12815,7 +12815,7 @@
         <v>6</v>
       </c>
       <c r="G540">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -12838,7 +12838,7 @@
         <v>3</v>
       </c>
       <c r="G541">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -12861,7 +12861,7 @@
         <v>2</v>
       </c>
       <c r="G542">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -12930,7 +12930,7 @@
         <v>3</v>
       </c>
       <c r="G545">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -12953,7 +12953,7 @@
         <v>3</v>
       </c>
       <c r="G546">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -12976,7 +12976,7 @@
         <v>3</v>
       </c>
       <c r="G547">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -13022,7 +13022,7 @@
         <v>3</v>
       </c>
       <c r="G549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -13045,7 +13045,7 @@
         <v>3</v>
       </c>
       <c r="G550">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -13068,7 +13068,7 @@
         <v>3</v>
       </c>
       <c r="G551">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -13091,7 +13091,7 @@
         <v>5</v>
       </c>
       <c r="G552">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -13114,7 +13114,7 @@
         <v>2</v>
       </c>
       <c r="G553">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -13137,7 +13137,7 @@
         <v>3</v>
       </c>
       <c r="G554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -13183,7 +13183,7 @@
         <v>5</v>
       </c>
       <c r="G556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -13229,7 +13229,7 @@
         <v>4</v>
       </c>
       <c r="G558">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -13275,7 +13275,7 @@
         <v>3</v>
       </c>
       <c r="G560">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -13298,7 +13298,7 @@
         <v>3</v>
       </c>
       <c r="G561">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -13321,7 +13321,7 @@
         <v>3</v>
       </c>
       <c r="G562">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -13344,7 +13344,7 @@
         <v>4</v>
       </c>
       <c r="G563">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -13367,7 +13367,7 @@
         <v>3</v>
       </c>
       <c r="G564">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -13413,7 +13413,7 @@
         <v>3</v>
       </c>
       <c r="G566">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -13436,7 +13436,7 @@
         <v>4</v>
       </c>
       <c r="G567">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -13459,7 +13459,7 @@
         <v>5</v>
       </c>
       <c r="G568">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -13482,7 +13482,7 @@
         <v>4</v>
       </c>
       <c r="G569">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -13505,7 +13505,7 @@
         <v>2</v>
       </c>
       <c r="G570">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -13528,7 +13528,7 @@
         <v>4</v>
       </c>
       <c r="G571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="G572">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -13574,7 +13574,7 @@
         <v>4</v>
       </c>
       <c r="G573">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -13597,7 +13597,7 @@
         <v>3</v>
       </c>
       <c r="G574">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -13620,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="G575">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -13643,7 +13643,7 @@
         <v>2</v>
       </c>
       <c r="G576">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -13666,7 +13666,7 @@
         <v>3</v>
       </c>
       <c r="G577">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -13689,7 +13689,7 @@
         <v>3</v>
       </c>
       <c r="G578">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -13712,7 +13712,7 @@
         <v>4</v>
       </c>
       <c r="G579">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -13735,7 +13735,7 @@
         <v>4</v>
       </c>
       <c r="G580">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -13781,7 +13781,7 @@
         <v>4</v>
       </c>
       <c r="G582">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -13804,7 +13804,7 @@
         <v>4</v>
       </c>
       <c r="G583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -13827,7 +13827,7 @@
         <v>2</v>
       </c>
       <c r="G584">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -13850,7 +13850,7 @@
         <v>3</v>
       </c>
       <c r="G585">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="G586">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -13896,7 +13896,7 @@
         <v>4</v>
       </c>
       <c r="G587">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -13919,7 +13919,7 @@
         <v>4</v>
       </c>
       <c r="G588">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -13942,7 +13942,7 @@
         <v>3</v>
       </c>
       <c r="G589">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -13965,7 +13965,7 @@
         <v>4</v>
       </c>
       <c r="G590">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -13988,7 +13988,7 @@
         <v>4</v>
       </c>
       <c r="G591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -14011,7 +14011,7 @@
         <v>2</v>
       </c>
       <c r="G592">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -14034,7 +14034,7 @@
         <v>4</v>
       </c>
       <c r="G593">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="G594">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -14080,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="G595">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -14103,7 +14103,7 @@
         <v>3</v>
       </c>
       <c r="G596">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -14126,7 +14126,7 @@
         <v>4</v>
       </c>
       <c r="G597">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="G598">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -14172,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="G599">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -14195,7 +14195,7 @@
         <v>3</v>
       </c>
       <c r="G600">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -14218,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="G601">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -14241,7 +14241,7 @@
         <v>4</v>
       </c>
       <c r="G602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -14264,7 +14264,7 @@
         <v>5</v>
       </c>
       <c r="G603">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -14287,7 +14287,7 @@
         <v>4</v>
       </c>
       <c r="G604">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -14310,7 +14310,7 @@
         <v>4</v>
       </c>
       <c r="G605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -14333,7 +14333,7 @@
         <v>3</v>
       </c>
       <c r="G606">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -14356,7 +14356,7 @@
         <v>2</v>
       </c>
       <c r="G607">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -14379,7 +14379,7 @@
         <v>3</v>
       </c>
       <c r="G608">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -14402,7 +14402,7 @@
         <v>4</v>
       </c>
       <c r="G609">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -14425,7 +14425,7 @@
         <v>3</v>
       </c>
       <c r="G610">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -14448,7 +14448,7 @@
         <v>2</v>
       </c>
       <c r="G611">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -14471,7 +14471,7 @@
         <v>4</v>
       </c>
       <c r="G612">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -14494,7 +14494,7 @@
         <v>4</v>
       </c>
       <c r="G613">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -14517,7 +14517,7 @@
         <v>3</v>
       </c>
       <c r="G614">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="615" spans="1:7">
@@ -14540,7 +14540,7 @@
         <v>4</v>
       </c>
       <c r="G615">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -14563,7 +14563,7 @@
         <v>2</v>
       </c>
       <c r="G616">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="617" spans="1:7">
@@ -14586,7 +14586,7 @@
         <v>3</v>
       </c>
       <c r="G617">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -14609,7 +14609,7 @@
         <v>4</v>
       </c>
       <c r="G618">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -14632,7 +14632,7 @@
         <v>2</v>
       </c>
       <c r="G619">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -14655,7 +14655,7 @@
         <v>3</v>
       </c>
       <c r="G620">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -14724,7 +14724,7 @@
         <v>4</v>
       </c>
       <c r="G623">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -14747,7 +14747,7 @@
         <v>5</v>
       </c>
       <c r="G624">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -14770,7 +14770,7 @@
         <v>4</v>
       </c>
       <c r="G625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -14793,7 +14793,7 @@
         <v>2</v>
       </c>
       <c r="G626">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -14839,7 +14839,7 @@
         <v>4</v>
       </c>
       <c r="G628">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -14862,7 +14862,7 @@
         <v>5</v>
       </c>
       <c r="G629">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -14885,7 +14885,7 @@
         <v>3</v>
       </c>
       <c r="G630">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -14908,7 +14908,7 @@
         <v>4</v>
       </c>
       <c r="G631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -14931,7 +14931,7 @@
         <v>3</v>
       </c>
       <c r="G632">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -14954,7 +14954,7 @@
         <v>6</v>
       </c>
       <c r="G633">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -14977,7 +14977,7 @@
         <v>5</v>
       </c>
       <c r="G634">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -15000,7 +15000,7 @@
         <v>1</v>
       </c>
       <c r="G635">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -15023,7 +15023,7 @@
         <v>4</v>
       </c>
       <c r="G636">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -15046,7 +15046,7 @@
         <v>2</v>
       </c>
       <c r="G637">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -15069,7 +15069,7 @@
         <v>3</v>
       </c>
       <c r="G638">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -15092,7 +15092,7 @@
         <v>5</v>
       </c>
       <c r="G639">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -15115,7 +15115,7 @@
         <v>4</v>
       </c>
       <c r="G640">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -15138,7 +15138,7 @@
         <v>3</v>
       </c>
       <c r="G641">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -15161,7 +15161,7 @@
         <v>5</v>
       </c>
       <c r="G642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -15184,7 +15184,7 @@
         <v>6</v>
       </c>
       <c r="G643">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -15207,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="G644">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="G646">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -15276,7 +15276,7 @@
         <v>4</v>
       </c>
       <c r="G647">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -15299,7 +15299,7 @@
         <v>4</v>
       </c>
       <c r="G648">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -15322,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="G649">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -15345,7 +15345,7 @@
         <v>3</v>
       </c>
       <c r="G650">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="G651">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -15391,7 +15391,7 @@
         <v>4</v>
       </c>
       <c r="G652">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -15414,7 +15414,7 @@
         <v>4</v>
       </c>
       <c r="G653">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -15460,7 +15460,7 @@
         <v>3</v>
       </c>
       <c r="G655">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -15506,7 +15506,7 @@
         <v>3</v>
       </c>
       <c r="G657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -15529,7 +15529,7 @@
         <v>4</v>
       </c>
       <c r="G658">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -15552,7 +15552,7 @@
         <v>3</v>
       </c>
       <c r="G659">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -15575,7 +15575,7 @@
         <v>5</v>
       </c>
       <c r="G660">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -15598,7 +15598,7 @@
         <v>4</v>
       </c>
       <c r="G661">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -15621,7 +15621,7 @@
         <v>5</v>
       </c>
       <c r="G662">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -15644,7 +15644,7 @@
         <v>4</v>
       </c>
       <c r="G663">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -15667,7 +15667,7 @@
         <v>3</v>
       </c>
       <c r="G664">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="G665">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -15713,7 +15713,7 @@
         <v>2</v>
       </c>
       <c r="G666">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -15736,7 +15736,7 @@
         <v>3</v>
       </c>
       <c r="G667">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -15759,7 +15759,7 @@
         <v>3</v>
       </c>
       <c r="G668">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -15782,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="G669">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -15805,7 +15805,7 @@
         <v>2</v>
       </c>
       <c r="G670">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="G671">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -15851,7 +15851,7 @@
         <v>6</v>
       </c>
       <c r="G672">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -15874,7 +15874,7 @@
         <v>3</v>
       </c>
       <c r="G673">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -15897,7 +15897,7 @@
         <v>3</v>
       </c>
       <c r="G674">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -15920,7 +15920,7 @@
         <v>1</v>
       </c>
       <c r="G675">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -15943,7 +15943,7 @@
         <v>4</v>
       </c>
       <c r="G676">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -15966,7 +15966,7 @@
         <v>4</v>
       </c>
       <c r="G677">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -15989,7 +15989,7 @@
         <v>2</v>
       </c>
       <c r="G678">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -16012,7 +16012,7 @@
         <v>2</v>
       </c>
       <c r="G679">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -16035,7 +16035,7 @@
         <v>3</v>
       </c>
       <c r="G680">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="681" spans="1:7">
@@ -16058,7 +16058,7 @@
         <v>6</v>
       </c>
       <c r="G681">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -16104,7 +16104,7 @@
         <v>3</v>
       </c>
       <c r="G683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -16127,7 +16127,7 @@
         <v>4</v>
       </c>
       <c r="G684">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="G685">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -16173,7 +16173,7 @@
         <v>2</v>
       </c>
       <c r="G686">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="687" spans="1:7">
@@ -16242,7 +16242,7 @@
         <v>2</v>
       </c>
       <c r="G689">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:7">
@@ -16265,7 +16265,7 @@
         <v>3</v>
       </c>
       <c r="G690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -16288,7 +16288,7 @@
         <v>3</v>
       </c>
       <c r="G691">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -16311,7 +16311,7 @@
         <v>1</v>
       </c>
       <c r="G692">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -16334,7 +16334,7 @@
         <v>3</v>
       </c>
       <c r="G693">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="694" spans="1:7">
@@ -16380,7 +16380,7 @@
         <v>6</v>
       </c>
       <c r="G695">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -16403,7 +16403,7 @@
         <v>3</v>
       </c>
       <c r="G696">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="697" spans="1:7">
@@ -16426,7 +16426,7 @@
         <v>3</v>
       </c>
       <c r="G697">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="698" spans="1:7">
@@ -16449,7 +16449,7 @@
         <v>3</v>
       </c>
       <c r="G698">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699" spans="1:7">
@@ -16495,7 +16495,7 @@
         <v>4</v>
       </c>
       <c r="G700">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -16518,7 +16518,7 @@
         <v>4</v>
       </c>
       <c r="G701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:7">
@@ -16541,7 +16541,7 @@
         <v>4</v>
       </c>
       <c r="G702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -16564,7 +16564,7 @@
         <v>5</v>
       </c>
       <c r="G703">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="704" spans="1:7">
@@ -16587,7 +16587,7 @@
         <v>4</v>
       </c>
       <c r="G704">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -16610,7 +16610,7 @@
         <v>4</v>
       </c>
       <c r="G705">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -16633,7 +16633,7 @@
         <v>6</v>
       </c>
       <c r="G706">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -16656,7 +16656,7 @@
         <v>4</v>
       </c>
       <c r="G707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:7">
@@ -16679,7 +16679,7 @@
         <v>2</v>
       </c>
       <c r="G708">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -16725,7 +16725,7 @@
         <v>4</v>
       </c>
       <c r="G710">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -16748,7 +16748,7 @@
         <v>4</v>
       </c>
       <c r="G711">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -16771,7 +16771,7 @@
         <v>4</v>
       </c>
       <c r="G712">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Python-code/kmodes_result.xlsx
+++ b/Python-code/kmodes_result.xlsx
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="G3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -510,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="G5">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,7 +556,7 @@
         <v>2</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -625,7 +625,7 @@
         <v>4</v>
       </c>
       <c r="G10">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="G11">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -786,7 +786,7 @@
         <v>2</v>
       </c>
       <c r="G17">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -809,7 +809,7 @@
         <v>2</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="G22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -924,7 +924,7 @@
         <v>3</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -947,7 +947,7 @@
         <v>4</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -993,7 +993,7 @@
         <v>4</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1039,7 +1039,7 @@
         <v>5</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1062,7 +1062,7 @@
         <v>3</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1085,7 +1085,7 @@
         <v>3</v>
       </c>
       <c r="G30">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1108,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="G31">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1131,7 +1131,7 @@
         <v>2</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1154,7 +1154,7 @@
         <v>2</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1177,7 +1177,7 @@
         <v>3</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1200,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1246,7 +1246,7 @@
         <v>2</v>
       </c>
       <c r="G37">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1315,7 +1315,7 @@
         <v>2</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1338,7 +1338,7 @@
         <v>2</v>
       </c>
       <c r="G41">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1384,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="G43">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1407,7 +1407,7 @@
         <v>4</v>
       </c>
       <c r="G44">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1430,7 +1430,7 @@
         <v>5</v>
       </c>
       <c r="G45">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1453,7 +1453,7 @@
         <v>4</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1476,7 +1476,7 @@
         <v>3</v>
       </c>
       <c r="G47">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1499,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="G48">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1522,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="G49">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1545,7 +1545,7 @@
         <v>3</v>
       </c>
       <c r="G50">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1568,7 +1568,7 @@
         <v>3</v>
       </c>
       <c r="G51">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1591,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1614,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="G53">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1706,7 +1706,7 @@
         <v>5</v>
       </c>
       <c r="G57">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1729,7 +1729,7 @@
         <v>3</v>
       </c>
       <c r="G58">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1752,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="G59">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1775,7 +1775,7 @@
         <v>3</v>
       </c>
       <c r="G60">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1798,7 +1798,7 @@
         <v>2</v>
       </c>
       <c r="G61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1821,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="G62">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1844,7 +1844,7 @@
         <v>3</v>
       </c>
       <c r="G63">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1867,7 +1867,7 @@
         <v>6</v>
       </c>
       <c r="G64">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1890,7 +1890,7 @@
         <v>3</v>
       </c>
       <c r="G65">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1913,7 +1913,7 @@
         <v>6</v>
       </c>
       <c r="G66">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1982,7 +1982,7 @@
         <v>4</v>
       </c>
       <c r="G69">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2005,7 +2005,7 @@
         <v>4</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2051,7 +2051,7 @@
         <v>4</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2097,7 +2097,7 @@
         <v>4</v>
       </c>
       <c r="G74">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2120,7 +2120,7 @@
         <v>3</v>
       </c>
       <c r="G75">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2143,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="G76">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2189,7 +2189,7 @@
         <v>3</v>
       </c>
       <c r="G78">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2212,7 +2212,7 @@
         <v>6</v>
       </c>
       <c r="G79">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2235,7 +2235,7 @@
         <v>4</v>
       </c>
       <c r="G80">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2258,7 +2258,7 @@
         <v>2</v>
       </c>
       <c r="G81">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -2281,7 +2281,7 @@
         <v>2</v>
       </c>
       <c r="G82">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2304,7 +2304,7 @@
         <v>5</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2327,7 +2327,7 @@
         <v>5</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2350,7 +2350,7 @@
         <v>4</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2373,7 +2373,7 @@
         <v>5</v>
       </c>
       <c r="G86">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2396,7 +2396,7 @@
         <v>4</v>
       </c>
       <c r="G87">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2419,7 +2419,7 @@
         <v>3</v>
       </c>
       <c r="G88">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2442,7 +2442,7 @@
         <v>3</v>
       </c>
       <c r="G89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -2465,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="G90">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2488,7 +2488,7 @@
         <v>4</v>
       </c>
       <c r="G91">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2534,7 +2534,7 @@
         <v>2</v>
       </c>
       <c r="G93">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2603,7 +2603,7 @@
         <v>3</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2626,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2672,7 +2672,7 @@
         <v>4</v>
       </c>
       <c r="G99">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="G102">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2764,7 +2764,7 @@
         <v>6</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2787,7 +2787,7 @@
         <v>2</v>
       </c>
       <c r="G104">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2810,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="G105">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2833,7 +2833,7 @@
         <v>5</v>
       </c>
       <c r="G106">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2856,7 +2856,7 @@
         <v>3</v>
       </c>
       <c r="G107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2879,7 +2879,7 @@
         <v>3</v>
       </c>
       <c r="G108">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2925,7 +2925,7 @@
         <v>3</v>
       </c>
       <c r="G110">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2948,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="G111">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2971,7 +2971,7 @@
         <v>4</v>
       </c>
       <c r="G112">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2994,7 +2994,7 @@
         <v>5</v>
       </c>
       <c r="G113">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3017,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="G114">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3040,7 +3040,7 @@
         <v>2</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3063,7 +3063,7 @@
         <v>2</v>
       </c>
       <c r="G116">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3109,7 +3109,7 @@
         <v>4</v>
       </c>
       <c r="G118">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3132,7 +3132,7 @@
         <v>3</v>
       </c>
       <c r="G119">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3155,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3178,7 +3178,7 @@
         <v>4</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3201,7 +3201,7 @@
         <v>4</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -3224,7 +3224,7 @@
         <v>3</v>
       </c>
       <c r="G123">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3247,7 +3247,7 @@
         <v>2</v>
       </c>
       <c r="G124">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3270,7 +3270,7 @@
         <v>2</v>
       </c>
       <c r="G125">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3293,7 +3293,7 @@
         <v>3</v>
       </c>
       <c r="G126">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3316,7 +3316,7 @@
         <v>4</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3362,7 +3362,7 @@
         <v>3</v>
       </c>
       <c r="G129">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3431,7 +3431,7 @@
         <v>4</v>
       </c>
       <c r="G132">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3477,7 +3477,7 @@
         <v>4</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3523,7 +3523,7 @@
         <v>5</v>
       </c>
       <c r="G136">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3546,7 +3546,7 @@
         <v>4</v>
       </c>
       <c r="G137">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3569,7 +3569,7 @@
         <v>2</v>
       </c>
       <c r="G138">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3592,7 +3592,7 @@
         <v>3</v>
       </c>
       <c r="G139">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3615,7 +3615,7 @@
         <v>4</v>
       </c>
       <c r="G140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
       <c r="G143">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="G145">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3753,7 +3753,7 @@
         <v>3</v>
       </c>
       <c r="G146">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -3776,7 +3776,7 @@
         <v>3</v>
       </c>
       <c r="G147">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3822,7 +3822,7 @@
         <v>4</v>
       </c>
       <c r="G149">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3845,7 +3845,7 @@
         <v>4</v>
       </c>
       <c r="G150">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3891,7 +3891,7 @@
         <v>3</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3914,7 +3914,7 @@
         <v>2</v>
       </c>
       <c r="G153">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3937,7 +3937,7 @@
         <v>4</v>
       </c>
       <c r="G154">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3960,7 +3960,7 @@
         <v>3</v>
       </c>
       <c r="G155">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3983,7 +3983,7 @@
         <v>5</v>
       </c>
       <c r="G156">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4006,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="G157">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4029,7 +4029,7 @@
         <v>3</v>
       </c>
       <c r="G158">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4075,7 +4075,7 @@
         <v>2</v>
       </c>
       <c r="G160">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4098,7 +4098,7 @@
         <v>2</v>
       </c>
       <c r="G161">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4121,7 +4121,7 @@
         <v>5</v>
       </c>
       <c r="G162">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4144,7 +4144,7 @@
         <v>2</v>
       </c>
       <c r="G163">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4167,7 +4167,7 @@
         <v>3</v>
       </c>
       <c r="G164">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4190,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="G165">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4259,7 +4259,7 @@
         <v>6</v>
       </c>
       <c r="G168">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4282,7 +4282,7 @@
         <v>4</v>
       </c>
       <c r="G169">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4305,7 +4305,7 @@
         <v>5</v>
       </c>
       <c r="G170">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4328,7 +4328,7 @@
         <v>3</v>
       </c>
       <c r="G171">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4351,7 +4351,7 @@
         <v>2</v>
       </c>
       <c r="G172">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4374,7 +4374,7 @@
         <v>3</v>
       </c>
       <c r="G173">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4397,7 +4397,7 @@
         <v>2</v>
       </c>
       <c r="G174">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4420,7 +4420,7 @@
         <v>3</v>
       </c>
       <c r="G175">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4443,7 +4443,7 @@
         <v>5</v>
       </c>
       <c r="G176">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4466,7 +4466,7 @@
         <v>3</v>
       </c>
       <c r="G177">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4489,7 +4489,7 @@
         <v>2</v>
       </c>
       <c r="G178">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4512,7 +4512,7 @@
         <v>3</v>
       </c>
       <c r="G179">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4558,7 +4558,7 @@
         <v>3</v>
       </c>
       <c r="G181">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4581,7 +4581,7 @@
         <v>2</v>
       </c>
       <c r="G182">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4604,7 +4604,7 @@
         <v>4</v>
       </c>
       <c r="G183">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4627,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4673,7 +4673,7 @@
         <v>2</v>
       </c>
       <c r="G186">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -4696,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="G187">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4719,7 +4719,7 @@
         <v>2</v>
       </c>
       <c r="G188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4742,7 +4742,7 @@
         <v>4</v>
       </c>
       <c r="G189">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4765,7 +4765,7 @@
         <v>2</v>
       </c>
       <c r="G190">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4788,7 +4788,7 @@
         <v>2</v>
       </c>
       <c r="G191">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4834,7 +4834,7 @@
         <v>4</v>
       </c>
       <c r="G193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4857,7 +4857,7 @@
         <v>3</v>
       </c>
       <c r="G194">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4880,7 +4880,7 @@
         <v>3</v>
       </c>
       <c r="G195">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
       <c r="G196">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4926,7 +4926,7 @@
         <v>4</v>
       </c>
       <c r="G197">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4949,7 +4949,7 @@
         <v>3</v>
       </c>
       <c r="G198">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -4972,7 +4972,7 @@
         <v>4</v>
       </c>
       <c r="G199">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4995,7 +4995,7 @@
         <v>4</v>
       </c>
       <c r="G200">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5018,7 +5018,7 @@
         <v>5</v>
       </c>
       <c r="G201">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5041,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="G202">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5064,7 +5064,7 @@
         <v>2</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5087,7 +5087,7 @@
         <v>2</v>
       </c>
       <c r="G204">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5133,7 +5133,7 @@
         <v>6</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5156,7 +5156,7 @@
         <v>4</v>
       </c>
       <c r="G207">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5179,7 +5179,7 @@
         <v>2</v>
       </c>
       <c r="G208">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5225,7 +5225,7 @@
         <v>3</v>
       </c>
       <c r="G210">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5248,7 +5248,7 @@
         <v>2</v>
       </c>
       <c r="G211">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5271,7 +5271,7 @@
         <v>2</v>
       </c>
       <c r="G212">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5294,7 +5294,7 @@
         <v>3</v>
       </c>
       <c r="G213">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="G214">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5363,7 +5363,7 @@
         <v>3</v>
       </c>
       <c r="G216">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5386,7 +5386,7 @@
         <v>5</v>
       </c>
       <c r="G217">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5409,7 +5409,7 @@
         <v>3</v>
       </c>
       <c r="G218">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="G220">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5478,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="G221">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="G222">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5524,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5547,7 +5547,7 @@
         <v>2</v>
       </c>
       <c r="G224">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5570,7 +5570,7 @@
         <v>3</v>
       </c>
       <c r="G225">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5593,7 +5593,7 @@
         <v>3</v>
       </c>
       <c r="G226">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -5616,7 +5616,7 @@
         <v>5</v>
       </c>
       <c r="G227">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5639,7 +5639,7 @@
         <v>3</v>
       </c>
       <c r="G228">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5662,7 +5662,7 @@
         <v>4</v>
       </c>
       <c r="G229">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5708,7 +5708,7 @@
         <v>2</v>
       </c>
       <c r="G231">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5731,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="G232">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5777,7 +5777,7 @@
         <v>6</v>
       </c>
       <c r="G234">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5823,7 +5823,7 @@
         <v>4</v>
       </c>
       <c r="G236">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -5869,7 +5869,7 @@
         <v>5</v>
       </c>
       <c r="G238">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5892,7 +5892,7 @@
         <v>3</v>
       </c>
       <c r="G239">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5915,7 +5915,7 @@
         <v>3</v>
       </c>
       <c r="G240">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5938,7 +5938,7 @@
         <v>3</v>
       </c>
       <c r="G241">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -5961,7 +5961,7 @@
         <v>3</v>
       </c>
       <c r="G242">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5984,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="G243">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6007,7 +6007,7 @@
         <v>3</v>
       </c>
       <c r="G244">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6030,7 +6030,7 @@
         <v>3</v>
       </c>
       <c r="G245">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6053,7 +6053,7 @@
         <v>4</v>
       </c>
       <c r="G246">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6076,7 +6076,7 @@
         <v>3</v>
       </c>
       <c r="G247">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6099,7 +6099,7 @@
         <v>3</v>
       </c>
       <c r="G248">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6122,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="G249">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6145,7 +6145,7 @@
         <v>4</v>
       </c>
       <c r="G250">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6168,7 +6168,7 @@
         <v>4</v>
       </c>
       <c r="G251">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6191,7 +6191,7 @@
         <v>2</v>
       </c>
       <c r="G252">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6237,7 +6237,7 @@
         <v>5</v>
       </c>
       <c r="G254">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6260,7 +6260,7 @@
         <v>3</v>
       </c>
       <c r="G255">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6283,7 +6283,7 @@
         <v>2</v>
       </c>
       <c r="G256">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6306,7 +6306,7 @@
         <v>2</v>
       </c>
       <c r="G257">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6329,7 +6329,7 @@
         <v>3</v>
       </c>
       <c r="G258">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6352,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="G259">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6375,7 +6375,7 @@
         <v>4</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6398,7 +6398,7 @@
         <v>2</v>
       </c>
       <c r="G261">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6421,7 +6421,7 @@
         <v>3</v>
       </c>
       <c r="G262">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6444,7 +6444,7 @@
         <v>4</v>
       </c>
       <c r="G263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6467,7 +6467,7 @@
         <v>2</v>
       </c>
       <c r="G264">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6490,7 +6490,7 @@
         <v>4</v>
       </c>
       <c r="G265">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6513,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="G266">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6536,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="G267">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6559,7 +6559,7 @@
         <v>4</v>
       </c>
       <c r="G268">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:7">
@@ -6582,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="G269">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6605,7 +6605,7 @@
         <v>2</v>
       </c>
       <c r="G270">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6651,7 +6651,7 @@
         <v>4</v>
       </c>
       <c r="G272">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6674,7 +6674,7 @@
         <v>2</v>
       </c>
       <c r="G273">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="G274">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>2</v>
       </c>
       <c r="G275">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6766,7 +6766,7 @@
         <v>3</v>
       </c>
       <c r="G277">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6789,7 +6789,7 @@
         <v>5</v>
       </c>
       <c r="G278">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6835,7 +6835,7 @@
         <v>3</v>
       </c>
       <c r="G280">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:7">
@@ -6881,7 +6881,7 @@
         <v>5</v>
       </c>
       <c r="G282">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6904,7 +6904,7 @@
         <v>3</v>
       </c>
       <c r="G283">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="284" spans="1:7">
@@ -6927,7 +6927,7 @@
         <v>4</v>
       </c>
       <c r="G284">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6950,7 +6950,7 @@
         <v>3</v>
       </c>
       <c r="G285">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6973,7 +6973,7 @@
         <v>3</v>
       </c>
       <c r="G286">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -6996,7 +6996,7 @@
         <v>2</v>
       </c>
       <c r="G287">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7019,7 +7019,7 @@
         <v>4</v>
       </c>
       <c r="G288">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7042,7 +7042,7 @@
         <v>2</v>
       </c>
       <c r="G289">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7065,7 +7065,7 @@
         <v>4</v>
       </c>
       <c r="G290">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7088,7 +7088,7 @@
         <v>2</v>
       </c>
       <c r="G291">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7111,7 +7111,7 @@
         <v>2</v>
       </c>
       <c r="G292">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7134,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="G293">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7157,7 +7157,7 @@
         <v>2</v>
       </c>
       <c r="G294">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7180,7 +7180,7 @@
         <v>3</v>
       </c>
       <c r="G295">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="G296">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7249,7 +7249,7 @@
         <v>3</v>
       </c>
       <c r="G298">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:7">
@@ -7272,7 +7272,7 @@
         <v>3</v>
       </c>
       <c r="G299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7318,7 +7318,7 @@
         <v>2</v>
       </c>
       <c r="G301">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7341,7 +7341,7 @@
         <v>3</v>
       </c>
       <c r="G302">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7364,7 +7364,7 @@
         <v>2</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7387,7 +7387,7 @@
         <v>2</v>
       </c>
       <c r="G304">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7410,7 +7410,7 @@
         <v>3</v>
       </c>
       <c r="G305">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7433,7 +7433,7 @@
         <v>4</v>
       </c>
       <c r="G306">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7502,7 +7502,7 @@
         <v>4</v>
       </c>
       <c r="G309">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7525,7 +7525,7 @@
         <v>3</v>
       </c>
       <c r="G310">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7571,7 +7571,7 @@
         <v>3</v>
       </c>
       <c r="G312">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="313" spans="1:7">
@@ -7594,7 +7594,7 @@
         <v>2</v>
       </c>
       <c r="G313">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7617,7 +7617,7 @@
         <v>3</v>
       </c>
       <c r="G314">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7640,7 +7640,7 @@
         <v>3</v>
       </c>
       <c r="G315">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7663,7 +7663,7 @@
         <v>5</v>
       </c>
       <c r="G316">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7686,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="G317">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7709,7 +7709,7 @@
         <v>3</v>
       </c>
       <c r="G318">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7732,7 +7732,7 @@
         <v>2</v>
       </c>
       <c r="G319">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7755,7 +7755,7 @@
         <v>4</v>
       </c>
       <c r="G320">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7778,7 +7778,7 @@
         <v>5</v>
       </c>
       <c r="G321">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7801,7 +7801,7 @@
         <v>2</v>
       </c>
       <c r="G322">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7824,7 +7824,7 @@
         <v>4</v>
       </c>
       <c r="G323">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7847,7 +7847,7 @@
         <v>3</v>
       </c>
       <c r="G324">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7870,7 +7870,7 @@
         <v>4</v>
       </c>
       <c r="G325">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7939,7 +7939,7 @@
         <v>3</v>
       </c>
       <c r="G328">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="329" spans="1:7">
@@ -7962,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="G329">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7985,7 +7985,7 @@
         <v>5</v>
       </c>
       <c r="G330">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8008,7 +8008,7 @@
         <v>2</v>
       </c>
       <c r="G331">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8031,7 +8031,7 @@
         <v>3</v>
       </c>
       <c r="G332">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8054,7 +8054,7 @@
         <v>6</v>
       </c>
       <c r="G333">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8077,7 +8077,7 @@
         <v>5</v>
       </c>
       <c r="G334">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="G337">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8169,7 +8169,7 @@
         <v>4</v>
       </c>
       <c r="G338">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="339" spans="1:7">
@@ -8192,7 +8192,7 @@
         <v>3</v>
       </c>
       <c r="G339">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8215,7 +8215,7 @@
         <v>2</v>
       </c>
       <c r="G340">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8238,7 +8238,7 @@
         <v>3</v>
       </c>
       <c r="G341">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8261,7 +8261,7 @@
         <v>3</v>
       </c>
       <c r="G342">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8284,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="G343">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8307,7 +8307,7 @@
         <v>4</v>
       </c>
       <c r="G344">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8353,7 +8353,7 @@
         <v>3</v>
       </c>
       <c r="G346">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -8376,7 +8376,7 @@
         <v>4</v>
       </c>
       <c r="G347">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8399,7 +8399,7 @@
         <v>2</v>
       </c>
       <c r="G348">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="349" spans="1:7">
@@ -8422,7 +8422,7 @@
         <v>3</v>
       </c>
       <c r="G349">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="350" spans="1:7">
@@ -8445,7 +8445,7 @@
         <v>3</v>
       </c>
       <c r="G350">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8468,7 +8468,7 @@
         <v>2</v>
       </c>
       <c r="G351">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -8491,7 +8491,7 @@
         <v>3</v>
       </c>
       <c r="G352">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -8514,7 +8514,7 @@
         <v>5</v>
       </c>
       <c r="G353">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -8537,7 +8537,7 @@
         <v>3</v>
       </c>
       <c r="G354">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:7">
@@ -8560,7 +8560,7 @@
         <v>3</v>
       </c>
       <c r="G355">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -8583,7 +8583,7 @@
         <v>2</v>
       </c>
       <c r="G356">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -8606,7 +8606,7 @@
         <v>4</v>
       </c>
       <c r="G357">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -8629,7 +8629,7 @@
         <v>4</v>
       </c>
       <c r="G358">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -8652,7 +8652,7 @@
         <v>4</v>
       </c>
       <c r="G359">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -8675,7 +8675,7 @@
         <v>2</v>
       </c>
       <c r="G360">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -8698,7 +8698,7 @@
         <v>3</v>
       </c>
       <c r="G361">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -8721,7 +8721,7 @@
         <v>3</v>
       </c>
       <c r="G362">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:7">
@@ -8744,7 +8744,7 @@
         <v>2</v>
       </c>
       <c r="G363">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -8836,7 +8836,7 @@
         <v>4</v>
       </c>
       <c r="G367">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -8859,7 +8859,7 @@
         <v>3</v>
       </c>
       <c r="G368">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -8882,7 +8882,7 @@
         <v>2</v>
       </c>
       <c r="G369">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -8905,7 +8905,7 @@
         <v>3</v>
       </c>
       <c r="G370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -8928,7 +8928,7 @@
         <v>6</v>
       </c>
       <c r="G371">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -8951,7 +8951,7 @@
         <v>3</v>
       </c>
       <c r="G372">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -8974,7 +8974,7 @@
         <v>2</v>
       </c>
       <c r="G373">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -8997,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="G374">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9043,7 +9043,7 @@
         <v>3</v>
       </c>
       <c r="G376">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9066,7 +9066,7 @@
         <v>2</v>
       </c>
       <c r="G377">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9089,7 +9089,7 @@
         <v>6</v>
       </c>
       <c r="G378">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="379" spans="1:7">
@@ -9112,7 +9112,7 @@
         <v>4</v>
       </c>
       <c r="G379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -9135,7 +9135,7 @@
         <v>3</v>
       </c>
       <c r="G380">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="381" spans="1:7">
@@ -9181,7 +9181,7 @@
         <v>3</v>
       </c>
       <c r="G382">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:7">
@@ -9227,7 +9227,7 @@
         <v>3</v>
       </c>
       <c r="G384">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9250,7 +9250,7 @@
         <v>6</v>
       </c>
       <c r="G385">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9273,7 +9273,7 @@
         <v>6</v>
       </c>
       <c r="G386">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -9296,7 +9296,7 @@
         <v>3</v>
       </c>
       <c r="G387">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -9319,7 +9319,7 @@
         <v>4</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -9365,7 +9365,7 @@
         <v>3</v>
       </c>
       <c r="G390">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -9411,7 +9411,7 @@
         <v>3</v>
       </c>
       <c r="G392">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -9434,7 +9434,7 @@
         <v>2</v>
       </c>
       <c r="G393">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -9457,7 +9457,7 @@
         <v>2</v>
       </c>
       <c r="G394">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -9480,7 +9480,7 @@
         <v>2</v>
       </c>
       <c r="G395">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -9503,7 +9503,7 @@
         <v>5</v>
       </c>
       <c r="G396">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -9526,7 +9526,7 @@
         <v>4</v>
       </c>
       <c r="G397">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -9549,7 +9549,7 @@
         <v>4</v>
       </c>
       <c r="G398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:7">
@@ -9572,7 +9572,7 @@
         <v>4</v>
       </c>
       <c r="G399">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:7">
@@ -9595,7 +9595,7 @@
         <v>5</v>
       </c>
       <c r="G400">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -9618,7 +9618,7 @@
         <v>2</v>
       </c>
       <c r="G401">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -9664,7 +9664,7 @@
         <v>2</v>
       </c>
       <c r="G403">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -9687,7 +9687,7 @@
         <v>4</v>
       </c>
       <c r="G404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:7">
@@ -9733,7 +9733,7 @@
         <v>3</v>
       </c>
       <c r="G406">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -9756,7 +9756,7 @@
         <v>4</v>
       </c>
       <c r="G407">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -9802,7 +9802,7 @@
         <v>4</v>
       </c>
       <c r="G409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -9825,7 +9825,7 @@
         <v>3</v>
       </c>
       <c r="G410">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:7">
@@ -9871,7 +9871,7 @@
         <v>4</v>
       </c>
       <c r="G412">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -9894,7 +9894,7 @@
         <v>3</v>
       </c>
       <c r="G413">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -9917,7 +9917,7 @@
         <v>3</v>
       </c>
       <c r="G414">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -9940,7 +9940,7 @@
         <v>6</v>
       </c>
       <c r="G415">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -9963,7 +9963,7 @@
         <v>5</v>
       </c>
       <c r="G416">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -10032,7 +10032,7 @@
         <v>6</v>
       </c>
       <c r="G419">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -10055,7 +10055,7 @@
         <v>4</v>
       </c>
       <c r="G420">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -10124,7 +10124,7 @@
         <v>2</v>
       </c>
       <c r="G423">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -10147,7 +10147,7 @@
         <v>3</v>
       </c>
       <c r="G424">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:7">
@@ -10170,7 +10170,7 @@
         <v>4</v>
       </c>
       <c r="G425">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -10193,7 +10193,7 @@
         <v>3</v>
       </c>
       <c r="G426">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:7">
@@ -10216,7 +10216,7 @@
         <v>4</v>
       </c>
       <c r="G427">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -10239,7 +10239,7 @@
         <v>2</v>
       </c>
       <c r="G428">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="429" spans="1:7">
@@ -10262,7 +10262,7 @@
         <v>2</v>
       </c>
       <c r="G429">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -10308,7 +10308,7 @@
         <v>3</v>
       </c>
       <c r="G431">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -10331,7 +10331,7 @@
         <v>3</v>
       </c>
       <c r="G432">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -10354,7 +10354,7 @@
         <v>6</v>
       </c>
       <c r="G433">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -10377,7 +10377,7 @@
         <v>3</v>
       </c>
       <c r="G434">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -10400,7 +10400,7 @@
         <v>2</v>
       </c>
       <c r="G435">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -10423,7 +10423,7 @@
         <v>4</v>
       </c>
       <c r="G436">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -10446,7 +10446,7 @@
         <v>3</v>
       </c>
       <c r="G437">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -10469,7 +10469,7 @@
         <v>3</v>
       </c>
       <c r="G438">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="439" spans="1:7">
@@ -10492,7 +10492,7 @@
         <v>2</v>
       </c>
       <c r="G439">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -10515,7 +10515,7 @@
         <v>4</v>
       </c>
       <c r="G440">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -10538,7 +10538,7 @@
         <v>5</v>
       </c>
       <c r="G441">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -10561,7 +10561,7 @@
         <v>3</v>
       </c>
       <c r="G442">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="443" spans="1:7">
@@ -10607,7 +10607,7 @@
         <v>3</v>
       </c>
       <c r="G444">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="G446">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -10676,7 +10676,7 @@
         <v>4</v>
       </c>
       <c r="G447">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -10699,7 +10699,7 @@
         <v>4</v>
       </c>
       <c r="G448">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="449" spans="1:7">
@@ -10722,7 +10722,7 @@
         <v>3</v>
       </c>
       <c r="G449">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -10745,7 +10745,7 @@
         <v>3</v>
       </c>
       <c r="G450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -10791,7 +10791,7 @@
         <v>4</v>
       </c>
       <c r="G452">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -10814,7 +10814,7 @@
         <v>4</v>
       </c>
       <c r="G453">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -10837,7 +10837,7 @@
         <v>3</v>
       </c>
       <c r="G454">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -10860,7 +10860,7 @@
         <v>2</v>
       </c>
       <c r="G455">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -10883,7 +10883,7 @@
         <v>3</v>
       </c>
       <c r="G456">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -10906,7 +10906,7 @@
         <v>3</v>
       </c>
       <c r="G457">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -10952,7 +10952,7 @@
         <v>4</v>
       </c>
       <c r="G459">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -10975,7 +10975,7 @@
         <v>2</v>
       </c>
       <c r="G460">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -11021,7 +11021,7 @@
         <v>3</v>
       </c>
       <c r="G462">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -11044,7 +11044,7 @@
         <v>3</v>
       </c>
       <c r="G463">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -11090,7 +11090,7 @@
         <v>2</v>
       </c>
       <c r="G465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -11113,7 +11113,7 @@
         <v>2</v>
       </c>
       <c r="G466">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11136,7 +11136,7 @@
         <v>2</v>
       </c>
       <c r="G467">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11159,7 +11159,7 @@
         <v>3</v>
       </c>
       <c r="G468">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -11182,7 +11182,7 @@
         <v>5</v>
       </c>
       <c r="G469">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -11205,7 +11205,7 @@
         <v>4</v>
       </c>
       <c r="G470">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -11228,7 +11228,7 @@
         <v>5</v>
       </c>
       <c r="G471">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -11251,7 +11251,7 @@
         <v>2</v>
       </c>
       <c r="G472">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11274,7 +11274,7 @@
         <v>3</v>
       </c>
       <c r="G473">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -11297,7 +11297,7 @@
         <v>3</v>
       </c>
       <c r="G474">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -11320,7 +11320,7 @@
         <v>2</v>
       </c>
       <c r="G475">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -11343,7 +11343,7 @@
         <v>2</v>
       </c>
       <c r="G476">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -11389,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="G478">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -11412,7 +11412,7 @@
         <v>2</v>
       </c>
       <c r="G479">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -11458,7 +11458,7 @@
         <v>6</v>
       </c>
       <c r="G481">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:7">
@@ -11481,7 +11481,7 @@
         <v>4</v>
       </c>
       <c r="G482">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -11504,7 +11504,7 @@
         <v>2</v>
       </c>
       <c r="G483">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -11527,7 +11527,7 @@
         <v>3</v>
       </c>
       <c r="G484">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -11550,7 +11550,7 @@
         <v>3</v>
       </c>
       <c r="G485">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="486" spans="1:7">
@@ -11619,7 +11619,7 @@
         <v>3</v>
       </c>
       <c r="G488">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -11665,7 +11665,7 @@
         <v>3</v>
       </c>
       <c r="G490">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:7">
@@ -11688,7 +11688,7 @@
         <v>5</v>
       </c>
       <c r="G491">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -11711,7 +11711,7 @@
         <v>4</v>
       </c>
       <c r="G492">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -11757,7 +11757,7 @@
         <v>3</v>
       </c>
       <c r="G494">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -11780,7 +11780,7 @@
         <v>3</v>
       </c>
       <c r="G495">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -11803,7 +11803,7 @@
         <v>4</v>
       </c>
       <c r="G496">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -11826,7 +11826,7 @@
         <v>5</v>
       </c>
       <c r="G497">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -11849,7 +11849,7 @@
         <v>2</v>
       </c>
       <c r="G498">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -11872,7 +11872,7 @@
         <v>3</v>
       </c>
       <c r="G499">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:7">
@@ -11895,7 +11895,7 @@
         <v>3</v>
       </c>
       <c r="G500">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -11918,7 +11918,7 @@
         <v>4</v>
       </c>
       <c r="G501">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -11941,7 +11941,7 @@
         <v>2</v>
       </c>
       <c r="G502">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -11964,7 +11964,7 @@
         <v>2</v>
       </c>
       <c r="G503">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -11987,7 +11987,7 @@
         <v>5</v>
       </c>
       <c r="G504">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -12010,7 +12010,7 @@
         <v>3</v>
       </c>
       <c r="G505">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12033,7 +12033,7 @@
         <v>3</v>
       </c>
       <c r="G506">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -12056,7 +12056,7 @@
         <v>2</v>
       </c>
       <c r="G507">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -12079,7 +12079,7 @@
         <v>4</v>
       </c>
       <c r="G508">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -12102,7 +12102,7 @@
         <v>2</v>
       </c>
       <c r="G509">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -12148,7 +12148,7 @@
         <v>2</v>
       </c>
       <c r="G511">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -12171,7 +12171,7 @@
         <v>3</v>
       </c>
       <c r="G512">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -12194,7 +12194,7 @@
         <v>5</v>
       </c>
       <c r="G513">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -12217,7 +12217,7 @@
         <v>5</v>
       </c>
       <c r="G514">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -12240,7 +12240,7 @@
         <v>2</v>
       </c>
       <c r="G515">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -12263,7 +12263,7 @@
         <v>3</v>
       </c>
       <c r="G516">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -12309,7 +12309,7 @@
         <v>2</v>
       </c>
       <c r="G518">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -12332,7 +12332,7 @@
         <v>6</v>
       </c>
       <c r="G519">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -12355,7 +12355,7 @@
         <v>4</v>
       </c>
       <c r="G520">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -12378,7 +12378,7 @@
         <v>5</v>
       </c>
       <c r="G521">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -12401,7 +12401,7 @@
         <v>2</v>
       </c>
       <c r="G522">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -12424,7 +12424,7 @@
         <v>2</v>
       </c>
       <c r="G523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -12470,7 +12470,7 @@
         <v>4</v>
       </c>
       <c r="G525">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -12493,7 +12493,7 @@
         <v>5</v>
       </c>
       <c r="G526">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -12516,7 +12516,7 @@
         <v>3</v>
       </c>
       <c r="G527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -12539,7 +12539,7 @@
         <v>2</v>
       </c>
       <c r="G528">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -12608,7 +12608,7 @@
         <v>5</v>
       </c>
       <c r="G531">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -12700,7 +12700,7 @@
         <v>3</v>
       </c>
       <c r="G535">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="536" spans="1:7">
@@ -12723,7 +12723,7 @@
         <v>3</v>
       </c>
       <c r="G536">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -12746,7 +12746,7 @@
         <v>4</v>
       </c>
       <c r="G537">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -12769,7 +12769,7 @@
         <v>4</v>
       </c>
       <c r="G538">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -12792,7 +12792,7 @@
         <v>2</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -12838,7 +12838,7 @@
         <v>3</v>
       </c>
       <c r="G541">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="542" spans="1:7">
@@ -12861,7 +12861,7 @@
         <v>2</v>
       </c>
       <c r="G542">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -12884,7 +12884,7 @@
         <v>3</v>
       </c>
       <c r="G543">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -12907,7 +12907,7 @@
         <v>4</v>
       </c>
       <c r="G544">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -12930,7 +12930,7 @@
         <v>3</v>
       </c>
       <c r="G545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -12953,7 +12953,7 @@
         <v>3</v>
       </c>
       <c r="G546">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -12999,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="G548">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -13022,7 +13022,7 @@
         <v>3</v>
       </c>
       <c r="G549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -13068,7 +13068,7 @@
         <v>3</v>
       </c>
       <c r="G551">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -13091,7 +13091,7 @@
         <v>5</v>
       </c>
       <c r="G552">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -13114,7 +13114,7 @@
         <v>2</v>
       </c>
       <c r="G553">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -13137,7 +13137,7 @@
         <v>3</v>
       </c>
       <c r="G554">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -13160,7 +13160,7 @@
         <v>5</v>
       </c>
       <c r="G555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -13183,7 +13183,7 @@
         <v>5</v>
       </c>
       <c r="G556">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -13206,7 +13206,7 @@
         <v>3</v>
       </c>
       <c r="G557">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -13229,7 +13229,7 @@
         <v>4</v>
       </c>
       <c r="G558">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -13252,7 +13252,7 @@
         <v>4</v>
       </c>
       <c r="G559">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -13275,7 +13275,7 @@
         <v>3</v>
       </c>
       <c r="G560">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -13298,7 +13298,7 @@
         <v>3</v>
       </c>
       <c r="G561">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -13321,7 +13321,7 @@
         <v>3</v>
       </c>
       <c r="G562">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -13344,7 +13344,7 @@
         <v>4</v>
       </c>
       <c r="G563">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -13390,7 +13390,7 @@
         <v>3</v>
       </c>
       <c r="G565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -13413,7 +13413,7 @@
         <v>3</v>
       </c>
       <c r="G566">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -13436,7 +13436,7 @@
         <v>4</v>
       </c>
       <c r="G567">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -13459,7 +13459,7 @@
         <v>5</v>
       </c>
       <c r="G568">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -13482,7 +13482,7 @@
         <v>4</v>
       </c>
       <c r="G569">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -13505,7 +13505,7 @@
         <v>2</v>
       </c>
       <c r="G570">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -13551,7 +13551,7 @@
         <v>3</v>
       </c>
       <c r="G572">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -13597,7 +13597,7 @@
         <v>3</v>
       </c>
       <c r="G574">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -13620,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="G575">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -13643,7 +13643,7 @@
         <v>2</v>
       </c>
       <c r="G576">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -13666,7 +13666,7 @@
         <v>3</v>
       </c>
       <c r="G577">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -13689,7 +13689,7 @@
         <v>3</v>
       </c>
       <c r="G578">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="579" spans="1:7">
@@ -13712,7 +13712,7 @@
         <v>4</v>
       </c>
       <c r="G579">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -13735,7 +13735,7 @@
         <v>4</v>
       </c>
       <c r="G580">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -13804,7 +13804,7 @@
         <v>4</v>
       </c>
       <c r="G583">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -13827,7 +13827,7 @@
         <v>2</v>
       </c>
       <c r="G584">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="585" spans="1:7">
@@ -13850,7 +13850,7 @@
         <v>3</v>
       </c>
       <c r="G585">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="G586">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -13896,7 +13896,7 @@
         <v>4</v>
       </c>
       <c r="G587">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -13919,7 +13919,7 @@
         <v>4</v>
       </c>
       <c r="G588">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -13942,7 +13942,7 @@
         <v>3</v>
       </c>
       <c r="G589">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -13988,7 +13988,7 @@
         <v>4</v>
       </c>
       <c r="G591">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -14011,7 +14011,7 @@
         <v>2</v>
       </c>
       <c r="G592">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -14034,7 +14034,7 @@
         <v>4</v>
       </c>
       <c r="G593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="G594">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -14080,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="G595">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -14126,7 +14126,7 @@
         <v>4</v>
       </c>
       <c r="G597">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="G598">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -14172,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="G599">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -14195,7 +14195,7 @@
         <v>3</v>
       </c>
       <c r="G600">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -14218,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="G601">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -14241,7 +14241,7 @@
         <v>4</v>
       </c>
       <c r="G602">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -14264,7 +14264,7 @@
         <v>5</v>
       </c>
       <c r="G603">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -14287,7 +14287,7 @@
         <v>4</v>
       </c>
       <c r="G604">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -14333,7 +14333,7 @@
         <v>3</v>
       </c>
       <c r="G606">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -14356,7 +14356,7 @@
         <v>2</v>
       </c>
       <c r="G607">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -14379,7 +14379,7 @@
         <v>3</v>
       </c>
       <c r="G608">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -14402,7 +14402,7 @@
         <v>4</v>
       </c>
       <c r="G609">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -14425,7 +14425,7 @@
         <v>3</v>
       </c>
       <c r="G610">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -14448,7 +14448,7 @@
         <v>2</v>
       </c>
       <c r="G611">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -14494,7 +14494,7 @@
         <v>4</v>
       </c>
       <c r="G613">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -14517,7 +14517,7 @@
         <v>3</v>
       </c>
       <c r="G614">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:7">
@@ -14540,7 +14540,7 @@
         <v>4</v>
       </c>
       <c r="G615">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -14563,7 +14563,7 @@
         <v>2</v>
       </c>
       <c r="G616">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="617" spans="1:7">
@@ -14586,7 +14586,7 @@
         <v>3</v>
       </c>
       <c r="G617">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -14609,7 +14609,7 @@
         <v>4</v>
       </c>
       <c r="G618">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -14632,7 +14632,7 @@
         <v>2</v>
       </c>
       <c r="G619">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -14678,7 +14678,7 @@
         <v>3</v>
       </c>
       <c r="G621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -14701,7 +14701,7 @@
         <v>6</v>
       </c>
       <c r="G622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -14724,7 +14724,7 @@
         <v>4</v>
       </c>
       <c r="G623">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -14747,7 +14747,7 @@
         <v>5</v>
       </c>
       <c r="G624">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -14770,7 +14770,7 @@
         <v>4</v>
       </c>
       <c r="G625">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -14793,7 +14793,7 @@
         <v>2</v>
       </c>
       <c r="G626">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -14816,7 +14816,7 @@
         <v>4</v>
       </c>
       <c r="G627">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -14839,7 +14839,7 @@
         <v>4</v>
       </c>
       <c r="G628">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="629" spans="1:7">
@@ -14862,7 +14862,7 @@
         <v>5</v>
       </c>
       <c r="G629">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -14885,7 +14885,7 @@
         <v>3</v>
       </c>
       <c r="G630">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -14908,7 +14908,7 @@
         <v>4</v>
       </c>
       <c r="G631">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -14954,7 +14954,7 @@
         <v>6</v>
       </c>
       <c r="G633">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -14977,7 +14977,7 @@
         <v>5</v>
       </c>
       <c r="G634">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -15000,7 +15000,7 @@
         <v>1</v>
       </c>
       <c r="G635">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -15023,7 +15023,7 @@
         <v>4</v>
       </c>
       <c r="G636">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -15046,7 +15046,7 @@
         <v>2</v>
       </c>
       <c r="G637">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -15069,7 +15069,7 @@
         <v>3</v>
       </c>
       <c r="G638">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -15115,7 +15115,7 @@
         <v>4</v>
       </c>
       <c r="G640">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -15138,7 +15138,7 @@
         <v>3</v>
       </c>
       <c r="G641">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -15161,7 +15161,7 @@
         <v>5</v>
       </c>
       <c r="G642">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -15184,7 +15184,7 @@
         <v>6</v>
       </c>
       <c r="G643">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -15207,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="G644">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="G646">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -15322,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="G649">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -15345,7 +15345,7 @@
         <v>3</v>
       </c>
       <c r="G650">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="G651">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -15391,7 +15391,7 @@
         <v>4</v>
       </c>
       <c r="G652">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -15414,7 +15414,7 @@
         <v>4</v>
       </c>
       <c r="G653">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -15437,7 +15437,7 @@
         <v>4</v>
       </c>
       <c r="G654">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -15460,7 +15460,7 @@
         <v>3</v>
       </c>
       <c r="G655">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -15483,7 +15483,7 @@
         <v>5</v>
       </c>
       <c r="G656">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -15506,7 +15506,7 @@
         <v>3</v>
       </c>
       <c r="G657">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="658" spans="1:7">
@@ -15529,7 +15529,7 @@
         <v>4</v>
       </c>
       <c r="G658">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -15552,7 +15552,7 @@
         <v>3</v>
       </c>
       <c r="G659">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -15575,7 +15575,7 @@
         <v>5</v>
       </c>
       <c r="G660">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -15598,7 +15598,7 @@
         <v>4</v>
       </c>
       <c r="G661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -15621,7 +15621,7 @@
         <v>5</v>
       </c>
       <c r="G662">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -15644,7 +15644,7 @@
         <v>4</v>
       </c>
       <c r="G663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -15667,7 +15667,7 @@
         <v>3</v>
       </c>
       <c r="G664">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="G665">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -15713,7 +15713,7 @@
         <v>2</v>
       </c>
       <c r="G666">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -15736,7 +15736,7 @@
         <v>3</v>
       </c>
       <c r="G667">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -15759,7 +15759,7 @@
         <v>3</v>
       </c>
       <c r="G668">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -15782,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="G669">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -15805,7 +15805,7 @@
         <v>2</v>
       </c>
       <c r="G670">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="G671">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -15851,7 +15851,7 @@
         <v>6</v>
       </c>
       <c r="G672">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -15874,7 +15874,7 @@
         <v>3</v>
       </c>
       <c r="G673">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -15897,7 +15897,7 @@
         <v>3</v>
       </c>
       <c r="G674">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -15920,7 +15920,7 @@
         <v>1</v>
       </c>
       <c r="G675">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -15943,7 +15943,7 @@
         <v>4</v>
       </c>
       <c r="G676">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -15966,7 +15966,7 @@
         <v>4</v>
       </c>
       <c r="G677">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -15989,7 +15989,7 @@
         <v>2</v>
       </c>
       <c r="G678">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -16012,7 +16012,7 @@
         <v>2</v>
       </c>
       <c r="G679">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -16035,7 +16035,7 @@
         <v>3</v>
       </c>
       <c r="G680">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="681" spans="1:7">
@@ -16058,7 +16058,7 @@
         <v>6</v>
       </c>
       <c r="G681">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -16081,7 +16081,7 @@
         <v>3</v>
       </c>
       <c r="G682">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="683" spans="1:7">
@@ -16104,7 +16104,7 @@
         <v>3</v>
       </c>
       <c r="G683">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -16127,7 +16127,7 @@
         <v>4</v>
       </c>
       <c r="G684">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -16150,7 +16150,7 @@
         <v>1</v>
       </c>
       <c r="G685">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="686" spans="1:7">
@@ -16219,7 +16219,7 @@
         <v>1</v>
       </c>
       <c r="G688">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="689" spans="1:7">
@@ -16242,7 +16242,7 @@
         <v>2</v>
       </c>
       <c r="G689">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="690" spans="1:7">
@@ -16265,7 +16265,7 @@
         <v>3</v>
       </c>
       <c r="G690">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -16288,7 +16288,7 @@
         <v>3</v>
       </c>
       <c r="G691">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -16311,7 +16311,7 @@
         <v>1</v>
       </c>
       <c r="G692">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -16380,7 +16380,7 @@
         <v>6</v>
       </c>
       <c r="G695">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -16403,7 +16403,7 @@
         <v>3</v>
       </c>
       <c r="G696">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="697" spans="1:7">
@@ -16426,7 +16426,7 @@
         <v>3</v>
       </c>
       <c r="G697">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="698" spans="1:7">
@@ -16449,7 +16449,7 @@
         <v>3</v>
       </c>
       <c r="G698">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="699" spans="1:7">
@@ -16472,7 +16472,7 @@
         <v>4</v>
       </c>
       <c r="G699">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="700" spans="1:7">
@@ -16495,7 +16495,7 @@
         <v>4</v>
       </c>
       <c r="G700">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -16518,7 +16518,7 @@
         <v>4</v>
       </c>
       <c r="G701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:7">
@@ -16541,7 +16541,7 @@
         <v>4</v>
       </c>
       <c r="G702">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -16610,7 +16610,7 @@
         <v>4</v>
       </c>
       <c r="G705">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -16633,7 +16633,7 @@
         <v>6</v>
       </c>
       <c r="G706">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -16679,7 +16679,7 @@
         <v>2</v>
       </c>
       <c r="G708">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -16702,7 +16702,7 @@
         <v>5</v>
       </c>
       <c r="G709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -16725,7 +16725,7 @@
         <v>4</v>
       </c>
       <c r="G710">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -16748,7 +16748,7 @@
         <v>4</v>
       </c>
       <c r="G711">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -16771,7 +16771,7 @@
         <v>4</v>
       </c>
       <c r="G712">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Python-code/kmodes_result.xlsx
+++ b/Python-code/kmodes_result.xlsx
@@ -22,10 +22,10 @@
     <t>Q27</t>
   </si>
   <si>
-    <t>Q28</t>
+    <t>Q25</t>
   </si>
   <si>
-    <t>Q29</t>
+    <t>Q26.1</t>
   </si>
   <si>
     <t>Q30</t>
@@ -441,7 +441,7 @@
         <v>4</v>
       </c>
       <c r="G2">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -481,13 +481,13 @@
         <v>3</v>
       </c>
       <c r="E4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -504,13 +504,13 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="G6">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -550,13 +550,13 @@
         <v>2</v>
       </c>
       <c r="E7">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -573,7 +573,7 @@
         <v>3</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -619,13 +619,13 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -642,13 +642,13 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F11">
         <v>4</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -665,13 +665,13 @@
         <v>3</v>
       </c>
       <c r="E12">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>6</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -694,7 +694,7 @@
         <v>5</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -711,13 +711,13 @@
         <v>4</v>
       </c>
       <c r="E14">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F14">
         <v>4</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -734,13 +734,13 @@
         <v>4</v>
       </c>
       <c r="E15">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -763,7 +763,7 @@
         <v>6</v>
       </c>
       <c r="G16">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -780,13 +780,13 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>2</v>
       </c>
       <c r="G17">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -803,7 +803,7 @@
         <v>3</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F18">
         <v>2</v>
@@ -814,7 +814,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -832,7 +832,7 @@
         <v>2</v>
       </c>
       <c r="G19">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="G20">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -878,7 +878,7 @@
         <v>4</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -895,13 +895,13 @@
         <v>2</v>
       </c>
       <c r="E22">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F22">
         <v>3</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -941,13 +941,13 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>4</v>
       </c>
       <c r="G24">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -970,7 +970,7 @@
         <v>4</v>
       </c>
       <c r="G25">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -987,13 +987,13 @@
         <v>4</v>
       </c>
       <c r="E26">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F26">
         <v>4</v>
       </c>
       <c r="G26">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1016,7 +1016,7 @@
         <v>3</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1033,18 +1033,18 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F28">
         <v>5</v>
       </c>
       <c r="G28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -1056,13 +1056,13 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F29">
         <v>3</v>
       </c>
       <c r="G29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1079,7 +1079,7 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -1102,13 +1102,13 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F31">
         <v>5</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1125,13 +1125,13 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F32">
         <v>2</v>
       </c>
       <c r="G32">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1148,13 +1148,13 @@
         <v>3</v>
       </c>
       <c r="E33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>2</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1171,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F34">
         <v>3</v>
       </c>
       <c r="G34">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1194,13 +1194,13 @@
         <v>2</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F35">
         <v>3</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1223,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="G36">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1240,7 +1240,7 @@
         <v>3</v>
       </c>
       <c r="E37">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -1263,7 +1263,7 @@
         <v>3</v>
       </c>
       <c r="E38">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F38">
         <v>6</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1292,7 +1292,7 @@
         <v>3</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1309,13 +1309,13 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F40">
         <v>2</v>
       </c>
       <c r="G40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1332,13 +1332,13 @@
         <v>2</v>
       </c>
       <c r="E41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F41">
         <v>2</v>
       </c>
       <c r="G41">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1355,7 +1355,7 @@
         <v>5</v>
       </c>
       <c r="E42">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -1378,13 +1378,13 @@
         <v>2</v>
       </c>
       <c r="E43">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F43">
         <v>3</v>
       </c>
       <c r="G43">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -1424,13 +1424,13 @@
         <v>4</v>
       </c>
       <c r="E45">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F45">
         <v>5</v>
       </c>
       <c r="G45">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1447,13 +1447,13 @@
         <v>5</v>
       </c>
       <c r="E46">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F46">
         <v>4</v>
       </c>
       <c r="G46">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1470,13 +1470,13 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>3</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1493,18 +1493,18 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F48">
         <v>2</v>
       </c>
       <c r="G48">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>2</v>
@@ -1516,13 +1516,13 @@
         <v>4</v>
       </c>
       <c r="E49">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F49">
         <v>3</v>
       </c>
       <c r="G49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -1539,13 +1539,13 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F50">
         <v>3</v>
       </c>
       <c r="G50">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1562,13 +1562,13 @@
         <v>4</v>
       </c>
       <c r="E51">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F51">
         <v>3</v>
       </c>
       <c r="G51">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1591,7 +1591,7 @@
         <v>3</v>
       </c>
       <c r="G52">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -1608,7 +1608,7 @@
         <v>3</v>
       </c>
       <c r="E53">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F53">
         <v>5</v>
@@ -1637,7 +1637,7 @@
         <v>4</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1677,13 +1677,13 @@
         <v>3</v>
       </c>
       <c r="E56">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F56">
         <v>3</v>
       </c>
       <c r="G56">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1700,7 +1700,7 @@
         <v>4</v>
       </c>
       <c r="E57">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -1734,7 +1734,7 @@
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1746,13 +1746,13 @@
         <v>2</v>
       </c>
       <c r="E59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F59">
         <v>4</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1769,13 +1769,13 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F60">
         <v>3</v>
       </c>
       <c r="G60">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1792,13 +1792,13 @@
         <v>3</v>
       </c>
       <c r="E61">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F61">
         <v>2</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -1815,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -1838,13 +1838,13 @@
         <v>3</v>
       </c>
       <c r="E63">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F63">
         <v>3</v>
       </c>
       <c r="G63">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1867,7 +1867,7 @@
         <v>6</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1884,13 +1884,13 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F65">
         <v>3</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1907,7 +1907,7 @@
         <v>4</v>
       </c>
       <c r="E66">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66">
         <v>6</v>
@@ -1930,13 +1930,13 @@
         <v>3</v>
       </c>
       <c r="E67">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F67">
         <v>3</v>
       </c>
       <c r="G67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1964,7 +1964,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -1976,13 +1976,13 @@
         <v>2</v>
       </c>
       <c r="E69">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F69">
         <v>4</v>
       </c>
       <c r="G69">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1999,13 +1999,13 @@
         <v>3</v>
       </c>
       <c r="E70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F70">
         <v>4</v>
       </c>
       <c r="G70">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2028,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="G71">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2045,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="E72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F72">
         <v>4</v>
@@ -2074,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="G73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2091,7 +2091,7 @@
         <v>1</v>
       </c>
       <c r="E74">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F74">
         <v>4</v>
@@ -2114,13 +2114,13 @@
         <v>2</v>
       </c>
       <c r="E75">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F75">
         <v>3</v>
       </c>
       <c r="G75">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2137,13 +2137,13 @@
         <v>1</v>
       </c>
       <c r="E76">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F76">
         <v>5</v>
       </c>
       <c r="G76">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2160,13 +2160,13 @@
         <v>3</v>
       </c>
       <c r="E77">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F77">
         <v>3</v>
       </c>
       <c r="G77">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2183,18 +2183,18 @@
         <v>3</v>
       </c>
       <c r="E78">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F78">
         <v>3</v>
       </c>
       <c r="G78">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2212,7 +2212,7 @@
         <v>6</v>
       </c>
       <c r="G79">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2229,7 +2229,7 @@
         <v>2</v>
       </c>
       <c r="E80">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F80">
         <v>4</v>
@@ -2240,7 +2240,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="B81">
         <v>2</v>
@@ -2252,18 +2252,18 @@
         <v>2</v>
       </c>
       <c r="E81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F81">
         <v>2</v>
       </c>
       <c r="G81">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -2275,18 +2275,18 @@
         <v>1</v>
       </c>
       <c r="E82">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F82">
         <v>2</v>
       </c>
       <c r="G82">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2298,18 +2298,18 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F83">
         <v>5</v>
       </c>
       <c r="G83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2327,12 +2327,12 @@
         <v>5</v>
       </c>
       <c r="G84">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -2344,18 +2344,18 @@
         <v>4</v>
       </c>
       <c r="E85">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F85">
         <v>4</v>
       </c>
       <c r="G85">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="B86">
         <v>2</v>
@@ -2367,18 +2367,18 @@
         <v>2</v>
       </c>
       <c r="E86">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F86">
         <v>5</v>
       </c>
       <c r="G86">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2390,18 +2390,18 @@
         <v>5</v>
       </c>
       <c r="E87">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F87">
         <v>4</v>
       </c>
       <c r="G87">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -2413,18 +2413,18 @@
         <v>4</v>
       </c>
       <c r="E88">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F88">
         <v>3</v>
       </c>
       <c r="G88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>55</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2436,7 +2436,7 @@
         <v>4</v>
       </c>
       <c r="E89">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -2459,7 +2459,7 @@
         <v>2</v>
       </c>
       <c r="E90">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F90">
         <v>5</v>
@@ -2482,13 +2482,13 @@
         <v>3</v>
       </c>
       <c r="E91">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F91">
         <v>4</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2505,13 +2505,13 @@
         <v>3</v>
       </c>
       <c r="E92">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F92">
         <v>4</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2528,13 +2528,13 @@
         <v>2</v>
       </c>
       <c r="E93">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F93">
         <v>2</v>
       </c>
       <c r="G93">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2551,13 +2551,13 @@
         <v>3</v>
       </c>
       <c r="E94">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F94">
         <v>3</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2574,13 +2574,13 @@
         <v>3</v>
       </c>
       <c r="E95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F95">
         <v>3</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2597,13 +2597,13 @@
         <v>2</v>
       </c>
       <c r="E96">
+        <v>6</v>
+      </c>
+      <c r="F96">
+        <v>3</v>
+      </c>
+      <c r="G96">
         <v>9</v>
-      </c>
-      <c r="F96">
-        <v>3</v>
-      </c>
-      <c r="G96">
-        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2626,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="G97">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2643,18 +2643,18 @@
         <v>3</v>
       </c>
       <c r="E98">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F98">
         <v>3</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2666,13 +2666,13 @@
         <v>2</v>
       </c>
       <c r="E99">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F99">
         <v>4</v>
       </c>
       <c r="G99">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2689,13 +2689,13 @@
         <v>5</v>
       </c>
       <c r="E100">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100">
         <v>3</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2718,7 +2718,7 @@
         <v>3</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2741,7 +2741,7 @@
         <v>2</v>
       </c>
       <c r="G102">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -2758,13 +2758,13 @@
         <v>3</v>
       </c>
       <c r="E103">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F103">
         <v>6</v>
       </c>
       <c r="G103">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -2781,13 +2781,13 @@
         <v>2</v>
       </c>
       <c r="E104">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F104">
         <v>2</v>
       </c>
       <c r="G104">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2804,13 +2804,13 @@
         <v>2</v>
       </c>
       <c r="E105">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F105">
         <v>2</v>
       </c>
       <c r="G105">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2827,13 +2827,13 @@
         <v>3</v>
       </c>
       <c r="E106">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F106">
         <v>5</v>
       </c>
       <c r="G106">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -2850,13 +2850,13 @@
         <v>3</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F107">
         <v>3</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2879,12 +2879,12 @@
         <v>3</v>
       </c>
       <c r="G108">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -2896,13 +2896,13 @@
         <v>2</v>
       </c>
       <c r="E109">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F109">
         <v>4</v>
       </c>
       <c r="G109">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2919,7 +2919,7 @@
         <v>2</v>
       </c>
       <c r="E110">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F110">
         <v>3</v>
@@ -2948,7 +2948,7 @@
         <v>3</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2965,13 +2965,13 @@
         <v>2</v>
       </c>
       <c r="E112">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F112">
         <v>4</v>
       </c>
       <c r="G112">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2988,13 +2988,13 @@
         <v>2</v>
       </c>
       <c r="E113">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F113">
         <v>5</v>
       </c>
       <c r="G113">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3017,7 +3017,7 @@
         <v>2</v>
       </c>
       <c r="G114">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3057,13 +3057,13 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F116">
         <v>2</v>
       </c>
       <c r="G116">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3080,7 +3080,7 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F117">
         <v>3</v>
@@ -3103,18 +3103,18 @@
         <v>2</v>
       </c>
       <c r="E118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F118">
         <v>4</v>
       </c>
       <c r="G118">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -3126,7 +3126,7 @@
         <v>2</v>
       </c>
       <c r="E119">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F119">
         <v>3</v>
@@ -3149,13 +3149,13 @@
         <v>2</v>
       </c>
       <c r="E120">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F120">
         <v>3</v>
       </c>
       <c r="G120">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3172,13 +3172,13 @@
         <v>3</v>
       </c>
       <c r="E121">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F121">
         <v>4</v>
       </c>
       <c r="G121">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3195,7 +3195,7 @@
         <v>3</v>
       </c>
       <c r="E122">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F122">
         <v>4</v>
@@ -3218,13 +3218,13 @@
         <v>2</v>
       </c>
       <c r="E123">
+        <v>6</v>
+      </c>
+      <c r="F123">
+        <v>3</v>
+      </c>
+      <c r="G123">
         <v>9</v>
-      </c>
-      <c r="F123">
-        <v>3</v>
-      </c>
-      <c r="G123">
-        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3241,13 +3241,13 @@
         <v>4</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F124">
         <v>2</v>
       </c>
       <c r="G124">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3264,13 +3264,13 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F125">
         <v>2</v>
       </c>
       <c r="G125">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3287,13 +3287,13 @@
         <v>2</v>
       </c>
       <c r="E126">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F126">
         <v>3</v>
       </c>
       <c r="G126">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3310,13 +3310,13 @@
         <v>2</v>
       </c>
       <c r="E127">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F127">
         <v>4</v>
       </c>
       <c r="G127">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3339,12 +3339,12 @@
         <v>3</v>
       </c>
       <c r="G128">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B129">
         <v>2</v>
@@ -3356,7 +3356,7 @@
         <v>4</v>
       </c>
       <c r="E129">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F129">
         <v>3</v>
@@ -3402,13 +3402,13 @@
         <v>3</v>
       </c>
       <c r="E131">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F131">
         <v>3</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3425,7 +3425,7 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F132">
         <v>4</v>
@@ -3448,13 +3448,13 @@
         <v>3</v>
       </c>
       <c r="E133">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F133">
         <v>4</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3471,7 +3471,7 @@
         <v>3</v>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F134">
         <v>4</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="E135">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F135">
         <v>3</v>
@@ -3517,7 +3517,7 @@
         <v>3</v>
       </c>
       <c r="E136">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F136">
         <v>5</v>
@@ -3540,13 +3540,13 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F137">
         <v>4</v>
       </c>
       <c r="G137">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3563,18 +3563,18 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F138">
         <v>2</v>
       </c>
       <c r="G138">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="1">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -3586,13 +3586,13 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F139">
         <v>3</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -3609,13 +3609,13 @@
         <v>3</v>
       </c>
       <c r="E140">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F140">
         <v>4</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3632,13 +3632,13 @@
         <v>3</v>
       </c>
       <c r="E141">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F141">
         <v>4</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3655,13 +3655,13 @@
         <v>3</v>
       </c>
       <c r="E142">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F142">
         <v>3</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3678,13 +3678,13 @@
         <v>1</v>
       </c>
       <c r="E143">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F143">
         <v>3</v>
       </c>
       <c r="G143">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3701,13 +3701,13 @@
         <v>3</v>
       </c>
       <c r="E144">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F144">
         <v>3</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3724,13 +3724,13 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F145">
         <v>2</v>
       </c>
       <c r="G145">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3747,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="E146">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F146">
         <v>3</v>
@@ -3770,13 +3770,13 @@
         <v>1</v>
       </c>
       <c r="E147">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F147">
         <v>3</v>
       </c>
       <c r="G147">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3799,12 +3799,12 @@
         <v>5</v>
       </c>
       <c r="G148">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -3816,13 +3816,13 @@
         <v>3</v>
       </c>
       <c r="E149">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F149">
         <v>4</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -3845,7 +3845,7 @@
         <v>4</v>
       </c>
       <c r="G150">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3862,7 +3862,7 @@
         <v>3</v>
       </c>
       <c r="E151">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F151">
         <v>5</v>
@@ -3885,13 +3885,13 @@
         <v>3</v>
       </c>
       <c r="E152">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F152">
         <v>3</v>
       </c>
       <c r="G152">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3908,13 +3908,13 @@
         <v>1</v>
       </c>
       <c r="E153">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F153">
         <v>2</v>
       </c>
       <c r="G153">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3931,13 +3931,13 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F154">
         <v>4</v>
       </c>
       <c r="G154">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3954,13 +3954,13 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F155">
         <v>3</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3977,13 +3977,13 @@
         <v>5</v>
       </c>
       <c r="E156">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F156">
         <v>5</v>
       </c>
       <c r="G156">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4006,7 +4006,7 @@
         <v>2</v>
       </c>
       <c r="G157">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4023,18 +4023,18 @@
         <v>4</v>
       </c>
       <c r="E158">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F158">
         <v>3</v>
       </c>
       <c r="G158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:7">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -4046,13 +4046,13 @@
         <v>4</v>
       </c>
       <c r="E159">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F159">
         <v>3</v>
       </c>
       <c r="G159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4069,7 +4069,7 @@
         <v>1</v>
       </c>
       <c r="E160">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F160">
         <v>2</v>
@@ -4092,7 +4092,7 @@
         <v>3</v>
       </c>
       <c r="E161">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F161">
         <v>2</v>
@@ -4115,13 +4115,13 @@
         <v>5</v>
       </c>
       <c r="E162">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F162">
         <v>5</v>
       </c>
       <c r="G162">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4138,13 +4138,13 @@
         <v>2</v>
       </c>
       <c r="E163">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F163">
         <v>2</v>
       </c>
       <c r="G163">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4161,7 +4161,7 @@
         <v>4</v>
       </c>
       <c r="E164">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F164">
         <v>3</v>
@@ -4184,7 +4184,7 @@
         <v>3</v>
       </c>
       <c r="E165">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F165">
         <v>2</v>
@@ -4207,13 +4207,13 @@
         <v>3</v>
       </c>
       <c r="E166">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F166">
         <v>3</v>
       </c>
       <c r="G166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -4236,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="G167">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4253,18 +4253,18 @@
         <v>1</v>
       </c>
       <c r="E168">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F168">
         <v>6</v>
       </c>
       <c r="G168">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -4276,13 +4276,13 @@
         <v>4</v>
       </c>
       <c r="E169">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F169">
         <v>4</v>
       </c>
       <c r="G169">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -4299,13 +4299,13 @@
         <v>1</v>
       </c>
       <c r="E170">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F170">
         <v>5</v>
       </c>
       <c r="G170">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4322,13 +4322,13 @@
         <v>3</v>
       </c>
       <c r="E171">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F171">
         <v>3</v>
       </c>
       <c r="G171">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4345,13 +4345,13 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F172">
         <v>2</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -4368,13 +4368,13 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F173">
         <v>3</v>
       </c>
       <c r="G173">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -4391,7 +4391,7 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F174">
         <v>2</v>
@@ -4414,13 +4414,13 @@
         <v>1</v>
       </c>
       <c r="E175">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F175">
         <v>3</v>
       </c>
       <c r="G175">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4437,13 +4437,13 @@
         <v>3</v>
       </c>
       <c r="E176">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F176">
         <v>5</v>
       </c>
       <c r="G176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -4483,18 +4483,18 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F178">
         <v>2</v>
       </c>
       <c r="G178">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:7">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -4506,13 +4506,13 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F179">
         <v>3</v>
       </c>
       <c r="G179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4529,18 +4529,18 @@
         <v>3</v>
       </c>
       <c r="E180">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F180">
         <v>6</v>
       </c>
       <c r="G180">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -4552,18 +4552,18 @@
         <v>3</v>
       </c>
       <c r="E181">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F181">
         <v>3</v>
       </c>
       <c r="G181">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -4575,18 +4575,18 @@
         <v>3</v>
       </c>
       <c r="E182">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F182">
         <v>2</v>
       </c>
       <c r="G182">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -4598,7 +4598,7 @@
         <v>2</v>
       </c>
       <c r="E183">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F183">
         <v>4</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="B184">
         <v>2</v>
@@ -4621,18 +4621,18 @@
         <v>1</v>
       </c>
       <c r="E184">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F184">
         <v>2</v>
       </c>
       <c r="G184">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:7">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -4644,18 +4644,18 @@
         <v>3</v>
       </c>
       <c r="E185">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F185">
         <v>3</v>
       </c>
       <c r="G185">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:7">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -4667,18 +4667,18 @@
         <v>2</v>
       </c>
       <c r="E186">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F186">
         <v>2</v>
       </c>
       <c r="G186">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="187" spans="1:7">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -4696,12 +4696,12 @@
         <v>6</v>
       </c>
       <c r="G187">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="188" spans="1:7">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="B188">
         <v>2</v>
@@ -4713,18 +4713,18 @@
         <v>3</v>
       </c>
       <c r="E188">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F188">
         <v>2</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="189" spans="1:7">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>155</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -4742,12 +4742,12 @@
         <v>4</v>
       </c>
       <c r="G189">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="190" spans="1:7">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="B190">
         <v>2</v>
@@ -4759,13 +4759,13 @@
         <v>1</v>
       </c>
       <c r="E190">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F190">
         <v>2</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4782,7 +4782,7 @@
         <v>1</v>
       </c>
       <c r="E191">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F191">
         <v>2</v>
@@ -4805,13 +4805,13 @@
         <v>3</v>
       </c>
       <c r="E192">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F192">
         <v>4</v>
       </c>
       <c r="G192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -4828,13 +4828,13 @@
         <v>3</v>
       </c>
       <c r="E193">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F193">
         <v>4</v>
       </c>
       <c r="G193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -4851,13 +4851,13 @@
         <v>2</v>
       </c>
       <c r="E194">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F194">
         <v>3</v>
       </c>
       <c r="G194">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4874,13 +4874,13 @@
         <v>4</v>
       </c>
       <c r="E195">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F195">
         <v>3</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4897,13 +4897,13 @@
         <v>3</v>
       </c>
       <c r="E196">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F196">
         <v>3</v>
       </c>
       <c r="G196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4943,18 +4943,18 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F198">
         <v>3</v>
       </c>
       <c r="G198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:7">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -4966,13 +4966,13 @@
         <v>1</v>
       </c>
       <c r="E199">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F199">
         <v>4</v>
       </c>
       <c r="G199">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -4989,13 +4989,13 @@
         <v>2</v>
       </c>
       <c r="E200">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F200">
         <v>4</v>
       </c>
       <c r="G200">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5012,7 +5012,7 @@
         <v>5</v>
       </c>
       <c r="E201">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F201">
         <v>5</v>
@@ -5041,7 +5041,7 @@
         <v>3</v>
       </c>
       <c r="G202">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5058,13 +5058,13 @@
         <v>1</v>
       </c>
       <c r="E203">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F203">
         <v>2</v>
       </c>
       <c r="G203">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5081,13 +5081,13 @@
         <v>2</v>
       </c>
       <c r="E204">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F204">
         <v>2</v>
       </c>
       <c r="G204">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5104,7 +5104,7 @@
         <v>3</v>
       </c>
       <c r="E205">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F205">
         <v>3</v>
@@ -5127,13 +5127,13 @@
         <v>1</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F206">
         <v>6</v>
       </c>
       <c r="G206">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5150,7 +5150,7 @@
         <v>2</v>
       </c>
       <c r="E207">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F207">
         <v>4</v>
@@ -5179,12 +5179,12 @@
         <v>2</v>
       </c>
       <c r="G208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:7">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -5202,7 +5202,7 @@
         <v>4</v>
       </c>
       <c r="G209">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5219,13 +5219,13 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F210">
         <v>3</v>
       </c>
       <c r="G210">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5242,13 +5242,13 @@
         <v>1</v>
       </c>
       <c r="E211">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F211">
         <v>2</v>
       </c>
       <c r="G211">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5265,13 +5265,13 @@
         <v>3</v>
       </c>
       <c r="E212">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F212">
         <v>2</v>
       </c>
       <c r="G212">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5288,13 +5288,13 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F213">
         <v>3</v>
       </c>
       <c r="G213">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5317,7 +5317,7 @@
         <v>2</v>
       </c>
       <c r="G214">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5334,7 +5334,7 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F215">
         <v>6</v>
@@ -5357,13 +5357,13 @@
         <v>2</v>
       </c>
       <c r="E216">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F216">
         <v>3</v>
       </c>
       <c r="G216">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -5380,13 +5380,13 @@
         <v>4</v>
       </c>
       <c r="E217">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F217">
         <v>5</v>
       </c>
       <c r="G217">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -5403,18 +5403,18 @@
         <v>1</v>
       </c>
       <c r="E218">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F218">
         <v>3</v>
       </c>
       <c r="G218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:7">
       <c r="A219" s="1">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -5426,13 +5426,13 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F219">
         <v>4</v>
       </c>
       <c r="G219">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -5455,7 +5455,7 @@
         <v>3</v>
       </c>
       <c r="G220">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5478,7 +5478,7 @@
         <v>4</v>
       </c>
       <c r="G221">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5501,7 +5501,7 @@
         <v>3</v>
       </c>
       <c r="G222">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5524,7 +5524,7 @@
         <v>3</v>
       </c>
       <c r="G223">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5541,13 +5541,13 @@
         <v>3</v>
       </c>
       <c r="E224">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F224">
         <v>2</v>
       </c>
       <c r="G224">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -5564,13 +5564,13 @@
         <v>2</v>
       </c>
       <c r="E225">
+        <v>6</v>
+      </c>
+      <c r="F225">
+        <v>3</v>
+      </c>
+      <c r="G225">
         <v>9</v>
-      </c>
-      <c r="F225">
-        <v>3</v>
-      </c>
-      <c r="G225">
-        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5587,7 +5587,7 @@
         <v>2</v>
       </c>
       <c r="E226">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F226">
         <v>3</v>
@@ -5616,7 +5616,7 @@
         <v>5</v>
       </c>
       <c r="G227">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5633,18 +5633,18 @@
         <v>2</v>
       </c>
       <c r="E228">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F228">
         <v>3</v>
       </c>
       <c r="G228">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="229" spans="1:7">
       <c r="A229" s="1">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -5656,7 +5656,7 @@
         <v>4</v>
       </c>
       <c r="E229">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F229">
         <v>4</v>
@@ -5679,13 +5679,13 @@
         <v>3</v>
       </c>
       <c r="E230">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F230">
         <v>6</v>
       </c>
       <c r="G230">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5702,13 +5702,13 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F231">
         <v>2</v>
       </c>
       <c r="G231">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -5731,7 +5731,7 @@
         <v>4</v>
       </c>
       <c r="G232">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -5754,7 +5754,7 @@
         <v>5</v>
       </c>
       <c r="G233">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5771,13 +5771,13 @@
         <v>2</v>
       </c>
       <c r="E234">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F234">
         <v>6</v>
       </c>
       <c r="G234">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5794,13 +5794,13 @@
         <v>2</v>
       </c>
       <c r="E235">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F235">
         <v>4</v>
       </c>
       <c r="G235">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5817,7 +5817,7 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F236">
         <v>4</v>
@@ -5840,13 +5840,13 @@
         <v>3</v>
       </c>
       <c r="E237">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F237">
         <v>2</v>
       </c>
       <c r="G237">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5863,18 +5863,18 @@
         <v>2</v>
       </c>
       <c r="E238">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F238">
         <v>5</v>
       </c>
       <c r="G238">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:7">
       <c r="A239" s="1">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B239">
         <v>2</v>
@@ -5886,13 +5886,13 @@
         <v>4</v>
       </c>
       <c r="E239">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F239">
         <v>3</v>
       </c>
       <c r="G239">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5909,13 +5909,13 @@
         <v>4</v>
       </c>
       <c r="E240">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F240">
         <v>3</v>
       </c>
       <c r="G240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5955,13 +5955,13 @@
         <v>3</v>
       </c>
       <c r="E242">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F242">
         <v>3</v>
       </c>
       <c r="G242">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5984,7 +5984,7 @@
         <v>4</v>
       </c>
       <c r="G243">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6001,13 +6001,13 @@
         <v>2</v>
       </c>
       <c r="E244">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F244">
         <v>3</v>
       </c>
       <c r="G244">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6024,13 +6024,13 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F245">
         <v>3</v>
       </c>
       <c r="G245">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6047,7 +6047,7 @@
         <v>2</v>
       </c>
       <c r="E246">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F246">
         <v>4</v>
@@ -6070,13 +6070,13 @@
         <v>2</v>
       </c>
       <c r="E247">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F247">
         <v>3</v>
       </c>
       <c r="G247">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6093,18 +6093,18 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F248">
         <v>3</v>
       </c>
       <c r="G248">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:7">
       <c r="A249" s="1">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B249">
         <v>2</v>
@@ -6122,7 +6122,7 @@
         <v>3</v>
       </c>
       <c r="G249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6139,13 +6139,13 @@
         <v>4</v>
       </c>
       <c r="E250">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F250">
         <v>4</v>
       </c>
       <c r="G250">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6162,13 +6162,13 @@
         <v>1</v>
       </c>
       <c r="E251">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F251">
         <v>4</v>
       </c>
       <c r="G251">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:7">
@@ -6185,13 +6185,13 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F252">
         <v>2</v>
       </c>
       <c r="G252">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6208,13 +6208,13 @@
         <v>2</v>
       </c>
       <c r="E253">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F253">
         <v>3</v>
       </c>
       <c r="G253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6231,13 +6231,13 @@
         <v>2</v>
       </c>
       <c r="E254">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F254">
         <v>5</v>
       </c>
       <c r="G254">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6254,13 +6254,13 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F255">
         <v>3</v>
       </c>
       <c r="G255">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:7">
@@ -6277,13 +6277,13 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F256">
         <v>2</v>
       </c>
       <c r="G256">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6300,13 +6300,13 @@
         <v>2</v>
       </c>
       <c r="E257">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F257">
         <v>2</v>
       </c>
       <c r="G257">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6323,18 +6323,18 @@
         <v>3</v>
       </c>
       <c r="E258">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F258">
         <v>3</v>
       </c>
       <c r="G258">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="259" spans="1:7">
       <c r="A259" s="1">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B259">
         <v>1</v>
@@ -6352,7 +6352,7 @@
         <v>3</v>
       </c>
       <c r="G259">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:7">
@@ -6369,13 +6369,13 @@
         <v>1</v>
       </c>
       <c r="E260">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F260">
         <v>4</v>
       </c>
       <c r="G260">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6392,7 +6392,7 @@
         <v>2</v>
       </c>
       <c r="E261">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F261">
         <v>2</v>
@@ -6421,7 +6421,7 @@
         <v>3</v>
       </c>
       <c r="G262">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6438,13 +6438,13 @@
         <v>1</v>
       </c>
       <c r="E263">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F263">
         <v>4</v>
       </c>
       <c r="G263">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6461,13 +6461,13 @@
         <v>3</v>
       </c>
       <c r="E264">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F264">
         <v>2</v>
       </c>
       <c r="G264">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6484,13 +6484,13 @@
         <v>2</v>
       </c>
       <c r="E265">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F265">
         <v>4</v>
       </c>
       <c r="G265">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266" spans="1:7">
@@ -6507,13 +6507,13 @@
         <v>2</v>
       </c>
       <c r="E266">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F266">
         <v>3</v>
       </c>
       <c r="G266">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6530,7 +6530,7 @@
         <v>3</v>
       </c>
       <c r="E267">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F267">
         <v>3</v>
@@ -6553,18 +6553,18 @@
         <v>3</v>
       </c>
       <c r="E268">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F268">
         <v>4</v>
       </c>
       <c r="G268">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:7">
       <c r="A269" s="1">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6576,13 +6576,13 @@
         <v>2</v>
       </c>
       <c r="E269">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F269">
         <v>2</v>
       </c>
       <c r="G269">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6599,13 +6599,13 @@
         <v>2</v>
       </c>
       <c r="E270">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F270">
         <v>2</v>
       </c>
       <c r="G270">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6622,13 +6622,13 @@
         <v>1</v>
       </c>
       <c r="E271">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F271">
         <v>3</v>
       </c>
       <c r="G271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6645,13 +6645,13 @@
         <v>2</v>
       </c>
       <c r="E272">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F272">
         <v>4</v>
       </c>
       <c r="G272">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6668,13 +6668,13 @@
         <v>2</v>
       </c>
       <c r="E273">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F273">
         <v>2</v>
       </c>
       <c r="G273">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6697,7 +6697,7 @@
         <v>2</v>
       </c>
       <c r="G274">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6720,7 +6720,7 @@
         <v>2</v>
       </c>
       <c r="G275">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6737,13 +6737,13 @@
         <v>3</v>
       </c>
       <c r="E276">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F276">
         <v>3</v>
       </c>
       <c r="G276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6760,13 +6760,13 @@
         <v>1</v>
       </c>
       <c r="E277">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F277">
         <v>3</v>
       </c>
       <c r="G277">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6789,12 +6789,12 @@
         <v>5</v>
       </c>
       <c r="G278">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="279" spans="1:7">
       <c r="A279" s="1">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -6806,13 +6806,13 @@
         <v>3</v>
       </c>
       <c r="E279">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F279">
         <v>3</v>
       </c>
       <c r="G279">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6829,18 +6829,18 @@
         <v>2</v>
       </c>
       <c r="E280">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F280">
         <v>3</v>
       </c>
       <c r="G280">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:7">
       <c r="A281" s="1">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -6852,7 +6852,7 @@
         <v>1</v>
       </c>
       <c r="E281">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F281">
         <v>3</v>
@@ -6863,7 +6863,7 @@
     </row>
     <row r="282" spans="1:7">
       <c r="A282" s="1">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6881,12 +6881,12 @@
         <v>5</v>
       </c>
       <c r="G282">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="283" spans="1:7">
       <c r="A283" s="1">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6898,7 +6898,7 @@
         <v>2</v>
       </c>
       <c r="E283">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F283">
         <v>3</v>
@@ -6909,7 +6909,7 @@
     </row>
     <row r="284" spans="1:7">
       <c r="A284" s="1">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="B284">
         <v>1</v>
@@ -6921,18 +6921,18 @@
         <v>1</v>
       </c>
       <c r="E284">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F284">
         <v>4</v>
       </c>
       <c r="G284">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="285" spans="1:7">
       <c r="A285" s="1">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="B285">
         <v>2</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="286" spans="1:7">
       <c r="A286" s="1">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="B286">
         <v>1</v>
@@ -6967,7 +6967,7 @@
         <v>2</v>
       </c>
       <c r="E286">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F286">
         <v>3</v>
@@ -6978,7 +6978,7 @@
     </row>
     <row r="287" spans="1:7">
       <c r="A287" s="1">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="B287">
         <v>1</v>
@@ -6990,18 +6990,18 @@
         <v>3</v>
       </c>
       <c r="E287">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F287">
         <v>2</v>
       </c>
       <c r="G287">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:7">
       <c r="A288" s="1">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="B288">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="E288">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F288">
         <v>4</v>
@@ -7024,7 +7024,7 @@
     </row>
     <row r="289" spans="1:7">
       <c r="A289" s="1">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -7036,18 +7036,18 @@
         <v>1</v>
       </c>
       <c r="E289">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F289">
         <v>2</v>
       </c>
       <c r="G289">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:7">
       <c r="A290" s="1">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -7059,13 +7059,13 @@
         <v>3</v>
       </c>
       <c r="E290">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F290">
         <v>4</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:7">
@@ -7088,7 +7088,7 @@
         <v>2</v>
       </c>
       <c r="G291">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7105,13 +7105,13 @@
         <v>2</v>
       </c>
       <c r="E292">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F292">
         <v>2</v>
       </c>
       <c r="G292">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7128,13 +7128,13 @@
         <v>2</v>
       </c>
       <c r="E293">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F293">
         <v>2</v>
       </c>
       <c r="G293">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7151,13 +7151,13 @@
         <v>2</v>
       </c>
       <c r="E294">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F294">
         <v>2</v>
       </c>
       <c r="G294">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7174,13 +7174,13 @@
         <v>3</v>
       </c>
       <c r="E295">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F295">
         <v>3</v>
       </c>
       <c r="G295">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7203,7 +7203,7 @@
         <v>2</v>
       </c>
       <c r="G296">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7220,7 +7220,7 @@
         <v>1</v>
       </c>
       <c r="E297">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F297">
         <v>3</v>
@@ -7243,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="E298">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F298">
         <v>3</v>
@@ -7254,7 +7254,7 @@
     </row>
     <row r="299" spans="1:7">
       <c r="A299" s="1">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -7266,13 +7266,13 @@
         <v>2</v>
       </c>
       <c r="E299">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F299">
         <v>3</v>
       </c>
       <c r="G299">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="300" spans="1:7">
@@ -7312,13 +7312,13 @@
         <v>1</v>
       </c>
       <c r="E301">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F301">
         <v>2</v>
       </c>
       <c r="G301">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7335,13 +7335,13 @@
         <v>2</v>
       </c>
       <c r="E302">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F302">
         <v>3</v>
       </c>
       <c r="G302">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7358,13 +7358,13 @@
         <v>2</v>
       </c>
       <c r="E303">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F303">
         <v>2</v>
       </c>
       <c r="G303">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7381,13 +7381,13 @@
         <v>2</v>
       </c>
       <c r="E304">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F304">
         <v>2</v>
       </c>
       <c r="G304">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7404,13 +7404,13 @@
         <v>3</v>
       </c>
       <c r="E305">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F305">
         <v>3</v>
       </c>
       <c r="G305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7427,13 +7427,13 @@
         <v>1</v>
       </c>
       <c r="E306">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F306">
         <v>4</v>
       </c>
       <c r="G306">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="307" spans="1:7">
@@ -7456,7 +7456,7 @@
         <v>4</v>
       </c>
       <c r="G307">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="308" spans="1:7">
@@ -7473,18 +7473,18 @@
         <v>3</v>
       </c>
       <c r="E308">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F308">
         <v>2</v>
       </c>
       <c r="G308">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="309" spans="1:7">
       <c r="A309" s="1">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -7502,7 +7502,7 @@
         <v>4</v>
       </c>
       <c r="G309">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7519,13 +7519,13 @@
         <v>2</v>
       </c>
       <c r="E310">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F310">
         <v>3</v>
       </c>
       <c r="G310">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="311" spans="1:7">
@@ -7542,13 +7542,13 @@
         <v>3</v>
       </c>
       <c r="E311">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F311">
         <v>4</v>
       </c>
       <c r="G311">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7565,7 +7565,7 @@
         <v>2</v>
       </c>
       <c r="E312">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F312">
         <v>3</v>
@@ -7588,7 +7588,7 @@
         <v>2</v>
       </c>
       <c r="E313">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F313">
         <v>2</v>
@@ -7611,13 +7611,13 @@
         <v>4</v>
       </c>
       <c r="E314">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F314">
         <v>3</v>
       </c>
       <c r="G314">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7640,7 +7640,7 @@
         <v>3</v>
       </c>
       <c r="G315">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7657,13 +7657,13 @@
         <v>2</v>
       </c>
       <c r="E316">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F316">
         <v>5</v>
       </c>
       <c r="G316">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7686,7 +7686,7 @@
         <v>3</v>
       </c>
       <c r="G317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7703,18 +7703,18 @@
         <v>5</v>
       </c>
       <c r="E318">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F318">
         <v>3</v>
       </c>
       <c r="G318">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="319" spans="1:7">
       <c r="A319" s="1">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -7732,7 +7732,7 @@
         <v>2</v>
       </c>
       <c r="G319">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:7">
@@ -7749,13 +7749,13 @@
         <v>4</v>
       </c>
       <c r="E320">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F320">
         <v>4</v>
       </c>
       <c r="G320">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7772,13 +7772,13 @@
         <v>4</v>
       </c>
       <c r="E321">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F321">
         <v>5</v>
       </c>
       <c r="G321">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:7">
@@ -7795,13 +7795,13 @@
         <v>2</v>
       </c>
       <c r="E322">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F322">
         <v>2</v>
       </c>
       <c r="G322">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7824,7 +7824,7 @@
         <v>4</v>
       </c>
       <c r="G323">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324" spans="1:7">
@@ -7841,13 +7841,13 @@
         <v>4</v>
       </c>
       <c r="E324">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F324">
         <v>3</v>
       </c>
       <c r="G324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7864,13 +7864,13 @@
         <v>5</v>
       </c>
       <c r="E325">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F325">
         <v>4</v>
       </c>
       <c r="G325">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7887,13 +7887,13 @@
         <v>3</v>
       </c>
       <c r="E326">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F326">
         <v>4</v>
       </c>
       <c r="G326">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7916,7 +7916,7 @@
         <v>2</v>
       </c>
       <c r="G327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7933,7 +7933,7 @@
         <v>2</v>
       </c>
       <c r="E328">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F328">
         <v>3</v>
@@ -7944,7 +7944,7 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" s="1">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -7962,7 +7962,7 @@
         <v>4</v>
       </c>
       <c r="G329">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330" spans="1:7">
@@ -7979,13 +7979,13 @@
         <v>2</v>
       </c>
       <c r="E330">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F330">
         <v>5</v>
       </c>
       <c r="G330">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8002,13 +8002,13 @@
         <v>2</v>
       </c>
       <c r="E331">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F331">
         <v>2</v>
       </c>
       <c r="G331">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8025,13 +8025,13 @@
         <v>1</v>
       </c>
       <c r="E332">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F332">
         <v>3</v>
       </c>
       <c r="G332">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8048,13 +8048,13 @@
         <v>4</v>
       </c>
       <c r="E333">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F333">
         <v>6</v>
       </c>
       <c r="G333">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8071,13 +8071,13 @@
         <v>5</v>
       </c>
       <c r="E334">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F334">
         <v>5</v>
       </c>
       <c r="G334">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8094,13 +8094,13 @@
         <v>3</v>
       </c>
       <c r="E335">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F335">
         <v>4</v>
       </c>
       <c r="G335">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8117,13 +8117,13 @@
         <v>2</v>
       </c>
       <c r="E336">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F336">
         <v>3</v>
       </c>
       <c r="G336">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="337" spans="1:7">
@@ -8146,7 +8146,7 @@
         <v>3</v>
       </c>
       <c r="G337">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8169,12 +8169,12 @@
         <v>4</v>
       </c>
       <c r="G338">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339" spans="1:7">
       <c r="A339" s="1">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B339">
         <v>1</v>
@@ -8186,13 +8186,13 @@
         <v>3</v>
       </c>
       <c r="E339">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F339">
         <v>3</v>
       </c>
       <c r="G339">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8209,13 +8209,13 @@
         <v>1</v>
       </c>
       <c r="E340">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F340">
         <v>2</v>
       </c>
       <c r="G340">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8238,7 +8238,7 @@
         <v>3</v>
       </c>
       <c r="G341">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342" spans="1:7">
@@ -8261,7 +8261,7 @@
         <v>3</v>
       </c>
       <c r="G342">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8278,13 +8278,13 @@
         <v>2</v>
       </c>
       <c r="E343">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F343">
         <v>4</v>
       </c>
       <c r="G343">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8301,13 +8301,13 @@
         <v>5</v>
       </c>
       <c r="E344">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F344">
         <v>4</v>
       </c>
       <c r="G344">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="345" spans="1:7">
@@ -8324,13 +8324,13 @@
         <v>2</v>
       </c>
       <c r="E345">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F345">
         <v>3</v>
       </c>
       <c r="G345">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="346" spans="1:7">
@@ -8347,13 +8347,13 @@
         <v>3</v>
       </c>
       <c r="E346">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F346">
         <v>3</v>
       </c>
       <c r="G346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -8370,7 +8370,7 @@
         <v>1</v>
       </c>
       <c r="E347">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F347">
         <v>4</v>
@@ -8399,12 +8399,12 @@
         <v>2</v>
       </c>
       <c r="G348">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="1">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -8416,7 +8416,7 @@
         <v>1</v>
       </c>
       <c r="E349">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F349">
         <v>3</v>
@@ -8439,13 +8439,13 @@
         <v>4</v>
       </c>
       <c r="E350">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F350">
         <v>3</v>
       </c>
       <c r="G350">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8462,13 +8462,13 @@
         <v>2</v>
       </c>
       <c r="E351">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F351">
         <v>2</v>
       </c>
       <c r="G351">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:7">
@@ -8485,13 +8485,13 @@
         <v>1</v>
       </c>
       <c r="E352">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F352">
         <v>3</v>
       </c>
       <c r="G352">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -8508,13 +8508,13 @@
         <v>3</v>
       </c>
       <c r="E353">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F353">
         <v>5</v>
       </c>
       <c r="G353">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354" spans="1:7">
@@ -8554,13 +8554,13 @@
         <v>2</v>
       </c>
       <c r="E355">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F355">
         <v>3</v>
       </c>
       <c r="G355">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:7">
@@ -8583,7 +8583,7 @@
         <v>2</v>
       </c>
       <c r="G356">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -8600,7 +8600,7 @@
         <v>2</v>
       </c>
       <c r="E357">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F357">
         <v>4</v>
@@ -8623,7 +8623,7 @@
         <v>3</v>
       </c>
       <c r="E358">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F358">
         <v>4</v>
@@ -8634,7 +8634,7 @@
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="1">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -8646,13 +8646,13 @@
         <v>5</v>
       </c>
       <c r="E359">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F359">
         <v>4</v>
       </c>
       <c r="G359">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -8669,13 +8669,13 @@
         <v>1</v>
       </c>
       <c r="E360">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F360">
         <v>2</v>
       </c>
       <c r="G360">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:7">
@@ -8692,13 +8692,13 @@
         <v>4</v>
       </c>
       <c r="E361">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F361">
         <v>3</v>
       </c>
       <c r="G361">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -8715,7 +8715,7 @@
         <v>2</v>
       </c>
       <c r="E362">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F362">
         <v>3</v>
@@ -8738,7 +8738,7 @@
         <v>3</v>
       </c>
       <c r="E363">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F363">
         <v>2</v>
@@ -8767,7 +8767,7 @@
         <v>2</v>
       </c>
       <c r="G364">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8784,7 +8784,7 @@
         <v>3</v>
       </c>
       <c r="E365">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F365">
         <v>5</v>
@@ -8807,13 +8807,13 @@
         <v>3</v>
       </c>
       <c r="E366">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F366">
         <v>2</v>
       </c>
       <c r="G366">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -8830,13 +8830,13 @@
         <v>2</v>
       </c>
       <c r="E367">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F367">
         <v>4</v>
       </c>
       <c r="G367">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="E368">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F368">
         <v>3</v>
@@ -8864,7 +8864,7 @@
     </row>
     <row r="369" spans="1:7">
       <c r="A369" s="1">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -8876,13 +8876,13 @@
         <v>3</v>
       </c>
       <c r="E369">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F369">
         <v>2</v>
       </c>
       <c r="G369">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="370" spans="1:7">
@@ -8899,13 +8899,13 @@
         <v>3</v>
       </c>
       <c r="E370">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F370">
         <v>3</v>
       </c>
       <c r="G370">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371" spans="1:7">
@@ -8922,13 +8922,13 @@
         <v>3</v>
       </c>
       <c r="E371">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F371">
         <v>6</v>
       </c>
       <c r="G371">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372" spans="1:7">
@@ -8945,13 +8945,13 @@
         <v>5</v>
       </c>
       <c r="E372">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F372">
         <v>3</v>
       </c>
       <c r="G372">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -8968,13 +8968,13 @@
         <v>1</v>
       </c>
       <c r="E373">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F373">
         <v>2</v>
       </c>
       <c r="G373">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -8997,7 +8997,7 @@
         <v>3</v>
       </c>
       <c r="G374">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9014,13 +9014,13 @@
         <v>3</v>
       </c>
       <c r="E375">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F375">
         <v>3</v>
       </c>
       <c r="G375">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:7">
@@ -9037,13 +9037,13 @@
         <v>3</v>
       </c>
       <c r="E376">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F376">
         <v>3</v>
       </c>
       <c r="G376">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377" spans="1:7">
@@ -9060,7 +9060,7 @@
         <v>1</v>
       </c>
       <c r="E377">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F377">
         <v>2</v>
@@ -9083,18 +9083,18 @@
         <v>2</v>
       </c>
       <c r="E378">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F378">
         <v>6</v>
       </c>
       <c r="G378">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="379" spans="1:7">
       <c r="A379" s="1">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B379">
         <v>2</v>
@@ -9106,13 +9106,13 @@
         <v>3</v>
       </c>
       <c r="E379">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F379">
         <v>4</v>
       </c>
       <c r="G379">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -9129,7 +9129,7 @@
         <v>1</v>
       </c>
       <c r="E380">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F380">
         <v>3</v>
@@ -9140,7 +9140,7 @@
     </row>
     <row r="381" spans="1:7">
       <c r="A381" s="1">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -9152,18 +9152,18 @@
         <v>1</v>
       </c>
       <c r="E381">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F381">
         <v>4</v>
       </c>
       <c r="G381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:7">
       <c r="A382" s="1">
-        <v>381</v>
+        <v>351</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -9175,18 +9175,18 @@
         <v>1</v>
       </c>
       <c r="E382">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F382">
         <v>3</v>
       </c>
       <c r="G382">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383" spans="1:7">
       <c r="A383" s="1">
-        <v>382</v>
+        <v>352</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -9198,18 +9198,18 @@
         <v>1</v>
       </c>
       <c r="E383">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F383">
         <v>4</v>
       </c>
       <c r="G383">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:7">
       <c r="A384" s="1">
-        <v>383</v>
+        <v>353</v>
       </c>
       <c r="B384">
         <v>2</v>
@@ -9221,7 +9221,7 @@
         <v>2</v>
       </c>
       <c r="E384">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F384">
         <v>3</v>
@@ -9232,7 +9232,7 @@
     </row>
     <row r="385" spans="1:7">
       <c r="A385" s="1">
-        <v>384</v>
+        <v>354</v>
       </c>
       <c r="B385">
         <v>2</v>
@@ -9244,18 +9244,18 @@
         <v>2</v>
       </c>
       <c r="E385">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F385">
         <v>6</v>
       </c>
       <c r="G385">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:7">
       <c r="A386" s="1">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="B386">
         <v>2</v>
@@ -9273,12 +9273,12 @@
         <v>6</v>
       </c>
       <c r="G386">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="387" spans="1:7">
       <c r="A387" s="1">
-        <v>386</v>
+        <v>356</v>
       </c>
       <c r="B387">
         <v>2</v>
@@ -9296,12 +9296,12 @@
         <v>3</v>
       </c>
       <c r="G387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:7">
       <c r="A388" s="1">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -9313,18 +9313,18 @@
         <v>4</v>
       </c>
       <c r="E388">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F388">
         <v>4</v>
       </c>
       <c r="G388">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:7">
       <c r="A389" s="1">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="B389">
         <v>2</v>
@@ -9336,18 +9336,18 @@
         <v>3</v>
       </c>
       <c r="E389">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F389">
         <v>3</v>
       </c>
       <c r="G389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:7">
       <c r="A390" s="1">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -9359,7 +9359,7 @@
         <v>1</v>
       </c>
       <c r="E390">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F390">
         <v>3</v>
@@ -9382,7 +9382,7 @@
         <v>3</v>
       </c>
       <c r="E391">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F391">
         <v>3</v>
@@ -9405,13 +9405,13 @@
         <v>2</v>
       </c>
       <c r="E392">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F392">
         <v>3</v>
       </c>
       <c r="G392">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="393" spans="1:7">
@@ -9428,13 +9428,13 @@
         <v>2</v>
       </c>
       <c r="E393">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F393">
         <v>2</v>
       </c>
       <c r="G393">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -9451,13 +9451,13 @@
         <v>2</v>
       </c>
       <c r="E394">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F394">
         <v>2</v>
       </c>
       <c r="G394">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="395" spans="1:7">
@@ -9474,13 +9474,13 @@
         <v>2</v>
       </c>
       <c r="E395">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F395">
         <v>2</v>
       </c>
       <c r="G395">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -9497,13 +9497,13 @@
         <v>1</v>
       </c>
       <c r="E396">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F396">
         <v>5</v>
       </c>
       <c r="G396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -9543,7 +9543,7 @@
         <v>3</v>
       </c>
       <c r="E398">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F398">
         <v>4</v>
@@ -9554,7 +9554,7 @@
     </row>
     <row r="399" spans="1:7">
       <c r="A399" s="1">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -9566,7 +9566,7 @@
         <v>5</v>
       </c>
       <c r="E399">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F399">
         <v>4</v>
@@ -9589,13 +9589,13 @@
         <v>4</v>
       </c>
       <c r="E400">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F400">
         <v>5</v>
       </c>
       <c r="G400">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:7">
@@ -9612,13 +9612,13 @@
         <v>2</v>
       </c>
       <c r="E401">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F401">
         <v>2</v>
       </c>
       <c r="G401">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -9641,7 +9641,7 @@
         <v>5</v>
       </c>
       <c r="G402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -9681,7 +9681,7 @@
         <v>3</v>
       </c>
       <c r="E404">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F404">
         <v>4</v>
@@ -9704,13 +9704,13 @@
         <v>3</v>
       </c>
       <c r="E405">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F405">
         <v>3</v>
       </c>
       <c r="G405">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -9727,13 +9727,13 @@
         <v>4</v>
       </c>
       <c r="E406">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F406">
         <v>3</v>
       </c>
       <c r="G406">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -9750,7 +9750,7 @@
         <v>1</v>
       </c>
       <c r="E407">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F407">
         <v>4</v>
@@ -9773,18 +9773,18 @@
         <v>3</v>
       </c>
       <c r="E408">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F408">
         <v>2</v>
       </c>
       <c r="G408">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:7">
       <c r="A409" s="1">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B409">
         <v>2</v>
@@ -9796,13 +9796,13 @@
         <v>3</v>
       </c>
       <c r="E409">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F409">
         <v>4</v>
       </c>
       <c r="G409">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -9819,7 +9819,7 @@
         <v>2</v>
       </c>
       <c r="E410">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F410">
         <v>3</v>
@@ -9842,13 +9842,13 @@
         <v>1</v>
       </c>
       <c r="E411">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F411">
         <v>3</v>
       </c>
       <c r="G411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -9865,13 +9865,13 @@
         <v>5</v>
       </c>
       <c r="E412">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F412">
         <v>4</v>
       </c>
       <c r="G412">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:7">
@@ -9888,13 +9888,13 @@
         <v>2</v>
       </c>
       <c r="E413">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F413">
         <v>3</v>
       </c>
       <c r="G413">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -9911,13 +9911,13 @@
         <v>1</v>
       </c>
       <c r="E414">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F414">
         <v>3</v>
       </c>
       <c r="G414">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -9934,13 +9934,13 @@
         <v>2</v>
       </c>
       <c r="E415">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F415">
         <v>6</v>
       </c>
       <c r="G415">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -9957,13 +9957,13 @@
         <v>1</v>
       </c>
       <c r="E416">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F416">
         <v>5</v>
       </c>
       <c r="G416">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="417" spans="1:7">
@@ -9980,13 +9980,13 @@
         <v>2</v>
       </c>
       <c r="E417">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F417">
         <v>4</v>
       </c>
       <c r="G417">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -10003,18 +10003,18 @@
         <v>2</v>
       </c>
       <c r="E418">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F418">
         <v>3</v>
       </c>
       <c r="G418">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="419" spans="1:7">
       <c r="A419" s="1">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -10026,13 +10026,13 @@
         <v>3</v>
       </c>
       <c r="E419">
+        <v>5</v>
+      </c>
+      <c r="F419">
+        <v>6</v>
+      </c>
+      <c r="G419">
         <v>8</v>
-      </c>
-      <c r="F419">
-        <v>6</v>
-      </c>
-      <c r="G419">
-        <v>0</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -10049,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="E420">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F420">
         <v>4</v>
@@ -10072,13 +10072,13 @@
         <v>2</v>
       </c>
       <c r="E421">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F421">
         <v>3</v>
       </c>
       <c r="G421">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="422" spans="1:7">
@@ -10095,13 +10095,13 @@
         <v>2</v>
       </c>
       <c r="E422">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F422">
         <v>4</v>
       </c>
       <c r="G422">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -10118,7 +10118,7 @@
         <v>3</v>
       </c>
       <c r="E423">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F423">
         <v>2</v>
@@ -10141,7 +10141,7 @@
         <v>2</v>
       </c>
       <c r="E424">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F424">
         <v>3</v>
@@ -10164,13 +10164,13 @@
         <v>2</v>
       </c>
       <c r="E425">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F425">
         <v>4</v>
       </c>
       <c r="G425">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -10187,7 +10187,7 @@
         <v>2</v>
       </c>
       <c r="E426">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F426">
         <v>3</v>
@@ -10210,7 +10210,7 @@
         <v>2</v>
       </c>
       <c r="E427">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F427">
         <v>4</v>
@@ -10239,12 +10239,12 @@
         <v>2</v>
       </c>
       <c r="G428">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="429" spans="1:7">
       <c r="A429" s="1">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -10256,13 +10256,13 @@
         <v>1</v>
       </c>
       <c r="E429">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F429">
         <v>2</v>
       </c>
       <c r="G429">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -10279,13 +10279,13 @@
         <v>3</v>
       </c>
       <c r="E430">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F430">
         <v>4</v>
       </c>
       <c r="G430">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -10302,13 +10302,13 @@
         <v>3</v>
       </c>
       <c r="E431">
+        <v>5</v>
+      </c>
+      <c r="F431">
+        <v>3</v>
+      </c>
+      <c r="G431">
         <v>8</v>
-      </c>
-      <c r="F431">
-        <v>3</v>
-      </c>
-      <c r="G431">
-        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -10325,13 +10325,13 @@
         <v>3</v>
       </c>
       <c r="E432">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F432">
         <v>3</v>
       </c>
       <c r="G432">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:7">
@@ -10348,13 +10348,13 @@
         <v>2</v>
       </c>
       <c r="E433">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F433">
         <v>6</v>
       </c>
       <c r="G433">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="434" spans="1:7">
@@ -10371,13 +10371,13 @@
         <v>3</v>
       </c>
       <c r="E434">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F434">
         <v>3</v>
       </c>
       <c r="G434">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="435" spans="1:7">
@@ -10394,13 +10394,13 @@
         <v>2</v>
       </c>
       <c r="E435">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F435">
         <v>2</v>
       </c>
       <c r="G435">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -10417,13 +10417,13 @@
         <v>3</v>
       </c>
       <c r="E436">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F436">
         <v>4</v>
       </c>
       <c r="G436">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -10440,7 +10440,7 @@
         <v>2</v>
       </c>
       <c r="E437">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F437">
         <v>3</v>
@@ -10469,12 +10469,12 @@
         <v>3</v>
       </c>
       <c r="G438">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:7">
       <c r="A439" s="1">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -10486,13 +10486,13 @@
         <v>1</v>
       </c>
       <c r="E439">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F439">
         <v>2</v>
       </c>
       <c r="G439">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -10509,7 +10509,7 @@
         <v>3</v>
       </c>
       <c r="E440">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F440">
         <v>4</v>
@@ -10532,13 +10532,13 @@
         <v>1</v>
       </c>
       <c r="E441">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F441">
         <v>5</v>
       </c>
       <c r="G441">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -10555,7 +10555,7 @@
         <v>2</v>
       </c>
       <c r="E442">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F442">
         <v>3</v>
@@ -10578,13 +10578,13 @@
         <v>2</v>
       </c>
       <c r="E443">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F443">
         <v>4</v>
       </c>
       <c r="G443">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -10607,7 +10607,7 @@
         <v>3</v>
       </c>
       <c r="G444">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -10624,13 +10624,13 @@
         <v>3</v>
       </c>
       <c r="E445">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F445">
         <v>2</v>
       </c>
       <c r="G445">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="G446">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -10670,7 +10670,7 @@
         <v>2</v>
       </c>
       <c r="E447">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F447">
         <v>4</v>
@@ -10693,18 +10693,18 @@
         <v>3</v>
       </c>
       <c r="E448">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F448">
         <v>4</v>
       </c>
       <c r="G448">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:7">
       <c r="A449" s="1">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B449">
         <v>2</v>
@@ -10716,13 +10716,13 @@
         <v>4</v>
       </c>
       <c r="E449">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F449">
         <v>3</v>
       </c>
       <c r="G449">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -10739,13 +10739,13 @@
         <v>2</v>
       </c>
       <c r="E450">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F450">
         <v>3</v>
       </c>
       <c r="G450">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="451" spans="1:7">
@@ -10762,13 +10762,13 @@
         <v>3</v>
       </c>
       <c r="E451">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F451">
         <v>5</v>
       </c>
       <c r="G451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:7">
@@ -10785,13 +10785,13 @@
         <v>4</v>
       </c>
       <c r="E452">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F452">
         <v>4</v>
       </c>
       <c r="G452">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -10808,13 +10808,13 @@
         <v>3</v>
       </c>
       <c r="E453">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F453">
         <v>4</v>
       </c>
       <c r="G453">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:7">
@@ -10831,13 +10831,13 @@
         <v>2</v>
       </c>
       <c r="E454">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F454">
         <v>3</v>
       </c>
       <c r="G454">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -10860,7 +10860,7 @@
         <v>2</v>
       </c>
       <c r="G455">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -10877,7 +10877,7 @@
         <v>4</v>
       </c>
       <c r="E456">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F456">
         <v>3</v>
@@ -10900,7 +10900,7 @@
         <v>1</v>
       </c>
       <c r="E457">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F457">
         <v>3</v>
@@ -10923,18 +10923,18 @@
         <v>2</v>
       </c>
       <c r="E458">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F458">
         <v>3</v>
       </c>
       <c r="G458">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:7">
       <c r="A459" s="1">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B459">
         <v>1</v>
@@ -10946,13 +10946,13 @@
         <v>4</v>
       </c>
       <c r="E459">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F459">
         <v>4</v>
       </c>
       <c r="G459">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:7">
@@ -10969,13 +10969,13 @@
         <v>2</v>
       </c>
       <c r="E460">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F460">
         <v>2</v>
       </c>
       <c r="G460">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -10998,7 +10998,7 @@
         <v>3</v>
       </c>
       <c r="G461">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -11015,13 +11015,13 @@
         <v>3</v>
       </c>
       <c r="E462">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F462">
         <v>3</v>
       </c>
       <c r="G462">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:7">
@@ -11044,7 +11044,7 @@
         <v>3</v>
       </c>
       <c r="G463">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -11061,13 +11061,13 @@
         <v>4</v>
       </c>
       <c r="E464">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F464">
         <v>6</v>
       </c>
       <c r="G464">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -11084,13 +11084,13 @@
         <v>2</v>
       </c>
       <c r="E465">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F465">
         <v>2</v>
       </c>
       <c r="G465">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -11107,13 +11107,13 @@
         <v>2</v>
       </c>
       <c r="E466">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F466">
         <v>2</v>
       </c>
       <c r="G466">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11136,7 +11136,7 @@
         <v>2</v>
       </c>
       <c r="G467">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11153,18 +11153,18 @@
         <v>3</v>
       </c>
       <c r="E468">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F468">
         <v>3</v>
       </c>
       <c r="G468">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:7">
       <c r="A469" s="1">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B469">
         <v>2</v>
@@ -11176,13 +11176,13 @@
         <v>4</v>
       </c>
       <c r="E469">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F469">
         <v>5</v>
       </c>
       <c r="G469">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -11199,13 +11199,13 @@
         <v>3</v>
       </c>
       <c r="E470">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F470">
         <v>4</v>
       </c>
       <c r="G470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:7">
@@ -11228,7 +11228,7 @@
         <v>5</v>
       </c>
       <c r="G471">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -11245,13 +11245,13 @@
         <v>1</v>
       </c>
       <c r="E472">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F472">
         <v>2</v>
       </c>
       <c r="G472">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11274,7 +11274,7 @@
         <v>3</v>
       </c>
       <c r="G473">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -11291,13 +11291,13 @@
         <v>3</v>
       </c>
       <c r="E474">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F474">
         <v>3</v>
       </c>
       <c r="G474">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -11314,13 +11314,13 @@
         <v>3</v>
       </c>
       <c r="E475">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F475">
         <v>2</v>
       </c>
       <c r="G475">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -11343,7 +11343,7 @@
         <v>2</v>
       </c>
       <c r="G476">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -11360,13 +11360,13 @@
         <v>3</v>
       </c>
       <c r="E477">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F477">
         <v>3</v>
       </c>
       <c r="G477">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:7">
@@ -11394,7 +11394,7 @@
     </row>
     <row r="479" spans="1:7">
       <c r="A479" s="1">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B479">
         <v>2</v>
@@ -11406,7 +11406,7 @@
         <v>3</v>
       </c>
       <c r="E479">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F479">
         <v>2</v>
@@ -11440,7 +11440,7 @@
     </row>
     <row r="481" spans="1:7">
       <c r="A481" s="1">
-        <v>480</v>
+        <v>450</v>
       </c>
       <c r="B481">
         <v>1</v>
@@ -11452,18 +11452,18 @@
         <v>1</v>
       </c>
       <c r="E481">
+        <v>5</v>
+      </c>
+      <c r="F481">
+        <v>6</v>
+      </c>
+      <c r="G481">
         <v>8</v>
-      </c>
-      <c r="F481">
-        <v>6</v>
-      </c>
-      <c r="G481">
-        <v>5</v>
       </c>
     </row>
     <row r="482" spans="1:7">
       <c r="A482" s="1">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="B482">
         <v>1</v>
@@ -11475,18 +11475,18 @@
         <v>3</v>
       </c>
       <c r="E482">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F482">
         <v>4</v>
       </c>
       <c r="G482">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:7">
       <c r="A483" s="1">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="B483">
         <v>2</v>
@@ -11504,12 +11504,12 @@
         <v>2</v>
       </c>
       <c r="G483">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:7">
       <c r="A484" s="1">
-        <v>483</v>
+        <v>453</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -11521,18 +11521,18 @@
         <v>2</v>
       </c>
       <c r="E484">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F484">
         <v>3</v>
       </c>
       <c r="G484">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="485" spans="1:7">
       <c r="A485" s="1">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="B485">
         <v>1</v>
@@ -11544,18 +11544,18 @@
         <v>5</v>
       </c>
       <c r="E485">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F485">
         <v>3</v>
       </c>
       <c r="G485">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:7">
       <c r="A486" s="1">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="B486">
         <v>2</v>
@@ -11567,7 +11567,7 @@
         <v>3</v>
       </c>
       <c r="E486">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F486">
         <v>2</v>
@@ -11578,7 +11578,7 @@
     </row>
     <row r="487" spans="1:7">
       <c r="A487" s="1">
-        <v>486</v>
+        <v>456</v>
       </c>
       <c r="B487">
         <v>1</v>
@@ -11590,18 +11590,18 @@
         <v>2</v>
       </c>
       <c r="E487">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F487">
         <v>3</v>
       </c>
       <c r="G487">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:7">
       <c r="A488" s="1">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="B488">
         <v>2</v>
@@ -11619,12 +11619,12 @@
         <v>3</v>
       </c>
       <c r="G488">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="489" spans="1:7">
       <c r="A489" s="1">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="B489">
         <v>2</v>
@@ -11636,7 +11636,7 @@
         <v>3</v>
       </c>
       <c r="E489">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F489">
         <v>3</v>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="490" spans="1:7">
       <c r="A490" s="1">
-        <v>489</v>
+        <v>459</v>
       </c>
       <c r="B490">
         <v>1</v>
@@ -11682,13 +11682,13 @@
         <v>3</v>
       </c>
       <c r="E491">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F491">
         <v>5</v>
       </c>
       <c r="G491">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -11705,7 +11705,7 @@
         <v>2</v>
       </c>
       <c r="E492">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F492">
         <v>4</v>
@@ -11728,13 +11728,13 @@
         <v>3</v>
       </c>
       <c r="E493">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F493">
         <v>5</v>
       </c>
       <c r="G493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:7">
@@ -11751,7 +11751,7 @@
         <v>2</v>
       </c>
       <c r="E494">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F494">
         <v>3</v>
@@ -11780,7 +11780,7 @@
         <v>3</v>
       </c>
       <c r="G495">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:7">
@@ -11797,13 +11797,13 @@
         <v>3</v>
       </c>
       <c r="E496">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F496">
         <v>4</v>
       </c>
       <c r="G496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:7">
@@ -11826,7 +11826,7 @@
         <v>5</v>
       </c>
       <c r="G497">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:7">
@@ -11843,18 +11843,18 @@
         <v>1</v>
       </c>
       <c r="E498">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F498">
         <v>2</v>
       </c>
       <c r="G498">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499" spans="1:7">
       <c r="A499" s="1">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B499">
         <v>1</v>
@@ -11866,7 +11866,7 @@
         <v>5</v>
       </c>
       <c r="E499">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F499">
         <v>3</v>
@@ -11889,13 +11889,13 @@
         <v>1</v>
       </c>
       <c r="E500">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F500">
         <v>3</v>
       </c>
       <c r="G500">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -11918,7 +11918,7 @@
         <v>4</v>
       </c>
       <c r="G501">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -11935,13 +11935,13 @@
         <v>3</v>
       </c>
       <c r="E502">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F502">
         <v>2</v>
       </c>
       <c r="G502">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -11958,13 +11958,13 @@
         <v>2</v>
       </c>
       <c r="E503">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F503">
         <v>2</v>
       </c>
       <c r="G503">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:7">
@@ -11981,13 +11981,13 @@
         <v>2</v>
       </c>
       <c r="E504">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F504">
         <v>5</v>
       </c>
       <c r="G504">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -12004,13 +12004,13 @@
         <v>3</v>
       </c>
       <c r="E505">
+        <v>5</v>
+      </c>
+      <c r="F505">
+        <v>3</v>
+      </c>
+      <c r="G505">
         <v>8</v>
-      </c>
-      <c r="F505">
-        <v>3</v>
-      </c>
-      <c r="G505">
-        <v>0</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12027,13 +12027,13 @@
         <v>2</v>
       </c>
       <c r="E506">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F506">
         <v>3</v>
       </c>
       <c r="G506">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="507" spans="1:7">
@@ -12050,13 +12050,13 @@
         <v>3</v>
       </c>
       <c r="E507">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F507">
         <v>2</v>
       </c>
       <c r="G507">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -12073,18 +12073,18 @@
         <v>3</v>
       </c>
       <c r="E508">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F508">
         <v>4</v>
       </c>
       <c r="G508">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="509" spans="1:7">
       <c r="A509" s="1">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B509">
         <v>2</v>
@@ -12096,13 +12096,13 @@
         <v>3</v>
       </c>
       <c r="E509">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F509">
         <v>2</v>
       </c>
       <c r="G509">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -12119,13 +12119,13 @@
         <v>2</v>
       </c>
       <c r="E510">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F510">
         <v>3</v>
       </c>
       <c r="G510">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -12142,7 +12142,7 @@
         <v>3</v>
       </c>
       <c r="E511">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F511">
         <v>2</v>
@@ -12171,7 +12171,7 @@
         <v>3</v>
       </c>
       <c r="G512">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -12188,13 +12188,13 @@
         <v>5</v>
       </c>
       <c r="E513">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F513">
         <v>5</v>
       </c>
       <c r="G513">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="514" spans="1:7">
@@ -12211,13 +12211,13 @@
         <v>4</v>
       </c>
       <c r="E514">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F514">
         <v>5</v>
       </c>
       <c r="G514">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -12257,13 +12257,13 @@
         <v>5</v>
       </c>
       <c r="E516">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F516">
         <v>3</v>
       </c>
       <c r="G516">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="517" spans="1:7">
@@ -12280,13 +12280,13 @@
         <v>3</v>
       </c>
       <c r="E517">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F517">
         <v>4</v>
       </c>
       <c r="G517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:7">
@@ -12303,18 +12303,18 @@
         <v>1</v>
       </c>
       <c r="E518">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F518">
         <v>2</v>
       </c>
       <c r="G518">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519" spans="1:7">
       <c r="A519" s="1">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B519">
         <v>2</v>
@@ -12326,7 +12326,7 @@
         <v>4</v>
       </c>
       <c r="E519">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F519">
         <v>6</v>
@@ -12349,13 +12349,13 @@
         <v>1</v>
       </c>
       <c r="E520">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F520">
         <v>4</v>
       </c>
       <c r="G520">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:7">
@@ -12372,13 +12372,13 @@
         <v>4</v>
       </c>
       <c r="E521">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F521">
         <v>5</v>
       </c>
       <c r="G521">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -12395,7 +12395,7 @@
         <v>3</v>
       </c>
       <c r="E522">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F522">
         <v>2</v>
@@ -12418,13 +12418,13 @@
         <v>3</v>
       </c>
       <c r="E523">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F523">
         <v>2</v>
       </c>
       <c r="G523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:7">
@@ -12447,7 +12447,7 @@
         <v>3</v>
       </c>
       <c r="G524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -12464,13 +12464,13 @@
         <v>5</v>
       </c>
       <c r="E525">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F525">
         <v>4</v>
       </c>
       <c r="G525">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -12487,13 +12487,13 @@
         <v>5</v>
       </c>
       <c r="E526">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F526">
         <v>5</v>
       </c>
       <c r="G526">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -12510,13 +12510,13 @@
         <v>2</v>
       </c>
       <c r="E527">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F527">
         <v>3</v>
       </c>
       <c r="G527">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -12539,12 +12539,12 @@
         <v>2</v>
       </c>
       <c r="G528">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:7">
       <c r="A529" s="1">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="B529">
         <v>2</v>
@@ -12562,7 +12562,7 @@
         <v>4</v>
       </c>
       <c r="G529">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -12579,13 +12579,13 @@
         <v>3</v>
       </c>
       <c r="E530">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F530">
         <v>3</v>
       </c>
       <c r="G530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -12602,7 +12602,7 @@
         <v>4</v>
       </c>
       <c r="E531">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F531">
         <v>5</v>
@@ -12625,7 +12625,7 @@
         <v>3</v>
       </c>
       <c r="E532">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F532">
         <v>2</v>
@@ -12648,13 +12648,13 @@
         <v>3</v>
       </c>
       <c r="E533">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F533">
         <v>2</v>
       </c>
       <c r="G533">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -12671,13 +12671,13 @@
         <v>3</v>
       </c>
       <c r="E534">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F534">
         <v>4</v>
       </c>
       <c r="G534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:7">
@@ -12694,7 +12694,7 @@
         <v>5</v>
       </c>
       <c r="E535">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F535">
         <v>3</v>
@@ -12717,13 +12717,13 @@
         <v>1</v>
       </c>
       <c r="E536">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F536">
         <v>3</v>
       </c>
       <c r="G536">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -12740,13 +12740,13 @@
         <v>3</v>
       </c>
       <c r="E537">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F537">
         <v>4</v>
       </c>
       <c r="G537">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:7">
@@ -12763,7 +12763,7 @@
         <v>1</v>
       </c>
       <c r="E538">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F538">
         <v>4</v>
@@ -12774,7 +12774,7 @@
     </row>
     <row r="539" spans="1:7">
       <c r="A539" s="1">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="B539">
         <v>2</v>
@@ -12786,13 +12786,13 @@
         <v>5</v>
       </c>
       <c r="E539">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F539">
         <v>2</v>
       </c>
       <c r="G539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:7">
@@ -12809,13 +12809,13 @@
         <v>3</v>
       </c>
       <c r="E540">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F540">
         <v>6</v>
       </c>
       <c r="G540">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -12832,7 +12832,7 @@
         <v>2</v>
       </c>
       <c r="E541">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F541">
         <v>3</v>
@@ -12855,13 +12855,13 @@
         <v>1</v>
       </c>
       <c r="E542">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F542">
         <v>2</v>
       </c>
       <c r="G542">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="543" spans="1:7">
@@ -12878,13 +12878,13 @@
         <v>2</v>
       </c>
       <c r="E543">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F543">
         <v>3</v>
       </c>
       <c r="G543">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -12901,7 +12901,7 @@
         <v>2</v>
       </c>
       <c r="E544">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F544">
         <v>4</v>
@@ -12924,13 +12924,13 @@
         <v>3</v>
       </c>
       <c r="E545">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F545">
         <v>3</v>
       </c>
       <c r="G545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:7">
@@ -12947,13 +12947,13 @@
         <v>2</v>
       </c>
       <c r="E546">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F546">
         <v>3</v>
       </c>
       <c r="G546">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -12970,13 +12970,13 @@
         <v>2</v>
       </c>
       <c r="E547">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F547">
         <v>3</v>
       </c>
       <c r="G547">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="548" spans="1:7">
@@ -12999,12 +12999,12 @@
         <v>2</v>
       </c>
       <c r="G548">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="549" spans="1:7">
       <c r="A549" s="1">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="B549">
         <v>1</v>
@@ -13016,13 +13016,13 @@
         <v>2</v>
       </c>
       <c r="E549">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F549">
         <v>3</v>
       </c>
       <c r="G549">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="550" spans="1:7">
@@ -13045,7 +13045,7 @@
         <v>3</v>
       </c>
       <c r="G550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -13062,13 +13062,13 @@
         <v>2</v>
       </c>
       <c r="E551">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F551">
         <v>3</v>
       </c>
       <c r="G551">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -13085,13 +13085,13 @@
         <v>2</v>
       </c>
       <c r="E552">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F552">
         <v>5</v>
       </c>
       <c r="G552">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -13108,13 +13108,13 @@
         <v>2</v>
       </c>
       <c r="E553">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F553">
         <v>2</v>
       </c>
       <c r="G553">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -13131,13 +13131,13 @@
         <v>3</v>
       </c>
       <c r="E554">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F554">
         <v>3</v>
       </c>
       <c r="G554">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -13154,13 +13154,13 @@
         <v>4</v>
       </c>
       <c r="E555">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F555">
         <v>5</v>
       </c>
       <c r="G555">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -13177,13 +13177,13 @@
         <v>2</v>
       </c>
       <c r="E556">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F556">
         <v>5</v>
       </c>
       <c r="G556">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:7">
@@ -13200,13 +13200,13 @@
         <v>2</v>
       </c>
       <c r="E557">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F557">
         <v>3</v>
       </c>
       <c r="G557">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -13229,12 +13229,12 @@
         <v>4</v>
       </c>
       <c r="G558">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:7">
       <c r="A559" s="1">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="B559">
         <v>2</v>
@@ -13246,13 +13246,13 @@
         <v>4</v>
       </c>
       <c r="E559">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F559">
         <v>4</v>
       </c>
       <c r="G559">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -13275,7 +13275,7 @@
         <v>3</v>
       </c>
       <c r="G560">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:7">
@@ -13298,7 +13298,7 @@
         <v>3</v>
       </c>
       <c r="G561">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:7">
@@ -13321,7 +13321,7 @@
         <v>3</v>
       </c>
       <c r="G562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -13344,7 +13344,7 @@
         <v>4</v>
       </c>
       <c r="G563">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:7">
@@ -13361,13 +13361,13 @@
         <v>2</v>
       </c>
       <c r="E564">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F564">
         <v>3</v>
       </c>
       <c r="G564">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="565" spans="1:7">
@@ -13384,13 +13384,13 @@
         <v>2</v>
       </c>
       <c r="E565">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F565">
         <v>3</v>
       </c>
       <c r="G565">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="566" spans="1:7">
@@ -13413,7 +13413,7 @@
         <v>3</v>
       </c>
       <c r="G566">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:7">
@@ -13436,7 +13436,7 @@
         <v>4</v>
       </c>
       <c r="G567">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -13453,18 +13453,18 @@
         <v>4</v>
       </c>
       <c r="E568">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F568">
         <v>5</v>
       </c>
       <c r="G568">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="569" spans="1:7">
       <c r="A569" s="1">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B569">
         <v>2</v>
@@ -13482,7 +13482,7 @@
         <v>4</v>
       </c>
       <c r="G569">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -13505,7 +13505,7 @@
         <v>2</v>
       </c>
       <c r="G570">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:7">
@@ -13522,7 +13522,7 @@
         <v>4</v>
       </c>
       <c r="E571">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F571">
         <v>4</v>
@@ -13545,13 +13545,13 @@
         <v>4</v>
       </c>
       <c r="E572">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F572">
         <v>3</v>
       </c>
       <c r="G572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -13568,13 +13568,13 @@
         <v>4</v>
       </c>
       <c r="E573">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F573">
         <v>4</v>
       </c>
       <c r="G573">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -13597,7 +13597,7 @@
         <v>3</v>
       </c>
       <c r="G574">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -13637,7 +13637,7 @@
         <v>4</v>
       </c>
       <c r="E576">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F576">
         <v>2</v>
@@ -13666,7 +13666,7 @@
         <v>3</v>
       </c>
       <c r="G577">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:7">
@@ -13689,12 +13689,12 @@
         <v>3</v>
       </c>
       <c r="G578">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:7">
       <c r="A579" s="1">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B579">
         <v>2</v>
@@ -13706,13 +13706,13 @@
         <v>4</v>
       </c>
       <c r="E579">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F579">
         <v>4</v>
       </c>
       <c r="G579">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -13735,12 +13735,12 @@
         <v>4</v>
       </c>
       <c r="G580">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:7">
       <c r="A581" s="1">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="B581">
         <v>2</v>
@@ -13752,18 +13752,18 @@
         <v>5</v>
       </c>
       <c r="E581">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F581">
         <v>4</v>
       </c>
       <c r="G581">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:7">
       <c r="A582" s="1">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="B582">
         <v>2</v>
@@ -13775,18 +13775,18 @@
         <v>4</v>
       </c>
       <c r="E582">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F582">
         <v>4</v>
       </c>
       <c r="G582">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="583" spans="1:7">
       <c r="A583" s="1">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="B583">
         <v>1</v>
@@ -13798,18 +13798,18 @@
         <v>2</v>
       </c>
       <c r="E583">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F583">
         <v>4</v>
       </c>
       <c r="G583">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="584" spans="1:7">
       <c r="A584" s="1">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="B584">
         <v>1</v>
@@ -13827,12 +13827,12 @@
         <v>2</v>
       </c>
       <c r="G584">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585" spans="1:7">
       <c r="A585" s="1">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="B585">
         <v>1</v>
@@ -13850,12 +13850,12 @@
         <v>3</v>
       </c>
       <c r="G585">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="586" spans="1:7">
       <c r="A586" s="1">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="B586">
         <v>2</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="587" spans="1:7">
       <c r="A587" s="1">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="B587">
         <v>2</v>
@@ -13896,12 +13896,12 @@
         <v>4</v>
       </c>
       <c r="G587">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="588" spans="1:7">
       <c r="A588" s="1">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="B588">
         <v>1</v>
@@ -13919,12 +13919,12 @@
         <v>4</v>
       </c>
       <c r="G588">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="589" spans="1:7">
       <c r="A589" s="1">
-        <v>588</v>
+        <v>555</v>
       </c>
       <c r="B589">
         <v>1</v>
@@ -13942,12 +13942,12 @@
         <v>3</v>
       </c>
       <c r="G589">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:7">
       <c r="A590" s="1">
-        <v>589</v>
+        <v>559</v>
       </c>
       <c r="B590">
         <v>2</v>
@@ -13959,13 +13959,13 @@
         <v>4</v>
       </c>
       <c r="E590">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F590">
         <v>4</v>
       </c>
       <c r="G590">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -13982,13 +13982,13 @@
         <v>4</v>
       </c>
       <c r="E591">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F591">
         <v>4</v>
       </c>
       <c r="G591">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -14028,7 +14028,7 @@
         <v>3</v>
       </c>
       <c r="E593">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F593">
         <v>4</v>
@@ -14080,7 +14080,7 @@
         <v>2</v>
       </c>
       <c r="G595">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:7">
@@ -14097,13 +14097,13 @@
         <v>3</v>
       </c>
       <c r="E596">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F596">
         <v>3</v>
       </c>
       <c r="G596">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -14126,7 +14126,7 @@
         <v>4</v>
       </c>
       <c r="G597">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -14154,7 +14154,7 @@
     </row>
     <row r="599" spans="1:7">
       <c r="A599" s="1">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B599">
         <v>2</v>
@@ -14195,7 +14195,7 @@
         <v>3</v>
       </c>
       <c r="G600">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -14235,13 +14235,13 @@
         <v>4</v>
       </c>
       <c r="E602">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F602">
         <v>4</v>
       </c>
       <c r="G602">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -14264,7 +14264,7 @@
         <v>5</v>
       </c>
       <c r="G603">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="604" spans="1:7">
@@ -14287,7 +14287,7 @@
         <v>4</v>
       </c>
       <c r="G604">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -14304,7 +14304,7 @@
         <v>4</v>
       </c>
       <c r="E605">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F605">
         <v>4</v>
@@ -14333,7 +14333,7 @@
         <v>3</v>
       </c>
       <c r="G606">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -14356,7 +14356,7 @@
         <v>2</v>
       </c>
       <c r="G607">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -14373,18 +14373,18 @@
         <v>4</v>
       </c>
       <c r="E608">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F608">
         <v>3</v>
       </c>
       <c r="G608">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="609" spans="1:7">
       <c r="A609" s="1">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B609">
         <v>1</v>
@@ -14402,7 +14402,7 @@
         <v>4</v>
       </c>
       <c r="G609">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -14425,7 +14425,7 @@
         <v>3</v>
       </c>
       <c r="G610">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -14442,13 +14442,13 @@
         <v>4</v>
       </c>
       <c r="E611">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F611">
         <v>2</v>
       </c>
       <c r="G611">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -14465,13 +14465,13 @@
         <v>4</v>
       </c>
       <c r="E612">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F612">
         <v>4</v>
       </c>
       <c r="G612">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -14494,7 +14494,7 @@
         <v>4</v>
       </c>
       <c r="G613">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -14511,13 +14511,13 @@
         <v>5</v>
       </c>
       <c r="E614">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F614">
         <v>3</v>
       </c>
       <c r="G614">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="615" spans="1:7">
@@ -14540,7 +14540,7 @@
         <v>4</v>
       </c>
       <c r="G615">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -14557,7 +14557,7 @@
         <v>4</v>
       </c>
       <c r="E616">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F616">
         <v>2</v>
@@ -14586,7 +14586,7 @@
         <v>3</v>
       </c>
       <c r="G617">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -14609,12 +14609,12 @@
         <v>4</v>
       </c>
       <c r="G618">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="619" spans="1:7">
       <c r="A619" s="1">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B619">
         <v>1</v>
@@ -14626,13 +14626,13 @@
         <v>5</v>
       </c>
       <c r="E619">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F619">
         <v>2</v>
       </c>
       <c r="G619">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:7">
@@ -14649,13 +14649,13 @@
         <v>3</v>
       </c>
       <c r="E620">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F620">
         <v>3</v>
       </c>
       <c r="G620">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="621" spans="1:7">
@@ -14672,13 +14672,13 @@
         <v>2</v>
       </c>
       <c r="E621">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F621">
         <v>3</v>
       </c>
       <c r="G621">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="622" spans="1:7">
@@ -14695,13 +14695,13 @@
         <v>4</v>
       </c>
       <c r="E622">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F622">
         <v>6</v>
       </c>
       <c r="G622">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -14724,7 +14724,7 @@
         <v>4</v>
       </c>
       <c r="G623">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -14747,7 +14747,7 @@
         <v>5</v>
       </c>
       <c r="G624">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="625" spans="1:7">
@@ -14764,13 +14764,13 @@
         <v>4</v>
       </c>
       <c r="E625">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F625">
         <v>4</v>
       </c>
       <c r="G625">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="626" spans="1:7">
@@ -14793,7 +14793,7 @@
         <v>2</v>
       </c>
       <c r="G626">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -14810,13 +14810,13 @@
         <v>4</v>
       </c>
       <c r="E627">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F627">
         <v>4</v>
       </c>
       <c r="G627">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -14833,18 +14833,18 @@
         <v>3</v>
       </c>
       <c r="E628">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F628">
         <v>4</v>
       </c>
       <c r="G628">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:7">
       <c r="A629" s="1">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B629">
         <v>1</v>
@@ -14856,13 +14856,13 @@
         <v>4</v>
       </c>
       <c r="E629">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F629">
         <v>5</v>
       </c>
       <c r="G629">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -14879,13 +14879,13 @@
         <v>4</v>
       </c>
       <c r="E630">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F630">
         <v>3</v>
       </c>
       <c r="G630">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -14902,13 +14902,13 @@
         <v>4</v>
       </c>
       <c r="E631">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F631">
         <v>4</v>
       </c>
       <c r="G631">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -14925,13 +14925,13 @@
         <v>3</v>
       </c>
       <c r="E632">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F632">
         <v>3</v>
       </c>
       <c r="G632">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -14954,7 +14954,7 @@
         <v>6</v>
       </c>
       <c r="G633">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="634" spans="1:7">
@@ -14977,7 +14977,7 @@
         <v>5</v>
       </c>
       <c r="G634">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -15023,7 +15023,7 @@
         <v>4</v>
       </c>
       <c r="G636">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -15040,7 +15040,7 @@
         <v>3</v>
       </c>
       <c r="E637">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F637">
         <v>2</v>
@@ -15063,18 +15063,18 @@
         <v>4</v>
       </c>
       <c r="E638">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F638">
         <v>3</v>
       </c>
       <c r="G638">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="639" spans="1:7">
       <c r="A639" s="1">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B639">
         <v>1</v>
@@ -15086,13 +15086,13 @@
         <v>4</v>
       </c>
       <c r="E639">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F639">
         <v>5</v>
       </c>
       <c r="G639">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -15115,7 +15115,7 @@
         <v>4</v>
       </c>
       <c r="G640">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -15138,7 +15138,7 @@
         <v>3</v>
       </c>
       <c r="G641">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -15161,7 +15161,7 @@
         <v>5</v>
       </c>
       <c r="G642">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -15178,13 +15178,13 @@
         <v>5</v>
       </c>
       <c r="E643">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F643">
         <v>6</v>
       </c>
       <c r="G643">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -15230,7 +15230,7 @@
         <v>3</v>
       </c>
       <c r="G645">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -15270,13 +15270,13 @@
         <v>4</v>
       </c>
       <c r="E647">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F647">
         <v>4</v>
       </c>
       <c r="G647">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -15299,12 +15299,12 @@
         <v>4</v>
       </c>
       <c r="G648">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="649" spans="1:7">
       <c r="A649" s="1">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -15322,7 +15322,7 @@
         <v>3</v>
       </c>
       <c r="G649">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="650" spans="1:7">
@@ -15339,13 +15339,13 @@
         <v>4</v>
       </c>
       <c r="E650">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F650">
         <v>3</v>
       </c>
       <c r="G650">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -15385,13 +15385,13 @@
         <v>4</v>
       </c>
       <c r="E652">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F652">
         <v>4</v>
       </c>
       <c r="G652">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -15414,7 +15414,7 @@
         <v>4</v>
       </c>
       <c r="G653">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -15431,13 +15431,13 @@
         <v>3</v>
       </c>
       <c r="E654">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F654">
         <v>4</v>
       </c>
       <c r="G654">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -15460,7 +15460,7 @@
         <v>3</v>
       </c>
       <c r="G655">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -15477,13 +15477,13 @@
         <v>4</v>
       </c>
       <c r="E656">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F656">
         <v>5</v>
       </c>
       <c r="G656">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -15500,7 +15500,7 @@
         <v>4</v>
       </c>
       <c r="E657">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F657">
         <v>3</v>
@@ -15523,7 +15523,7 @@
         <v>3</v>
       </c>
       <c r="E658">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F658">
         <v>4</v>
@@ -15534,7 +15534,7 @@
     </row>
     <row r="659" spans="1:7">
       <c r="A659" s="1">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="B659">
         <v>1</v>
@@ -15552,7 +15552,7 @@
         <v>3</v>
       </c>
       <c r="G659">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -15575,7 +15575,7 @@
         <v>5</v>
       </c>
       <c r="G660">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -15592,7 +15592,7 @@
         <v>5</v>
       </c>
       <c r="E661">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F661">
         <v>4</v>
@@ -15621,7 +15621,7 @@
         <v>5</v>
       </c>
       <c r="G662">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="663" spans="1:7">
@@ -15667,7 +15667,7 @@
         <v>3</v>
       </c>
       <c r="G664">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -15707,7 +15707,7 @@
         <v>5</v>
       </c>
       <c r="E666">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F666">
         <v>2</v>
@@ -15736,7 +15736,7 @@
         <v>3</v>
       </c>
       <c r="G667">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -15759,12 +15759,12 @@
         <v>3</v>
       </c>
       <c r="G668">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="669" spans="1:7">
       <c r="A669" s="1">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B669">
         <v>2</v>
@@ -15782,7 +15782,7 @@
         <v>3</v>
       </c>
       <c r="G669">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="670" spans="1:7">
@@ -15805,7 +15805,7 @@
         <v>2</v>
       </c>
       <c r="G670">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671" spans="1:7">
@@ -15845,13 +15845,13 @@
         <v>4</v>
       </c>
       <c r="E672">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F672">
         <v>6</v>
       </c>
       <c r="G672">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -15874,7 +15874,7 @@
         <v>3</v>
       </c>
       <c r="G673">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -15897,7 +15897,7 @@
         <v>3</v>
       </c>
       <c r="G674">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:7">
@@ -15937,13 +15937,13 @@
         <v>4</v>
       </c>
       <c r="E676">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F676">
         <v>4</v>
       </c>
       <c r="G676">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -15966,7 +15966,7 @@
         <v>4</v>
       </c>
       <c r="G677">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -15989,12 +15989,12 @@
         <v>2</v>
       </c>
       <c r="G678">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:7">
       <c r="A679" s="1">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B679">
         <v>2</v>
@@ -16012,7 +16012,7 @@
         <v>2</v>
       </c>
       <c r="G679">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:7">
@@ -16035,12 +16035,12 @@
         <v>3</v>
       </c>
       <c r="G680">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:7">
       <c r="A681" s="1">
-        <v>680</v>
+        <v>650</v>
       </c>
       <c r="B681">
         <v>2</v>
@@ -16052,18 +16052,18 @@
         <v>4</v>
       </c>
       <c r="E681">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F681">
         <v>6</v>
       </c>
       <c r="G681">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:7">
       <c r="A682" s="1">
-        <v>681</v>
+        <v>651</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -16075,18 +16075,18 @@
         <v>2</v>
       </c>
       <c r="E682">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F682">
         <v>3</v>
       </c>
       <c r="G682">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="683" spans="1:7">
       <c r="A683" s="1">
-        <v>682</v>
+        <v>652</v>
       </c>
       <c r="B683">
         <v>1</v>
@@ -16104,12 +16104,12 @@
         <v>3</v>
       </c>
       <c r="G683">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="684" spans="1:7">
       <c r="A684" s="1">
-        <v>683</v>
+        <v>653</v>
       </c>
       <c r="B684">
         <v>1</v>
@@ -16127,12 +16127,12 @@
         <v>4</v>
       </c>
       <c r="G684">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:7">
       <c r="A685" s="1">
-        <v>684</v>
+        <v>654</v>
       </c>
       <c r="B685">
         <v>1</v>
@@ -16144,18 +16144,18 @@
         <v>1</v>
       </c>
       <c r="E685">
+        <v>5</v>
+      </c>
+      <c r="F685">
+        <v>1</v>
+      </c>
+      <c r="G685">
         <v>8</v>
-      </c>
-      <c r="F685">
-        <v>1</v>
-      </c>
-      <c r="G685">
-        <v>5</v>
       </c>
     </row>
     <row r="686" spans="1:7">
       <c r="A686" s="1">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="B686">
         <v>2</v>
@@ -16167,7 +16167,7 @@
         <v>3</v>
       </c>
       <c r="E686">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F686">
         <v>2</v>
@@ -16178,7 +16178,7 @@
     </row>
     <row r="687" spans="1:7">
       <c r="A687" s="1">
-        <v>686</v>
+        <v>656</v>
       </c>
       <c r="B687">
         <v>2</v>
@@ -16196,12 +16196,12 @@
         <v>3</v>
       </c>
       <c r="G687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:7">
       <c r="A688" s="1">
-        <v>687</v>
+        <v>657</v>
       </c>
       <c r="B688">
         <v>2</v>
@@ -16213,18 +16213,18 @@
         <v>2</v>
       </c>
       <c r="E688">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F688">
         <v>1</v>
       </c>
       <c r="G688">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="689" spans="1:7">
       <c r="A689" s="1">
-        <v>688</v>
+        <v>655</v>
       </c>
       <c r="B689">
         <v>1</v>
@@ -16236,18 +16236,18 @@
         <v>2</v>
       </c>
       <c r="E689">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F689">
         <v>2</v>
       </c>
       <c r="G689">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="690" spans="1:7">
       <c r="A690" s="1">
-        <v>689</v>
+        <v>659</v>
       </c>
       <c r="B690">
         <v>1</v>
@@ -16265,7 +16265,7 @@
         <v>3</v>
       </c>
       <c r="G690">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="691" spans="1:7">
@@ -16282,13 +16282,13 @@
         <v>4</v>
       </c>
       <c r="E691">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F691">
         <v>3</v>
       </c>
       <c r="G691">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:7">
@@ -16328,13 +16328,13 @@
         <v>4</v>
       </c>
       <c r="E693">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F693">
         <v>3</v>
       </c>
       <c r="G693">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="694" spans="1:7">
@@ -16357,7 +16357,7 @@
         <v>3</v>
       </c>
       <c r="G694">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="695" spans="1:7">
@@ -16380,7 +16380,7 @@
         <v>6</v>
       </c>
       <c r="G695">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -16403,7 +16403,7 @@
         <v>3</v>
       </c>
       <c r="G696">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:7">
@@ -16420,7 +16420,7 @@
         <v>4</v>
       </c>
       <c r="E697">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F697">
         <v>3</v>
@@ -16449,12 +16449,12 @@
         <v>3</v>
       </c>
       <c r="G698">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="699" spans="1:7">
       <c r="A699" s="1">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B699">
         <v>2</v>
@@ -16466,13 +16466,13 @@
         <v>4</v>
       </c>
       <c r="E699">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F699">
         <v>4</v>
       </c>
       <c r="G699">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="700" spans="1:7">
@@ -16495,7 +16495,7 @@
         <v>4</v>
       </c>
       <c r="G700">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -16512,7 +16512,7 @@
         <v>4</v>
       </c>
       <c r="E701">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F701">
         <v>4</v>
@@ -16535,13 +16535,13 @@
         <v>4</v>
       </c>
       <c r="E702">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F702">
         <v>4</v>
       </c>
       <c r="G702">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -16558,13 +16558,13 @@
         <v>5</v>
       </c>
       <c r="E703">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F703">
         <v>5</v>
       </c>
       <c r="G703">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="704" spans="1:7">
@@ -16581,13 +16581,13 @@
         <v>4</v>
       </c>
       <c r="E704">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F704">
         <v>4</v>
       </c>
       <c r="G704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -16610,7 +16610,7 @@
         <v>4</v>
       </c>
       <c r="G705">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:7">
@@ -16627,13 +16627,13 @@
         <v>4</v>
       </c>
       <c r="E706">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F706">
         <v>6</v>
       </c>
       <c r="G706">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:7">
@@ -16650,7 +16650,7 @@
         <v>4</v>
       </c>
       <c r="E707">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F707">
         <v>4</v>
@@ -16684,7 +16684,7 @@
     </row>
     <row r="709" spans="1:7">
       <c r="A709" s="1">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="B709">
         <v>1</v>
@@ -16696,13 +16696,13 @@
         <v>4</v>
       </c>
       <c r="E709">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F709">
         <v>5</v>
       </c>
       <c r="G709">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -16725,7 +16725,7 @@
         <v>4</v>
       </c>
       <c r="G710">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -16748,7 +16748,7 @@
         <v>4</v>
       </c>
       <c r="G711">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -16765,13 +16765,13 @@
         <v>4</v>
       </c>
       <c r="E712">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F712">
         <v>4</v>
       </c>
       <c r="G712">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Python-code/kmodes_result.xlsx
+++ b/Python-code/kmodes_result.xlsx
@@ -28,7 +28,7 @@
     <t>Q26.1</t>
   </si>
   <si>
-    <t>Q30</t>
+    <t>Q20</t>
   </si>
   <si>
     <t>class</t>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -461,10 +461,10 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>4</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -507,10 +507,10 @@
         <v>3</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -530,7 +530,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -553,10 +553,10 @@
         <v>5</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -576,10 +576,10 @@
         <v>4</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G10">
         <v>8</v>
@@ -645,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -668,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="F12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -691,10 +691,10 @@
         <v>2</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -714,10 +714,10 @@
         <v>5</v>
       </c>
       <c r="F14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -737,10 +737,10 @@
         <v>4</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -760,10 +760,10 @@
         <v>2</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -783,10 +783,10 @@
         <v>3</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -806,10 +806,10 @@
         <v>5</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -829,10 +829,10 @@
         <v>2</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -852,7 +852,7 @@
         <v>2</v>
       </c>
       <c r="F20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20">
         <v>4</v>
@@ -875,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G21">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -898,7 +898,7 @@
         <v>6</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G22">
         <v>4</v>
@@ -921,7 +921,7 @@
         <v>2</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23">
         <v>4</v>
@@ -944,10 +944,10 @@
         <v>3</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -967,7 +967,7 @@
         <v>2</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -990,10 +990,10 @@
         <v>5</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1013,10 +1013,10 @@
         <v>2</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1036,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1059,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G29">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="F30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G30">
         <v>4</v>
@@ -1105,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1128,10 +1128,10 @@
         <v>4</v>
       </c>
       <c r="F32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1151,10 +1151,10 @@
         <v>3</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1174,10 +1174,10 @@
         <v>4</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1197,10 +1197,10 @@
         <v>5</v>
       </c>
       <c r="F35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G35">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1220,10 +1220,10 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1243,10 +1243,10 @@
         <v>6</v>
       </c>
       <c r="F37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1266,10 +1266,10 @@
         <v>4</v>
       </c>
       <c r="F38">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1289,10 +1289,10 @@
         <v>2</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1312,10 +1312,10 @@
         <v>5</v>
       </c>
       <c r="F40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1335,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="F41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>8</v>
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
       <c r="F42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G42">
         <v>1</v>
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="F43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G43">
         <v>4</v>
@@ -1404,10 +1404,10 @@
         <v>6</v>
       </c>
       <c r="F44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G44">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1427,10 +1427,10 @@
         <v>1</v>
       </c>
       <c r="F45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G45">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1450,10 +1450,10 @@
         <v>1</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G46">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1473,10 +1473,10 @@
         <v>5</v>
       </c>
       <c r="F47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G47">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1496,10 +1496,10 @@
         <v>4</v>
       </c>
       <c r="F48">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -1519,7 +1519,7 @@
         <v>6</v>
       </c>
       <c r="F49">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G49">
         <v>2</v>
@@ -1542,10 +1542,10 @@
         <v>6</v>
       </c>
       <c r="F50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1565,10 +1565,10 @@
         <v>1</v>
       </c>
       <c r="F51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1588,7 +1588,7 @@
         <v>2</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G52">
         <v>1</v>
@@ -1611,10 +1611,10 @@
         <v>6</v>
       </c>
       <c r="F53">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1634,10 +1634,10 @@
         <v>2</v>
       </c>
       <c r="F54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G54">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1657,10 +1657,10 @@
         <v>2</v>
       </c>
       <c r="F55">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -1680,10 +1680,10 @@
         <v>4</v>
       </c>
       <c r="F56">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -1703,10 +1703,10 @@
         <v>1</v>
       </c>
       <c r="F57">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G57">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -1726,10 +1726,10 @@
         <v>2</v>
       </c>
       <c r="F58">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G58">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1749,7 +1749,7 @@
         <v>4</v>
       </c>
       <c r="F59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G59">
         <v>4</v>
@@ -1772,10 +1772,10 @@
         <v>5</v>
       </c>
       <c r="F60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -1795,7 +1795,7 @@
         <v>6</v>
       </c>
       <c r="F61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <v>1</v>
@@ -1818,10 +1818,10 @@
         <v>6</v>
       </c>
       <c r="F62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G62">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1841,10 +1841,10 @@
         <v>3</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G63">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1864,10 +1864,10 @@
         <v>2</v>
       </c>
       <c r="F64">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G64">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -1887,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="F65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G65">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -1910,10 +1910,10 @@
         <v>1</v>
       </c>
       <c r="F66">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G66">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1933,10 +1933,10 @@
         <v>4</v>
       </c>
       <c r="F67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G67">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="G68">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -1979,7 +1979,7 @@
         <v>3</v>
       </c>
       <c r="F69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G69">
         <v>8</v>
@@ -2002,10 +2002,10 @@
         <v>3</v>
       </c>
       <c r="F70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G70">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2025,10 +2025,10 @@
         <v>2</v>
       </c>
       <c r="F71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2048,7 +2048,7 @@
         <v>4</v>
       </c>
       <c r="F72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G72">
         <v>1</v>
@@ -2071,10 +2071,10 @@
         <v>2</v>
       </c>
       <c r="F73">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2094,10 +2094,10 @@
         <v>5</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2117,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G75">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2140,10 +2140,10 @@
         <v>3</v>
       </c>
       <c r="F76">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2163,7 +2163,7 @@
         <v>6</v>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -2186,10 +2186,10 @@
         <v>4</v>
       </c>
       <c r="F78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G78">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2209,10 +2209,10 @@
         <v>2</v>
       </c>
       <c r="F79">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G79">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -2232,10 +2232,10 @@
         <v>6</v>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2255,7 +2255,7 @@
         <v>3</v>
       </c>
       <c r="F81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2278,10 +2278,10 @@
         <v>6</v>
       </c>
       <c r="F82">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G82">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2301,10 +2301,10 @@
         <v>4</v>
       </c>
       <c r="F83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2324,10 +2324,10 @@
         <v>2</v>
       </c>
       <c r="F84">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G84">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2347,10 +2347,10 @@
         <v>1</v>
       </c>
       <c r="F85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G85">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2370,10 +2370,10 @@
         <v>5</v>
       </c>
       <c r="F86">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G86">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -2393,10 +2393,10 @@
         <v>1</v>
       </c>
       <c r="F87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G87">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -2416,10 +2416,10 @@
         <v>1</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2439,7 +2439,7 @@
         <v>3</v>
       </c>
       <c r="F89">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G89">
         <v>4</v>
@@ -2462,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="F90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G90">
         <v>4</v>
@@ -2485,7 +2485,7 @@
         <v>6</v>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -2508,10 +2508,10 @@
         <v>4</v>
       </c>
       <c r="F92">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G92">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="F93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G93">
         <v>4</v>
@@ -2554,7 +2554,7 @@
         <v>3</v>
       </c>
       <c r="F94">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G94">
         <v>2</v>
@@ -2577,10 +2577,10 @@
         <v>4</v>
       </c>
       <c r="F95">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G95">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2600,10 +2600,10 @@
         <v>6</v>
       </c>
       <c r="F96">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G96">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2623,7 +2623,7 @@
         <v>2</v>
       </c>
       <c r="F97">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G97">
         <v>4</v>
@@ -2646,10 +2646,10 @@
         <v>4</v>
       </c>
       <c r="F98">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2669,10 +2669,10 @@
         <v>4</v>
       </c>
       <c r="F99">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G99">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -2692,10 +2692,10 @@
         <v>1</v>
       </c>
       <c r="F100">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2715,10 +2715,10 @@
         <v>2</v>
       </c>
       <c r="F101">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G101">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2738,7 +2738,7 @@
         <v>2</v>
       </c>
       <c r="F102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G102">
         <v>8</v>
@@ -2761,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="F103">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G103">
         <v>1</v>
@@ -2784,10 +2784,10 @@
         <v>4</v>
       </c>
       <c r="F104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -2807,10 +2807,10 @@
         <v>5</v>
       </c>
       <c r="F105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -2830,7 +2830,7 @@
         <v>5</v>
       </c>
       <c r="F106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G106">
         <v>1</v>
@@ -2853,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="F107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G107">
         <v>1</v>
@@ -2876,10 +2876,10 @@
         <v>2</v>
       </c>
       <c r="F108">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G108">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2899,10 +2899,10 @@
         <v>5</v>
       </c>
       <c r="F109">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G109">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2922,7 +2922,7 @@
         <v>3</v>
       </c>
       <c r="F110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G110">
         <v>4</v>
@@ -2945,10 +2945,10 @@
         <v>2</v>
       </c>
       <c r="F111">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G111">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -2968,10 +2968,10 @@
         <v>4</v>
       </c>
       <c r="F112">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G112">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -2991,10 +2991,10 @@
         <v>5</v>
       </c>
       <c r="F113">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G113">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3014,7 +3014,7 @@
         <v>2</v>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G114">
         <v>1</v>
@@ -3037,10 +3037,10 @@
         <v>2</v>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3060,10 +3060,10 @@
         <v>3</v>
       </c>
       <c r="F116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3083,10 +3083,10 @@
         <v>4</v>
       </c>
       <c r="F117">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3106,7 +3106,7 @@
         <v>4</v>
       </c>
       <c r="F118">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G118">
         <v>4</v>
@@ -3129,7 +3129,7 @@
         <v>3</v>
       </c>
       <c r="F119">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G119">
         <v>4</v>
@@ -3152,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="F120">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G120">
         <v>4</v>
@@ -3175,10 +3175,10 @@
         <v>3</v>
       </c>
       <c r="F121">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G121">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3198,7 +3198,7 @@
         <v>4</v>
       </c>
       <c r="F122">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G122">
         <v>1</v>
@@ -3221,10 +3221,10 @@
         <v>6</v>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G123">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -3244,10 +3244,10 @@
         <v>4</v>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -3267,10 +3267,10 @@
         <v>3</v>
       </c>
       <c r="F125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -3290,7 +3290,7 @@
         <v>4</v>
       </c>
       <c r="F126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G126">
         <v>4</v>
@@ -3313,10 +3313,10 @@
         <v>4</v>
       </c>
       <c r="F127">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G127">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3336,7 +3336,7 @@
         <v>2</v>
       </c>
       <c r="F128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G128">
         <v>1</v>
@@ -3359,10 +3359,10 @@
         <v>1</v>
       </c>
       <c r="F129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G129">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3382,10 +3382,10 @@
         <v>2</v>
       </c>
       <c r="F130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3405,10 +3405,10 @@
         <v>5</v>
       </c>
       <c r="F131">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G131">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -3428,10 +3428,10 @@
         <v>6</v>
       </c>
       <c r="F132">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G132">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3451,7 +3451,7 @@
         <v>6</v>
       </c>
       <c r="F133">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G133">
         <v>1</v>
@@ -3474,7 +3474,7 @@
         <v>4</v>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G134">
         <v>1</v>
@@ -3497,10 +3497,10 @@
         <v>4</v>
       </c>
       <c r="F135">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3520,10 +3520,10 @@
         <v>6</v>
       </c>
       <c r="F136">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3543,10 +3543,10 @@
         <v>4</v>
       </c>
       <c r="F137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3566,10 +3566,10 @@
         <v>6</v>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -3589,7 +3589,7 @@
         <v>4</v>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G139">
         <v>4</v>
@@ -3612,10 +3612,10 @@
         <v>5</v>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G140">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -3635,10 +3635,10 @@
         <v>3</v>
       </c>
       <c r="F141">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G141">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -3658,10 +3658,10 @@
         <v>6</v>
       </c>
       <c r="F142">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -3681,10 +3681,10 @@
         <v>3</v>
       </c>
       <c r="F143">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G143">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -3704,10 +3704,10 @@
         <v>6</v>
       </c>
       <c r="F144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -3727,10 +3727,10 @@
         <v>5</v>
       </c>
       <c r="F145">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -3750,7 +3750,7 @@
         <v>6</v>
       </c>
       <c r="F146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G146">
         <v>4</v>
@@ -3773,10 +3773,10 @@
         <v>5</v>
       </c>
       <c r="F147">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -3796,7 +3796,7 @@
         <v>2</v>
       </c>
       <c r="F148">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G148">
         <v>1</v>
@@ -3819,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="F149">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G149">
         <v>1</v>
@@ -3842,10 +3842,10 @@
         <v>2</v>
       </c>
       <c r="F150">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G150">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -3865,10 +3865,10 @@
         <v>4</v>
       </c>
       <c r="F151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -3888,10 +3888,10 @@
         <v>4</v>
       </c>
       <c r="F152">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G152">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -3911,10 +3911,10 @@
         <v>6</v>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -3934,10 +3934,10 @@
         <v>6</v>
       </c>
       <c r="F154">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G154">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -3957,10 +3957,10 @@
         <v>6</v>
       </c>
       <c r="F155">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G155">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -3980,10 +3980,10 @@
         <v>5</v>
       </c>
       <c r="F156">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G156">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="F157">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4026,7 +4026,7 @@
         <v>3</v>
       </c>
       <c r="F158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G158">
         <v>2</v>
@@ -4049,10 +4049,10 @@
         <v>4</v>
       </c>
       <c r="F159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G159">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4072,10 +4072,10 @@
         <v>5</v>
       </c>
       <c r="F160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G160">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4095,10 +4095,10 @@
         <v>3</v>
       </c>
       <c r="F161">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G161">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4118,10 +4118,10 @@
         <v>3</v>
       </c>
       <c r="F162">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4141,10 +4141,10 @@
         <v>5</v>
       </c>
       <c r="F163">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G163">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4164,10 +4164,10 @@
         <v>1</v>
       </c>
       <c r="F164">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G164">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4187,10 +4187,10 @@
         <v>3</v>
       </c>
       <c r="F165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G165">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4210,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="F166">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G166">
         <v>2</v>
@@ -4233,10 +4233,10 @@
         <v>2</v>
       </c>
       <c r="F167">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G167">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -4256,10 +4256,10 @@
         <v>6</v>
       </c>
       <c r="F168">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G168">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -4279,7 +4279,7 @@
         <v>6</v>
       </c>
       <c r="F169">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G169">
         <v>1</v>
@@ -4302,10 +4302,10 @@
         <v>5</v>
       </c>
       <c r="F170">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -4325,10 +4325,10 @@
         <v>3</v>
       </c>
       <c r="F171">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G171">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -4348,7 +4348,7 @@
         <v>4</v>
       </c>
       <c r="F172">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G172">
         <v>0</v>
@@ -4371,7 +4371,7 @@
         <v>4</v>
       </c>
       <c r="F173">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G173">
         <v>4</v>
@@ -4394,10 +4394,10 @@
         <v>6</v>
       </c>
       <c r="F174">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G174">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -4417,10 +4417,10 @@
         <v>5</v>
       </c>
       <c r="F175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -4440,7 +4440,7 @@
         <v>6</v>
       </c>
       <c r="F176">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G176">
         <v>1</v>
@@ -4463,10 +4463,10 @@
         <v>2</v>
       </c>
       <c r="F177">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G177">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -4486,10 +4486,10 @@
         <v>5</v>
       </c>
       <c r="F178">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G178">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -4509,10 +4509,10 @@
         <v>6</v>
       </c>
       <c r="F179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G179">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -4532,7 +4532,7 @@
         <v>6</v>
       </c>
       <c r="F180">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G180">
         <v>1</v>
@@ -4555,10 +4555,10 @@
         <v>4</v>
       </c>
       <c r="F181">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G181">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -4578,10 +4578,10 @@
         <v>4</v>
       </c>
       <c r="F182">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -4601,10 +4601,10 @@
         <v>5</v>
       </c>
       <c r="F183">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G183">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -4624,10 +4624,10 @@
         <v>3</v>
       </c>
       <c r="F184">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -4647,10 +4647,10 @@
         <v>4</v>
       </c>
       <c r="F185">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G185">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G186">
         <v>8</v>
@@ -4693,10 +4693,10 @@
         <v>2</v>
       </c>
       <c r="F187">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G187">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -4716,10 +4716,10 @@
         <v>4</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -4739,10 +4739,10 @@
         <v>2</v>
       </c>
       <c r="F189">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G189">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -4762,10 +4762,10 @@
         <v>3</v>
       </c>
       <c r="F190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G190">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -4785,10 +4785,10 @@
         <v>5</v>
       </c>
       <c r="F191">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G191">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -4808,7 +4808,7 @@
         <v>6</v>
       </c>
       <c r="F192">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G192">
         <v>1</v>
@@ -4831,7 +4831,7 @@
         <v>6</v>
       </c>
       <c r="F193">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G193">
         <v>1</v>
@@ -4854,10 +4854,10 @@
         <v>5</v>
       </c>
       <c r="F194">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G194">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -4877,10 +4877,10 @@
         <v>1</v>
       </c>
       <c r="F195">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G195">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -4900,10 +4900,10 @@
         <v>5</v>
       </c>
       <c r="F196">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G196">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="F197">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G197">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -4946,7 +4946,7 @@
         <v>6</v>
       </c>
       <c r="F198">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G198">
         <v>1</v>
@@ -4969,7 +4969,7 @@
         <v>6</v>
       </c>
       <c r="F199">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G199">
         <v>1</v>
@@ -4992,10 +4992,10 @@
         <v>6</v>
       </c>
       <c r="F200">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G200">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5015,10 +5015,10 @@
         <v>3</v>
       </c>
       <c r="F201">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5038,10 +5038,10 @@
         <v>2</v>
       </c>
       <c r="F202">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G202">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5061,10 +5061,10 @@
         <v>4</v>
       </c>
       <c r="F203">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G203">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5084,10 +5084,10 @@
         <v>6</v>
       </c>
       <c r="F204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G204">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5107,10 +5107,10 @@
         <v>3</v>
       </c>
       <c r="F205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G205">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5130,10 +5130,10 @@
         <v>6</v>
       </c>
       <c r="F206">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5153,10 +5153,10 @@
         <v>6</v>
       </c>
       <c r="F207">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G207">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5176,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G208">
         <v>0</v>
@@ -5199,10 +5199,10 @@
         <v>2</v>
       </c>
       <c r="F209">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G209">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -5222,10 +5222,10 @@
         <v>4</v>
       </c>
       <c r="F210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G210">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -5245,10 +5245,10 @@
         <v>3</v>
       </c>
       <c r="F211">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G211">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -5268,10 +5268,10 @@
         <v>5</v>
       </c>
       <c r="F212">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G212">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -5291,10 +5291,10 @@
         <v>5</v>
       </c>
       <c r="F213">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G213">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -5314,10 +5314,10 @@
         <v>2</v>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G214">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -5337,10 +5337,10 @@
         <v>4</v>
       </c>
       <c r="F215">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G215">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -5360,7 +5360,7 @@
         <v>6</v>
       </c>
       <c r="F216">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G216">
         <v>4</v>
@@ -5383,7 +5383,7 @@
         <v>4</v>
       </c>
       <c r="F217">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G217">
         <v>2</v>
@@ -5406,10 +5406,10 @@
         <v>5</v>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G218">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -5429,7 +5429,7 @@
         <v>6</v>
       </c>
       <c r="F219">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G219">
         <v>1</v>
@@ -5452,10 +5452,10 @@
         <v>2</v>
       </c>
       <c r="F220">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G220">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -5475,10 +5475,10 @@
         <v>2</v>
       </c>
       <c r="F221">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G221">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -5498,10 +5498,10 @@
         <v>2</v>
       </c>
       <c r="F222">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G222">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -5521,10 +5521,10 @@
         <v>2</v>
       </c>
       <c r="F223">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G223">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -5544,7 +5544,7 @@
         <v>4</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G224">
         <v>8</v>
@@ -5567,10 +5567,10 @@
         <v>6</v>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G225">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -5590,7 +5590,7 @@
         <v>3</v>
       </c>
       <c r="F226">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G226">
         <v>4</v>
@@ -5613,10 +5613,10 @@
         <v>2</v>
       </c>
       <c r="F227">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G227">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -5636,10 +5636,10 @@
         <v>4</v>
       </c>
       <c r="F228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G228">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -5659,10 +5659,10 @@
         <v>1</v>
       </c>
       <c r="F229">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G229">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -5682,10 +5682,10 @@
         <v>6</v>
       </c>
       <c r="F230">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -5705,7 +5705,7 @@
         <v>3</v>
       </c>
       <c r="F231">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G231">
         <v>8</v>
@@ -5728,7 +5728,7 @@
         <v>2</v>
       </c>
       <c r="F232">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G232">
         <v>1</v>
@@ -5751,10 +5751,10 @@
         <v>2</v>
       </c>
       <c r="F233">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G233">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -5774,10 +5774,10 @@
         <v>3</v>
       </c>
       <c r="F234">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G234">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -5797,10 +5797,10 @@
         <v>4</v>
       </c>
       <c r="F235">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G235">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -5820,7 +5820,7 @@
         <v>4</v>
       </c>
       <c r="F236">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G236">
         <v>1</v>
@@ -5843,10 +5843,10 @@
         <v>5</v>
       </c>
       <c r="F237">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G237">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -5866,10 +5866,10 @@
         <v>4</v>
       </c>
       <c r="F238">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G238">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -5889,10 +5889,10 @@
         <v>1</v>
       </c>
       <c r="F239">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -5912,10 +5912,10 @@
         <v>6</v>
       </c>
       <c r="F240">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G240">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -5935,7 +5935,7 @@
         <v>2</v>
       </c>
       <c r="F241">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G241">
         <v>4</v>
@@ -5958,10 +5958,10 @@
         <v>4</v>
       </c>
       <c r="F242">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G242">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -5981,7 +5981,7 @@
         <v>2</v>
       </c>
       <c r="F243">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G243">
         <v>1</v>
@@ -6004,7 +6004,7 @@
         <v>4</v>
       </c>
       <c r="F244">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G244">
         <v>4</v>
@@ -6027,10 +6027,10 @@
         <v>5</v>
       </c>
       <c r="F245">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G245">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6050,10 +6050,10 @@
         <v>6</v>
       </c>
       <c r="F246">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G246">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6073,10 +6073,10 @@
         <v>5</v>
       </c>
       <c r="F247">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G247">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6096,7 +6096,7 @@
         <v>6</v>
       </c>
       <c r="F248">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G248">
         <v>1</v>
@@ -6119,10 +6119,10 @@
         <v>2</v>
       </c>
       <c r="F249">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G249">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6142,10 +6142,10 @@
         <v>5</v>
       </c>
       <c r="F250">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G250">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6165,7 +6165,7 @@
         <v>6</v>
       </c>
       <c r="F251">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G251">
         <v>1</v>
@@ -6188,10 +6188,10 @@
         <v>5</v>
       </c>
       <c r="F252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G252">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253" spans="1:7">
@@ -6211,10 +6211,10 @@
         <v>4</v>
       </c>
       <c r="F253">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G253">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:7">
@@ -6234,10 +6234,10 @@
         <v>5</v>
       </c>
       <c r="F254">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G254">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:7">
@@ -6257,7 +6257,7 @@
         <v>5</v>
       </c>
       <c r="F255">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G255">
         <v>1</v>
@@ -6280,10 +6280,10 @@
         <v>3</v>
       </c>
       <c r="F256">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G256">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:7">
@@ -6303,10 +6303,10 @@
         <v>6</v>
       </c>
       <c r="F257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G257">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="258" spans="1:7">
@@ -6326,10 +6326,10 @@
         <v>4</v>
       </c>
       <c r="F258">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G258">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:7">
@@ -6349,7 +6349,7 @@
         <v>2</v>
       </c>
       <c r="F259">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G259">
         <v>4</v>
@@ -6372,10 +6372,10 @@
         <v>6</v>
       </c>
       <c r="F260">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G260">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261" spans="1:7">
@@ -6395,10 +6395,10 @@
         <v>3</v>
       </c>
       <c r="F261">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G261">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="262" spans="1:7">
@@ -6418,10 +6418,10 @@
         <v>2</v>
       </c>
       <c r="F262">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G262">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="263" spans="1:7">
@@ -6441,10 +6441,10 @@
         <v>6</v>
       </c>
       <c r="F263">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G263">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="264" spans="1:7">
@@ -6464,10 +6464,10 @@
         <v>4</v>
       </c>
       <c r="F264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G264">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265" spans="1:7">
@@ -6487,7 +6487,7 @@
         <v>3</v>
       </c>
       <c r="F265">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G265">
         <v>8</v>
@@ -6510,10 +6510,10 @@
         <v>3</v>
       </c>
       <c r="F266">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G266">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:7">
@@ -6533,10 +6533,10 @@
         <v>6</v>
       </c>
       <c r="F267">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G267">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:7">
@@ -6556,7 +6556,7 @@
         <v>6</v>
       </c>
       <c r="F268">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G268">
         <v>1</v>
@@ -6579,10 +6579,10 @@
         <v>6</v>
       </c>
       <c r="F269">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G269">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="270" spans="1:7">
@@ -6602,10 +6602,10 @@
         <v>6</v>
       </c>
       <c r="F270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G270">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:7">
@@ -6625,10 +6625,10 @@
         <v>4</v>
       </c>
       <c r="F271">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G271">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="272" spans="1:7">
@@ -6648,10 +6648,10 @@
         <v>6</v>
       </c>
       <c r="F272">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G272">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -6671,10 +6671,10 @@
         <v>5</v>
       </c>
       <c r="F273">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G273">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="274" spans="1:7">
@@ -6694,10 +6694,10 @@
         <v>2</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G274">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="275" spans="1:7">
@@ -6717,10 +6717,10 @@
         <v>2</v>
       </c>
       <c r="F275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G275">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="276" spans="1:7">
@@ -6740,10 +6740,10 @@
         <v>6</v>
       </c>
       <c r="F276">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G276">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:7">
@@ -6763,10 +6763,10 @@
         <v>6</v>
       </c>
       <c r="F277">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G277">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="278" spans="1:7">
@@ -6786,10 +6786,10 @@
         <v>2</v>
       </c>
       <c r="F278">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G278">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -6809,10 +6809,10 @@
         <v>5</v>
       </c>
       <c r="F279">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G279">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280" spans="1:7">
@@ -6832,7 +6832,7 @@
         <v>4</v>
       </c>
       <c r="F280">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G280">
         <v>4</v>
@@ -6855,10 +6855,10 @@
         <v>4</v>
       </c>
       <c r="F281">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G281">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="282" spans="1:7">
@@ -6878,10 +6878,10 @@
         <v>2</v>
       </c>
       <c r="F282">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G282">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:7">
@@ -6901,7 +6901,7 @@
         <v>6</v>
       </c>
       <c r="F283">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G283">
         <v>4</v>
@@ -6924,10 +6924,10 @@
         <v>4</v>
       </c>
       <c r="F284">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G284">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -6947,10 +6947,10 @@
         <v>1</v>
       </c>
       <c r="F285">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G285">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -6970,7 +6970,7 @@
         <v>3</v>
       </c>
       <c r="F286">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G286">
         <v>4</v>
@@ -6993,10 +6993,10 @@
         <v>3</v>
       </c>
       <c r="F287">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G287">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="288" spans="1:7">
@@ -7016,10 +7016,10 @@
         <v>6</v>
       </c>
       <c r="F288">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G288">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:7">
@@ -7039,10 +7039,10 @@
         <v>4</v>
       </c>
       <c r="F289">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G289">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="290" spans="1:7">
@@ -7062,7 +7062,7 @@
         <v>6</v>
       </c>
       <c r="F290">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G290">
         <v>1</v>
@@ -7085,10 +7085,10 @@
         <v>2</v>
       </c>
       <c r="F291">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="292" spans="1:7">
@@ -7108,10 +7108,10 @@
         <v>5</v>
       </c>
       <c r="F292">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G292">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="293" spans="1:7">
@@ -7131,10 +7131,10 @@
         <v>4</v>
       </c>
       <c r="F293">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G293">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="294" spans="1:7">
@@ -7154,10 +7154,10 @@
         <v>5</v>
       </c>
       <c r="F294">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G294">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="295" spans="1:7">
@@ -7177,10 +7177,10 @@
         <v>3</v>
       </c>
       <c r="F295">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G295">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:7">
@@ -7200,10 +7200,10 @@
         <v>2</v>
       </c>
       <c r="F296">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G296">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="297" spans="1:7">
@@ -7223,10 +7223,10 @@
         <v>3</v>
       </c>
       <c r="F297">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:7">
@@ -7246,7 +7246,7 @@
         <v>3</v>
       </c>
       <c r="F298">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G298">
         <v>4</v>
@@ -7269,7 +7269,7 @@
         <v>4</v>
       </c>
       <c r="F299">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G299">
         <v>4</v>
@@ -7292,10 +7292,10 @@
         <v>2</v>
       </c>
       <c r="F300">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G300">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="301" spans="1:7">
@@ -7315,10 +7315,10 @@
         <v>5</v>
       </c>
       <c r="F301">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G301">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="302" spans="1:7">
@@ -7338,10 +7338,10 @@
         <v>5</v>
       </c>
       <c r="F302">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G302">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="303" spans="1:7">
@@ -7361,10 +7361,10 @@
         <v>4</v>
       </c>
       <c r="F303">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G303">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="304" spans="1:7">
@@ -7384,10 +7384,10 @@
         <v>6</v>
       </c>
       <c r="F304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G304">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="305" spans="1:7">
@@ -7407,10 +7407,10 @@
         <v>5</v>
       </c>
       <c r="F305">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G305">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="306" spans="1:7">
@@ -7430,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="F306">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G306">
         <v>8</v>
@@ -7453,7 +7453,7 @@
         <v>2</v>
       </c>
       <c r="F307">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G307">
         <v>6</v>
@@ -7476,10 +7476,10 @@
         <v>5</v>
       </c>
       <c r="F308">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G308">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="309" spans="1:7">
@@ -7499,10 +7499,10 @@
         <v>2</v>
       </c>
       <c r="F309">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G309">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:7">
@@ -7522,7 +7522,7 @@
         <v>6</v>
       </c>
       <c r="F310">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G310">
         <v>4</v>
@@ -7545,10 +7545,10 @@
         <v>3</v>
       </c>
       <c r="F311">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G311">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="312" spans="1:7">
@@ -7568,7 +7568,7 @@
         <v>3</v>
       </c>
       <c r="F312">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G312">
         <v>4</v>
@@ -7591,10 +7591,10 @@
         <v>6</v>
       </c>
       <c r="F313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G313">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:7">
@@ -7614,10 +7614,10 @@
         <v>1</v>
       </c>
       <c r="F314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G314">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:7">
@@ -7637,10 +7637,10 @@
         <v>2</v>
       </c>
       <c r="F315">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G315">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:7">
@@ -7660,10 +7660,10 @@
         <v>3</v>
       </c>
       <c r="F316">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G316">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="317" spans="1:7">
@@ -7683,10 +7683,10 @@
         <v>2</v>
       </c>
       <c r="F317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G317">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="318" spans="1:7">
@@ -7706,10 +7706,10 @@
         <v>3</v>
       </c>
       <c r="F318">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G318">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:7">
@@ -7729,7 +7729,7 @@
         <v>2</v>
       </c>
       <c r="F319">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G319">
         <v>1</v>
@@ -7752,10 +7752,10 @@
         <v>5</v>
       </c>
       <c r="F320">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G320">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="321" spans="1:7">
@@ -7775,7 +7775,7 @@
         <v>4</v>
       </c>
       <c r="F321">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G321">
         <v>2</v>
@@ -7798,10 +7798,10 @@
         <v>6</v>
       </c>
       <c r="F322">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G322">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="323" spans="1:7">
@@ -7821,7 +7821,7 @@
         <v>2</v>
       </c>
       <c r="F323">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G323">
         <v>1</v>
@@ -7844,10 +7844,10 @@
         <v>5</v>
       </c>
       <c r="F324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G324">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:7">
@@ -7867,10 +7867,10 @@
         <v>1</v>
       </c>
       <c r="F325">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G325">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="326" spans="1:7">
@@ -7890,10 +7890,10 @@
         <v>4</v>
       </c>
       <c r="F326">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G326">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="327" spans="1:7">
@@ -7913,10 +7913,10 @@
         <v>2</v>
       </c>
       <c r="F327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G327">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="328" spans="1:7">
@@ -7936,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="F328">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G328">
         <v>4</v>
@@ -7959,7 +7959,7 @@
         <v>2</v>
       </c>
       <c r="F329">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G329">
         <v>1</v>
@@ -7982,10 +7982,10 @@
         <v>4</v>
       </c>
       <c r="F330">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G330">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="331" spans="1:7">
@@ -8005,10 +8005,10 @@
         <v>5</v>
       </c>
       <c r="F331">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G331">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="332" spans="1:7">
@@ -8028,10 +8028,10 @@
         <v>6</v>
       </c>
       <c r="F332">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G332">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:7">
@@ -8051,10 +8051,10 @@
         <v>3</v>
       </c>
       <c r="F333">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:7">
@@ -8074,10 +8074,10 @@
         <v>1</v>
       </c>
       <c r="F334">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G334">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:7">
@@ -8097,10 +8097,10 @@
         <v>4</v>
       </c>
       <c r="F335">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G335">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -8120,7 +8120,7 @@
         <v>5</v>
       </c>
       <c r="F336">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G336">
         <v>4</v>
@@ -8143,10 +8143,10 @@
         <v>2</v>
       </c>
       <c r="F337">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G337">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="338" spans="1:7">
@@ -8166,7 +8166,7 @@
         <v>2</v>
       </c>
       <c r="F338">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G338">
         <v>1</v>
@@ -8189,10 +8189,10 @@
         <v>5</v>
       </c>
       <c r="F339">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:7">
@@ -8212,10 +8212,10 @@
         <v>6</v>
       </c>
       <c r="F340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G340">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="341" spans="1:7">
@@ -8235,7 +8235,7 @@
         <v>2</v>
       </c>
       <c r="F341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G341">
         <v>1</v>
@@ -8258,10 +8258,10 @@
         <v>2</v>
       </c>
       <c r="F342">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G342">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:7">
@@ -8281,10 +8281,10 @@
         <v>6</v>
       </c>
       <c r="F343">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G343">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344" spans="1:7">
@@ -8304,7 +8304,7 @@
         <v>3</v>
       </c>
       <c r="F344">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G344">
         <v>8</v>
@@ -8327,7 +8327,7 @@
         <v>5</v>
       </c>
       <c r="F345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G345">
         <v>4</v>
@@ -8350,10 +8350,10 @@
         <v>5</v>
       </c>
       <c r="F346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G346">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="347" spans="1:7">
@@ -8373,10 +8373,10 @@
         <v>6</v>
       </c>
       <c r="F347">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G347">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348" spans="1:7">
@@ -8396,7 +8396,7 @@
         <v>2</v>
       </c>
       <c r="F348">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G348">
         <v>8</v>
@@ -8419,7 +8419,7 @@
         <v>3</v>
       </c>
       <c r="F349">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G349">
         <v>4</v>
@@ -8442,10 +8442,10 @@
         <v>3</v>
       </c>
       <c r="F350">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G350">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="351" spans="1:7">
@@ -8465,7 +8465,7 @@
         <v>6</v>
       </c>
       <c r="F351">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G351">
         <v>0</v>
@@ -8488,10 +8488,10 @@
         <v>3</v>
       </c>
       <c r="F352">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G352">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="353" spans="1:7">
@@ -8511,7 +8511,7 @@
         <v>4</v>
       </c>
       <c r="F353">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G353">
         <v>1</v>
@@ -8534,7 +8534,7 @@
         <v>2</v>
       </c>
       <c r="F354">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G354">
         <v>4</v>
@@ -8557,7 +8557,7 @@
         <v>4</v>
       </c>
       <c r="F355">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G355">
         <v>4</v>
@@ -8580,10 +8580,10 @@
         <v>2</v>
       </c>
       <c r="F356">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G356">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="357" spans="1:7">
@@ -8603,10 +8603,10 @@
         <v>5</v>
       </c>
       <c r="F357">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G357">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="358" spans="1:7">
@@ -8626,10 +8626,10 @@
         <v>3</v>
       </c>
       <c r="F358">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G358">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359" spans="1:7">
@@ -8649,10 +8649,10 @@
         <v>1</v>
       </c>
       <c r="F359">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G359">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:7">
@@ -8672,7 +8672,7 @@
         <v>6</v>
       </c>
       <c r="F360">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G360">
         <v>1</v>
@@ -8695,10 +8695,10 @@
         <v>5</v>
       </c>
       <c r="F361">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:7">
@@ -8718,7 +8718,7 @@
         <v>5</v>
       </c>
       <c r="F362">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G362">
         <v>4</v>
@@ -8741,10 +8741,10 @@
         <v>5</v>
       </c>
       <c r="F363">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G363">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="364" spans="1:7">
@@ -8764,10 +8764,10 @@
         <v>2</v>
       </c>
       <c r="F364">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G364">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="365" spans="1:7">
@@ -8787,10 +8787,10 @@
         <v>4</v>
       </c>
       <c r="F365">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G365">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:7">
@@ -8810,10 +8810,10 @@
         <v>6</v>
       </c>
       <c r="F366">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G366">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="367" spans="1:7">
@@ -8833,10 +8833,10 @@
         <v>4</v>
       </c>
       <c r="F367">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G367">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:7">
@@ -8856,10 +8856,10 @@
         <v>5</v>
       </c>
       <c r="F368">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G368">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="369" spans="1:7">
@@ -8879,7 +8879,7 @@
         <v>3</v>
       </c>
       <c r="F369">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G369">
         <v>8</v>
@@ -8902,7 +8902,7 @@
         <v>6</v>
       </c>
       <c r="F370">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G370">
         <v>1</v>
@@ -8925,7 +8925,7 @@
         <v>6</v>
       </c>
       <c r="F371">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G371">
         <v>1</v>
@@ -8948,10 +8948,10 @@
         <v>1</v>
       </c>
       <c r="F372">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G372">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:7">
@@ -8971,10 +8971,10 @@
         <v>4</v>
       </c>
       <c r="F373">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G373">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="374" spans="1:7">
@@ -8994,10 +8994,10 @@
         <v>2</v>
       </c>
       <c r="F374">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G374">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="375" spans="1:7">
@@ -9017,7 +9017,7 @@
         <v>6</v>
       </c>
       <c r="F375">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G375">
         <v>1</v>
@@ -9040,7 +9040,7 @@
         <v>6</v>
       </c>
       <c r="F376">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G376">
         <v>1</v>
@@ -9063,10 +9063,10 @@
         <v>5</v>
       </c>
       <c r="F377">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G377">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="378" spans="1:7">
@@ -9086,7 +9086,7 @@
         <v>5</v>
       </c>
       <c r="F378">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G378">
         <v>4</v>
@@ -9109,10 +9109,10 @@
         <v>5</v>
       </c>
       <c r="F379">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G379">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="380" spans="1:7">
@@ -9132,7 +9132,7 @@
         <v>3</v>
       </c>
       <c r="F380">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G380">
         <v>4</v>
@@ -9155,10 +9155,10 @@
         <v>5</v>
       </c>
       <c r="F381">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G381">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="382" spans="1:7">
@@ -9178,7 +9178,7 @@
         <v>6</v>
       </c>
       <c r="F382">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G382">
         <v>1</v>
@@ -9201,10 +9201,10 @@
         <v>4</v>
       </c>
       <c r="F383">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G383">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="384" spans="1:7">
@@ -9224,10 +9224,10 @@
         <v>3</v>
       </c>
       <c r="F384">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G384">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:7">
@@ -9247,10 +9247,10 @@
         <v>6</v>
       </c>
       <c r="F385">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G385">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="386" spans="1:7">
@@ -9270,10 +9270,10 @@
         <v>2</v>
       </c>
       <c r="F386">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G386">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="387" spans="1:7">
@@ -9293,10 +9293,10 @@
         <v>2</v>
       </c>
       <c r="F387">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G387">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="388" spans="1:7">
@@ -9316,10 +9316,10 @@
         <v>1</v>
       </c>
       <c r="F388">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:7">
@@ -9339,10 +9339,10 @@
         <v>4</v>
       </c>
       <c r="F389">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G389">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="390" spans="1:7">
@@ -9362,10 +9362,10 @@
         <v>4</v>
       </c>
       <c r="F390">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G390">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391" spans="1:7">
@@ -9385,10 +9385,10 @@
         <v>3</v>
       </c>
       <c r="F391">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G391">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="392" spans="1:7">
@@ -9408,7 +9408,7 @@
         <v>6</v>
       </c>
       <c r="F392">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G392">
         <v>4</v>
@@ -9431,10 +9431,10 @@
         <v>5</v>
       </c>
       <c r="F393">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G393">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="394" spans="1:7">
@@ -9454,7 +9454,7 @@
         <v>4</v>
       </c>
       <c r="F394">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G394">
         <v>4</v>
@@ -9477,10 +9477,10 @@
         <v>5</v>
       </c>
       <c r="F395">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G395">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="396" spans="1:7">
@@ -9500,10 +9500,10 @@
         <v>3</v>
       </c>
       <c r="F396">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:7">
@@ -9523,10 +9523,10 @@
         <v>2</v>
       </c>
       <c r="F397">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G397">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:7">
@@ -9546,7 +9546,7 @@
         <v>4</v>
       </c>
       <c r="F398">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G398">
         <v>1</v>
@@ -9569,7 +9569,7 @@
         <v>1</v>
       </c>
       <c r="F399">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G399">
         <v>1</v>
@@ -9592,7 +9592,7 @@
         <v>3</v>
       </c>
       <c r="F400">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G400">
         <v>2</v>
@@ -9615,10 +9615,10 @@
         <v>5</v>
       </c>
       <c r="F401">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G401">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="402" spans="1:7">
@@ -9638,10 +9638,10 @@
         <v>2</v>
       </c>
       <c r="F402">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G402">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="403" spans="1:7">
@@ -9661,10 +9661,10 @@
         <v>1</v>
       </c>
       <c r="F403">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G403">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:7">
@@ -9684,7 +9684,7 @@
         <v>4</v>
       </c>
       <c r="F404">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G404">
         <v>1</v>
@@ -9707,10 +9707,10 @@
         <v>4</v>
       </c>
       <c r="F405">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G405">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:7">
@@ -9730,10 +9730,10 @@
         <v>1</v>
       </c>
       <c r="F406">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:7">
@@ -9753,10 +9753,10 @@
         <v>5</v>
       </c>
       <c r="F407">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G407">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:7">
@@ -9776,10 +9776,10 @@
         <v>5</v>
       </c>
       <c r="F408">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G408">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="409" spans="1:7">
@@ -9799,10 +9799,10 @@
         <v>5</v>
       </c>
       <c r="F409">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G409">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="410" spans="1:7">
@@ -9822,7 +9822,7 @@
         <v>3</v>
       </c>
       <c r="F410">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G410">
         <v>4</v>
@@ -9845,10 +9845,10 @@
         <v>4</v>
       </c>
       <c r="F411">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G411">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="412" spans="1:7">
@@ -9868,7 +9868,7 @@
         <v>1</v>
       </c>
       <c r="F412">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G412">
         <v>1</v>
@@ -9891,10 +9891,10 @@
         <v>6</v>
       </c>
       <c r="F413">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G413">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:7">
@@ -9914,10 +9914,10 @@
         <v>3</v>
       </c>
       <c r="F414">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:7">
@@ -9937,10 +9937,10 @@
         <v>3</v>
       </c>
       <c r="F415">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G415">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:7">
@@ -9960,7 +9960,7 @@
         <v>3</v>
       </c>
       <c r="F416">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G416">
         <v>8</v>
@@ -9983,10 +9983,10 @@
         <v>5</v>
       </c>
       <c r="F417">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G417">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="418" spans="1:7">
@@ -10006,7 +10006,7 @@
         <v>5</v>
       </c>
       <c r="F418">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G418">
         <v>4</v>
@@ -10029,10 +10029,10 @@
         <v>5</v>
       </c>
       <c r="F419">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G419">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:7">
@@ -10052,10 +10052,10 @@
         <v>3</v>
       </c>
       <c r="F420">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G420">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421" spans="1:7">
@@ -10075,7 +10075,7 @@
         <v>5</v>
       </c>
       <c r="F421">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G421">
         <v>4</v>
@@ -10098,10 +10098,10 @@
         <v>3</v>
       </c>
       <c r="F422">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G422">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="423" spans="1:7">
@@ -10121,10 +10121,10 @@
         <v>5</v>
       </c>
       <c r="F423">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G423">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="424" spans="1:7">
@@ -10144,7 +10144,7 @@
         <v>3</v>
       </c>
       <c r="F424">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G424">
         <v>4</v>
@@ -10167,10 +10167,10 @@
         <v>4</v>
       </c>
       <c r="F425">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G425">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:7">
@@ -10190,7 +10190,7 @@
         <v>6</v>
       </c>
       <c r="F426">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G426">
         <v>4</v>
@@ -10213,10 +10213,10 @@
         <v>6</v>
       </c>
       <c r="F427">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G427">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:7">
@@ -10236,7 +10236,7 @@
         <v>2</v>
       </c>
       <c r="F428">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G428">
         <v>4</v>
@@ -10259,10 +10259,10 @@
         <v>6</v>
       </c>
       <c r="F429">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G429">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="430" spans="1:7">
@@ -10282,10 +10282,10 @@
         <v>3</v>
       </c>
       <c r="F430">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G430">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="431" spans="1:7">
@@ -10305,10 +10305,10 @@
         <v>5</v>
       </c>
       <c r="F431">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G431">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:7">
@@ -10328,7 +10328,7 @@
         <v>6</v>
       </c>
       <c r="F432">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G432">
         <v>1</v>
@@ -10351,7 +10351,7 @@
         <v>3</v>
       </c>
       <c r="F433">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G433">
         <v>8</v>
@@ -10374,7 +10374,7 @@
         <v>4</v>
       </c>
       <c r="F434">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G434">
         <v>4</v>
@@ -10397,10 +10397,10 @@
         <v>3</v>
       </c>
       <c r="F435">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G435">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="436" spans="1:7">
@@ -10420,10 +10420,10 @@
         <v>4</v>
       </c>
       <c r="F436">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G436">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:7">
@@ -10443,10 +10443,10 @@
         <v>3</v>
       </c>
       <c r="F437">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G437">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="438" spans="1:7">
@@ -10466,7 +10466,7 @@
         <v>2</v>
       </c>
       <c r="F438">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G438">
         <v>4</v>
@@ -10489,10 +10489,10 @@
         <v>5</v>
       </c>
       <c r="F439">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G439">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="440" spans="1:7">
@@ -10512,10 +10512,10 @@
         <v>3</v>
       </c>
       <c r="F440">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:7">
@@ -10535,10 +10535,10 @@
         <v>5</v>
       </c>
       <c r="F441">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G441">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="442" spans="1:7">
@@ -10558,7 +10558,7 @@
         <v>3</v>
       </c>
       <c r="F442">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G442">
         <v>4</v>
@@ -10581,10 +10581,10 @@
         <v>5</v>
       </c>
       <c r="F443">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G443">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="444" spans="1:7">
@@ -10604,10 +10604,10 @@
         <v>2</v>
       </c>
       <c r="F444">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G444">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="445" spans="1:7">
@@ -10627,10 +10627,10 @@
         <v>5</v>
       </c>
       <c r="F445">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G445">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="446" spans="1:7">
@@ -10650,10 +10650,10 @@
         <v>2</v>
       </c>
       <c r="F446">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G446">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="447" spans="1:7">
@@ -10673,10 +10673,10 @@
         <v>6</v>
       </c>
       <c r="F447">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G447">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:7">
@@ -10696,7 +10696,7 @@
         <v>5</v>
       </c>
       <c r="F448">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G448">
         <v>1</v>
@@ -10719,10 +10719,10 @@
         <v>6</v>
       </c>
       <c r="F449">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G449">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:7">
@@ -10742,7 +10742,7 @@
         <v>4</v>
       </c>
       <c r="F450">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G450">
         <v>4</v>
@@ -10765,7 +10765,7 @@
         <v>4</v>
       </c>
       <c r="F451">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G451">
         <v>2</v>
@@ -10788,10 +10788,10 @@
         <v>1</v>
       </c>
       <c r="F452">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G452">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:7">
@@ -10811,7 +10811,7 @@
         <v>6</v>
       </c>
       <c r="F453">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G453">
         <v>1</v>
@@ -10834,10 +10834,10 @@
         <v>6</v>
       </c>
       <c r="F454">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G454">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:7">
@@ -10857,10 +10857,10 @@
         <v>2</v>
       </c>
       <c r="F455">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G455">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="456" spans="1:7">
@@ -10880,10 +10880,10 @@
         <v>1</v>
       </c>
       <c r="F456">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G456">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457" spans="1:7">
@@ -10903,10 +10903,10 @@
         <v>4</v>
       </c>
       <c r="F457">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G457">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:7">
@@ -10926,7 +10926,7 @@
         <v>5</v>
       </c>
       <c r="F458">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G458">
         <v>4</v>
@@ -10949,7 +10949,7 @@
         <v>6</v>
       </c>
       <c r="F459">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G459">
         <v>1</v>
@@ -10972,10 +10972,10 @@
         <v>6</v>
       </c>
       <c r="F460">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G460">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="461" spans="1:7">
@@ -10995,10 +10995,10 @@
         <v>2</v>
       </c>
       <c r="F461">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G461">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="462" spans="1:7">
@@ -11018,7 +11018,7 @@
         <v>6</v>
       </c>
       <c r="F462">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G462">
         <v>1</v>
@@ -11041,10 +11041,10 @@
         <v>2</v>
       </c>
       <c r="F463">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G463">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="464" spans="1:7">
@@ -11064,10 +11064,10 @@
         <v>1</v>
       </c>
       <c r="F464">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G464">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:7">
@@ -11087,10 +11087,10 @@
         <v>4</v>
       </c>
       <c r="F465">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G465">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="466" spans="1:7">
@@ -11110,10 +11110,10 @@
         <v>4</v>
       </c>
       <c r="F466">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G466">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="467" spans="1:7">
@@ -11133,10 +11133,10 @@
         <v>2</v>
       </c>
       <c r="F467">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G467">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="468" spans="1:7">
@@ -11156,10 +11156,10 @@
         <v>5</v>
       </c>
       <c r="F468">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G468">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="469" spans="1:7">
@@ -11179,10 +11179,10 @@
         <v>3</v>
       </c>
       <c r="F469">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:7">
@@ -11202,7 +11202,7 @@
         <v>6</v>
       </c>
       <c r="F470">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G470">
         <v>1</v>
@@ -11225,10 +11225,10 @@
         <v>2</v>
       </c>
       <c r="F471">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G471">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="472" spans="1:7">
@@ -11248,10 +11248,10 @@
         <v>5</v>
       </c>
       <c r="F472">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G472">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="473" spans="1:7">
@@ -11271,10 +11271,10 @@
         <v>2</v>
       </c>
       <c r="F473">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G473">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="474" spans="1:7">
@@ -11294,10 +11294,10 @@
         <v>4</v>
       </c>
       <c r="F474">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G474">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:7">
@@ -11317,10 +11317,10 @@
         <v>3</v>
       </c>
       <c r="F475">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:7">
@@ -11340,10 +11340,10 @@
         <v>2</v>
       </c>
       <c r="F476">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G476">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="477" spans="1:7">
@@ -11363,7 +11363,7 @@
         <v>5</v>
       </c>
       <c r="F477">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G477">
         <v>1</v>
@@ -11389,7 +11389,7 @@
         <v>1</v>
       </c>
       <c r="G478">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:7">
@@ -11409,10 +11409,10 @@
         <v>3</v>
       </c>
       <c r="F479">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G479">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:7">
@@ -11432,10 +11432,10 @@
         <v>2</v>
       </c>
       <c r="F480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G480">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="481" spans="1:7">
@@ -11455,7 +11455,7 @@
         <v>5</v>
       </c>
       <c r="F481">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G481">
         <v>8</v>
@@ -11478,10 +11478,10 @@
         <v>3</v>
       </c>
       <c r="F482">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G482">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:7">
@@ -11501,10 +11501,10 @@
         <v>2</v>
       </c>
       <c r="F483">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G483">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="484" spans="1:7">
@@ -11524,10 +11524,10 @@
         <v>5</v>
       </c>
       <c r="F484">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G484">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="485" spans="1:7">
@@ -11547,7 +11547,7 @@
         <v>5</v>
       </c>
       <c r="F485">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G485">
         <v>4</v>
@@ -11570,10 +11570,10 @@
         <v>4</v>
       </c>
       <c r="F486">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G486">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="487" spans="1:7">
@@ -11593,7 +11593,7 @@
         <v>5</v>
       </c>
       <c r="F487">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G487">
         <v>4</v>
@@ -11616,10 +11616,10 @@
         <v>2</v>
       </c>
       <c r="F488">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G488">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="489" spans="1:7">
@@ -11639,10 +11639,10 @@
         <v>4</v>
       </c>
       <c r="F489">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G489">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="490" spans="1:7">
@@ -11662,7 +11662,7 @@
         <v>2</v>
       </c>
       <c r="F490">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G490">
         <v>4</v>
@@ -11685,10 +11685,10 @@
         <v>4</v>
       </c>
       <c r="F491">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G491">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="492" spans="1:7">
@@ -11708,10 +11708,10 @@
         <v>5</v>
       </c>
       <c r="F492">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G492">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="493" spans="1:7">
@@ -11731,7 +11731,7 @@
         <v>6</v>
       </c>
       <c r="F493">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G493">
         <v>1</v>
@@ -11754,10 +11754,10 @@
         <v>3</v>
       </c>
       <c r="F494">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G494">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="495" spans="1:7">
@@ -11777,7 +11777,7 @@
         <v>2</v>
       </c>
       <c r="F495">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G495">
         <v>1</v>
@@ -11800,7 +11800,7 @@
         <v>6</v>
       </c>
       <c r="F496">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G496">
         <v>1</v>
@@ -11823,7 +11823,7 @@
         <v>2</v>
       </c>
       <c r="F497">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G497">
         <v>2</v>
@@ -11846,10 +11846,10 @@
         <v>3</v>
       </c>
       <c r="F498">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G498">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="499" spans="1:7">
@@ -11869,7 +11869,7 @@
         <v>5</v>
       </c>
       <c r="F499">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G499">
         <v>4</v>
@@ -11892,10 +11892,10 @@
         <v>5</v>
       </c>
       <c r="F500">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G500">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="501" spans="1:7">
@@ -11915,10 +11915,10 @@
         <v>2</v>
       </c>
       <c r="F501">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G501">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="502" spans="1:7">
@@ -11938,10 +11938,10 @@
         <v>5</v>
       </c>
       <c r="F502">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G502">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="503" spans="1:7">
@@ -11961,7 +11961,7 @@
         <v>3</v>
       </c>
       <c r="F503">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G503">
         <v>0</v>
@@ -11984,10 +11984,10 @@
         <v>5</v>
       </c>
       <c r="F504">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G504">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="505" spans="1:7">
@@ -12007,10 +12007,10 @@
         <v>5</v>
       </c>
       <c r="F505">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G505">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:7">
@@ -12030,7 +12030,7 @@
         <v>4</v>
       </c>
       <c r="F506">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G506">
         <v>4</v>
@@ -12053,10 +12053,10 @@
         <v>3</v>
       </c>
       <c r="F507">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G507">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="508" spans="1:7">
@@ -12076,10 +12076,10 @@
         <v>3</v>
       </c>
       <c r="F508">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G508">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:7">
@@ -12099,10 +12099,10 @@
         <v>5</v>
       </c>
       <c r="F509">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G509">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="510" spans="1:7">
@@ -12122,10 +12122,10 @@
         <v>4</v>
       </c>
       <c r="F510">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G510">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="511" spans="1:7">
@@ -12145,10 +12145,10 @@
         <v>5</v>
       </c>
       <c r="F511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G511">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="512" spans="1:7">
@@ -12168,10 +12168,10 @@
         <v>2</v>
       </c>
       <c r="F512">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G512">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="513" spans="1:7">
@@ -12191,7 +12191,7 @@
         <v>3</v>
       </c>
       <c r="F513">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G513">
         <v>8</v>
@@ -12214,10 +12214,10 @@
         <v>1</v>
       </c>
       <c r="F514">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G514">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:7">
@@ -12237,10 +12237,10 @@
         <v>2</v>
       </c>
       <c r="F515">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G515">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="516" spans="1:7">
@@ -12260,7 +12260,7 @@
         <v>4</v>
       </c>
       <c r="F516">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G516">
         <v>4</v>
@@ -12283,7 +12283,7 @@
         <v>6</v>
       </c>
       <c r="F517">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G517">
         <v>1</v>
@@ -12306,10 +12306,10 @@
         <v>5</v>
       </c>
       <c r="F518">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G518">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="519" spans="1:7">
@@ -12329,10 +12329,10 @@
         <v>1</v>
       </c>
       <c r="F519">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G519">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="520" spans="1:7">
@@ -12352,7 +12352,7 @@
         <v>5</v>
       </c>
       <c r="F520">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G520">
         <v>1</v>
@@ -12375,10 +12375,10 @@
         <v>1</v>
       </c>
       <c r="F521">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G521">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="522" spans="1:7">
@@ -12398,10 +12398,10 @@
         <v>5</v>
       </c>
       <c r="F522">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G522">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="523" spans="1:7">
@@ -12421,7 +12421,7 @@
         <v>6</v>
       </c>
       <c r="F523">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G523">
         <v>1</v>
@@ -12444,10 +12444,10 @@
         <v>2</v>
       </c>
       <c r="F524">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G524">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="525" spans="1:7">
@@ -12467,10 +12467,10 @@
         <v>4</v>
       </c>
       <c r="F525">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G525">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:7">
@@ -12490,10 +12490,10 @@
         <v>1</v>
       </c>
       <c r="F526">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G526">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:7">
@@ -12513,10 +12513,10 @@
         <v>3</v>
       </c>
       <c r="F527">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G527">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="528" spans="1:7">
@@ -12536,10 +12536,10 @@
         <v>2</v>
       </c>
       <c r="F528">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G528">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="529" spans="1:7">
@@ -12559,10 +12559,10 @@
         <v>2</v>
       </c>
       <c r="F529">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G529">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="530" spans="1:7">
@@ -12582,10 +12582,10 @@
         <v>6</v>
       </c>
       <c r="F530">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G530">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:7">
@@ -12605,10 +12605,10 @@
         <v>4</v>
       </c>
       <c r="F531">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G531">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="532" spans="1:7">
@@ -12628,10 +12628,10 @@
         <v>3</v>
       </c>
       <c r="F532">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G532">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="533" spans="1:7">
@@ -12651,10 +12651,10 @@
         <v>6</v>
       </c>
       <c r="F533">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G533">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="534" spans="1:7">
@@ -12674,7 +12674,7 @@
         <v>6</v>
       </c>
       <c r="F534">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G534">
         <v>1</v>
@@ -12697,7 +12697,7 @@
         <v>3</v>
       </c>
       <c r="F535">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G535">
         <v>4</v>
@@ -12720,10 +12720,10 @@
         <v>3</v>
       </c>
       <c r="F536">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:7">
@@ -12743,7 +12743,7 @@
         <v>5</v>
       </c>
       <c r="F537">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G537">
         <v>1</v>
@@ -12766,10 +12766,10 @@
         <v>5</v>
       </c>
       <c r="F538">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G538">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:7">
@@ -12789,7 +12789,7 @@
         <v>3</v>
       </c>
       <c r="F539">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G539">
         <v>0</v>
@@ -12812,10 +12812,10 @@
         <v>4</v>
       </c>
       <c r="F540">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G540">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:7">
@@ -12835,7 +12835,7 @@
         <v>3</v>
       </c>
       <c r="F541">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G541">
         <v>4</v>
@@ -12858,7 +12858,7 @@
         <v>4</v>
       </c>
       <c r="F542">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G542">
         <v>4</v>
@@ -12881,10 +12881,10 @@
         <v>5</v>
       </c>
       <c r="F543">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G543">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="544" spans="1:7">
@@ -12904,10 +12904,10 @@
         <v>3</v>
       </c>
       <c r="F544">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G544">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:7">
@@ -12927,7 +12927,7 @@
         <v>6</v>
       </c>
       <c r="F545">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G545">
         <v>1</v>
@@ -12950,10 +12950,10 @@
         <v>6</v>
       </c>
       <c r="F546">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G546">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:7">
@@ -12973,7 +12973,7 @@
         <v>5</v>
       </c>
       <c r="F547">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G547">
         <v>4</v>
@@ -12996,10 +12996,10 @@
         <v>2</v>
       </c>
       <c r="F548">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G548">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="549" spans="1:7">
@@ -13019,7 +13019,7 @@
         <v>4</v>
       </c>
       <c r="F549">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G549">
         <v>4</v>
@@ -13042,10 +13042,10 @@
         <v>2</v>
       </c>
       <c r="F550">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G550">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="551" spans="1:7">
@@ -13065,10 +13065,10 @@
         <v>5</v>
       </c>
       <c r="F551">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G551">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="552" spans="1:7">
@@ -13088,10 +13088,10 @@
         <v>5</v>
       </c>
       <c r="F552">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G552">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="553" spans="1:7">
@@ -13111,10 +13111,10 @@
         <v>3</v>
       </c>
       <c r="F553">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G553">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:7">
@@ -13134,10 +13134,10 @@
         <v>5</v>
       </c>
       <c r="F554">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G554">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="555" spans="1:7">
@@ -13157,10 +13157,10 @@
         <v>4</v>
       </c>
       <c r="F555">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G555">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:7">
@@ -13180,7 +13180,7 @@
         <v>5</v>
       </c>
       <c r="F556">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G556">
         <v>4</v>
@@ -13203,10 +13203,10 @@
         <v>4</v>
       </c>
       <c r="F557">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G557">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:7">
@@ -13226,10 +13226,10 @@
         <v>2</v>
       </c>
       <c r="F558">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G558">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559" spans="1:7">
@@ -13249,10 +13249,10 @@
         <v>1</v>
       </c>
       <c r="F559">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G559">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="560" spans="1:7">
@@ -13272,7 +13272,7 @@
         <v>2</v>
       </c>
       <c r="F560">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G560">
         <v>2</v>
@@ -13295,7 +13295,7 @@
         <v>2</v>
       </c>
       <c r="F561">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G561">
         <v>2</v>
@@ -13318,10 +13318,10 @@
         <v>2</v>
       </c>
       <c r="F562">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G562">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="563" spans="1:7">
@@ -13341,7 +13341,7 @@
         <v>2</v>
       </c>
       <c r="F563">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G563">
         <v>1</v>
@@ -13364,7 +13364,7 @@
         <v>5</v>
       </c>
       <c r="F564">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G564">
         <v>4</v>
@@ -13387,7 +13387,7 @@
         <v>4</v>
       </c>
       <c r="F565">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G565">
         <v>4</v>
@@ -13410,7 +13410,7 @@
         <v>2</v>
       </c>
       <c r="F566">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G566">
         <v>2</v>
@@ -13433,10 +13433,10 @@
         <v>2</v>
       </c>
       <c r="F567">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G567">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="568" spans="1:7">
@@ -13456,10 +13456,10 @@
         <v>1</v>
       </c>
       <c r="F568">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G568">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:7">
@@ -13479,10 +13479,10 @@
         <v>2</v>
       </c>
       <c r="F569">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G569">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="570" spans="1:7">
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="F570">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G570">
         <v>0</v>
@@ -13525,10 +13525,10 @@
         <v>1</v>
       </c>
       <c r="F571">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G571">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:7">
@@ -13548,10 +13548,10 @@
         <v>1</v>
       </c>
       <c r="F572">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:7">
@@ -13571,10 +13571,10 @@
         <v>1</v>
       </c>
       <c r="F573">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G573">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:7">
@@ -13594,10 +13594,10 @@
         <v>2</v>
       </c>
       <c r="F574">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G574">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="575" spans="1:7">
@@ -13620,7 +13620,7 @@
         <v>1</v>
       </c>
       <c r="G575">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:7">
@@ -13640,10 +13640,10 @@
         <v>1</v>
       </c>
       <c r="F576">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G576">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:7">
@@ -13663,7 +13663,7 @@
         <v>2</v>
       </c>
       <c r="F577">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G577">
         <v>2</v>
@@ -13686,7 +13686,7 @@
         <v>2</v>
       </c>
       <c r="F578">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G578">
         <v>2</v>
@@ -13709,10 +13709,10 @@
         <v>1</v>
       </c>
       <c r="F579">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G579">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:7">
@@ -13732,10 +13732,10 @@
         <v>2</v>
       </c>
       <c r="F580">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G580">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="581" spans="1:7">
@@ -13755,7 +13755,7 @@
         <v>3</v>
       </c>
       <c r="F581">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G581">
         <v>0</v>
@@ -13778,10 +13778,10 @@
         <v>1</v>
       </c>
       <c r="F582">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G582">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:7">
@@ -13801,10 +13801,10 @@
         <v>1</v>
       </c>
       <c r="F583">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G583">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:7">
@@ -13824,7 +13824,7 @@
         <v>1</v>
       </c>
       <c r="F584">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G584">
         <v>0</v>
@@ -13847,10 +13847,10 @@
         <v>2</v>
       </c>
       <c r="F585">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G585">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="586" spans="1:7">
@@ -13873,7 +13873,7 @@
         <v>1</v>
       </c>
       <c r="G586">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:7">
@@ -13893,10 +13893,10 @@
         <v>2</v>
       </c>
       <c r="F587">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G587">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="588" spans="1:7">
@@ -13916,10 +13916,10 @@
         <v>2</v>
       </c>
       <c r="F588">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G588">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="589" spans="1:7">
@@ -13939,10 +13939,10 @@
         <v>2</v>
       </c>
       <c r="F589">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G589">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="590" spans="1:7">
@@ -13962,10 +13962,10 @@
         <v>1</v>
       </c>
       <c r="F590">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G590">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:7">
@@ -13985,10 +13985,10 @@
         <v>1</v>
       </c>
       <c r="F591">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G591">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:7">
@@ -14008,10 +14008,10 @@
         <v>1</v>
       </c>
       <c r="F592">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G592">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:7">
@@ -14031,10 +14031,10 @@
         <v>1</v>
       </c>
       <c r="F593">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G593">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:7">
@@ -14057,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="G594">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:7">
@@ -14077,7 +14077,7 @@
         <v>2</v>
       </c>
       <c r="F595">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G595">
         <v>0</v>
@@ -14100,10 +14100,10 @@
         <v>3</v>
       </c>
       <c r="F596">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G596">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:7">
@@ -14123,10 +14123,10 @@
         <v>2</v>
       </c>
       <c r="F597">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G597">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="598" spans="1:7">
@@ -14149,7 +14149,7 @@
         <v>1</v>
       </c>
       <c r="G598">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:7">
@@ -14172,7 +14172,7 @@
         <v>1</v>
       </c>
       <c r="G599">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="600" spans="1:7">
@@ -14192,10 +14192,10 @@
         <v>2</v>
       </c>
       <c r="F600">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G600">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:7">
@@ -14218,7 +14218,7 @@
         <v>1</v>
       </c>
       <c r="G601">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602" spans="1:7">
@@ -14238,10 +14238,10 @@
         <v>1</v>
       </c>
       <c r="F602">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:7">
@@ -14261,7 +14261,7 @@
         <v>2</v>
       </c>
       <c r="F603">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G603">
         <v>2</v>
@@ -14284,10 +14284,10 @@
         <v>2</v>
       </c>
       <c r="F604">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G604">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="605" spans="1:7">
@@ -14307,10 +14307,10 @@
         <v>1</v>
       </c>
       <c r="F605">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G605">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="606" spans="1:7">
@@ -14330,10 +14330,10 @@
         <v>2</v>
       </c>
       <c r="F606">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G606">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="607" spans="1:7">
@@ -14353,10 +14353,10 @@
         <v>2</v>
       </c>
       <c r="F607">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G607">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="608" spans="1:7">
@@ -14376,10 +14376,10 @@
         <v>1</v>
       </c>
       <c r="F608">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G608">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:7">
@@ -14399,10 +14399,10 @@
         <v>2</v>
       </c>
       <c r="F609">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G609">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="610" spans="1:7">
@@ -14422,10 +14422,10 @@
         <v>2</v>
       </c>
       <c r="F610">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G610">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="611" spans="1:7">
@@ -14445,10 +14445,10 @@
         <v>3</v>
       </c>
       <c r="F611">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G611">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="612" spans="1:7">
@@ -14468,10 +14468,10 @@
         <v>1</v>
       </c>
       <c r="F612">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G612">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="613" spans="1:7">
@@ -14491,10 +14491,10 @@
         <v>2</v>
       </c>
       <c r="F613">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G613">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="614" spans="1:7">
@@ -14514,10 +14514,10 @@
         <v>1</v>
       </c>
       <c r="F614">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G614">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:7">
@@ -14537,10 +14537,10 @@
         <v>2</v>
       </c>
       <c r="F615">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G615">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="616" spans="1:7">
@@ -14560,10 +14560,10 @@
         <v>6</v>
       </c>
       <c r="F616">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G616">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:7">
@@ -14583,10 +14583,10 @@
         <v>2</v>
       </c>
       <c r="F617">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G617">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="618" spans="1:7">
@@ -14606,10 +14606,10 @@
         <v>2</v>
       </c>
       <c r="F618">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G618">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="619" spans="1:7">
@@ -14629,7 +14629,7 @@
         <v>1</v>
       </c>
       <c r="F619">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G619">
         <v>0</v>
@@ -14652,7 +14652,7 @@
         <v>3</v>
       </c>
       <c r="F620">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G620">
         <v>2</v>
@@ -14675,7 +14675,7 @@
         <v>4</v>
       </c>
       <c r="F621">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G621">
         <v>4</v>
@@ -14698,10 +14698,10 @@
         <v>4</v>
       </c>
       <c r="F622">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G622">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="623" spans="1:7">
@@ -14721,10 +14721,10 @@
         <v>2</v>
       </c>
       <c r="F623">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G623">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="624" spans="1:7">
@@ -14744,7 +14744,7 @@
         <v>2</v>
       </c>
       <c r="F624">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G624">
         <v>2</v>
@@ -14767,7 +14767,7 @@
         <v>3</v>
       </c>
       <c r="F625">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G625">
         <v>8</v>
@@ -14790,10 +14790,10 @@
         <v>2</v>
       </c>
       <c r="F626">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G626">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="627" spans="1:7">
@@ -14813,10 +14813,10 @@
         <v>1</v>
       </c>
       <c r="F627">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G627">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="628" spans="1:7">
@@ -14836,7 +14836,7 @@
         <v>3</v>
       </c>
       <c r="F628">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G628">
         <v>1</v>
@@ -14859,10 +14859,10 @@
         <v>1</v>
       </c>
       <c r="F629">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G629">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="630" spans="1:7">
@@ -14882,10 +14882,10 @@
         <v>5</v>
       </c>
       <c r="F630">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G630">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="631" spans="1:7">
@@ -14905,10 +14905,10 @@
         <v>3</v>
       </c>
       <c r="F631">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G631">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="632" spans="1:7">
@@ -14928,10 +14928,10 @@
         <v>1</v>
       </c>
       <c r="F632">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G632">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:7">
@@ -14951,7 +14951,7 @@
         <v>2</v>
       </c>
       <c r="F633">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G633">
         <v>2</v>
@@ -14974,10 +14974,10 @@
         <v>2</v>
       </c>
       <c r="F634">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G634">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="635" spans="1:7">
@@ -15000,7 +15000,7 @@
         <v>1</v>
       </c>
       <c r="G635">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:7">
@@ -15020,10 +15020,10 @@
         <v>2</v>
       </c>
       <c r="F636">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G636">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="637" spans="1:7">
@@ -15043,10 +15043,10 @@
         <v>3</v>
       </c>
       <c r="F637">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G637">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="638" spans="1:7">
@@ -15066,10 +15066,10 @@
         <v>1</v>
       </c>
       <c r="F638">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G638">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:7">
@@ -15089,10 +15089,10 @@
         <v>1</v>
       </c>
       <c r="F639">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G639">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="640" spans="1:7">
@@ -15112,10 +15112,10 @@
         <v>2</v>
       </c>
       <c r="F640">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G640">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="641" spans="1:7">
@@ -15135,10 +15135,10 @@
         <v>2</v>
       </c>
       <c r="F641">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G641">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="642" spans="1:7">
@@ -15158,10 +15158,10 @@
         <v>2</v>
       </c>
       <c r="F642">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G642">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:7">
@@ -15181,10 +15181,10 @@
         <v>1</v>
       </c>
       <c r="F643">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G643">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="644" spans="1:7">
@@ -15207,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="G644">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645" spans="1:7">
@@ -15227,10 +15227,10 @@
         <v>2</v>
       </c>
       <c r="F645">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G645">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="646" spans="1:7">
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="G646">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647" spans="1:7">
@@ -15273,10 +15273,10 @@
         <v>1</v>
       </c>
       <c r="F647">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G647">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648" spans="1:7">
@@ -15296,10 +15296,10 @@
         <v>2</v>
       </c>
       <c r="F648">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G648">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="649" spans="1:7">
@@ -15319,7 +15319,7 @@
         <v>2</v>
       </c>
       <c r="F649">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G649">
         <v>2</v>
@@ -15342,10 +15342,10 @@
         <v>3</v>
       </c>
       <c r="F650">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G650">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="651" spans="1:7">
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="G651">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652" spans="1:7">
@@ -15388,10 +15388,10 @@
         <v>1</v>
       </c>
       <c r="F652">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G652">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:7">
@@ -15411,10 +15411,10 @@
         <v>2</v>
       </c>
       <c r="F653">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G653">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="654" spans="1:7">
@@ -15434,10 +15434,10 @@
         <v>1</v>
       </c>
       <c r="F654">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G654">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:7">
@@ -15457,10 +15457,10 @@
         <v>2</v>
       </c>
       <c r="F655">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G655">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="656" spans="1:7">
@@ -15480,10 +15480,10 @@
         <v>1</v>
       </c>
       <c r="F656">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G656">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="657" spans="1:7">
@@ -15503,7 +15503,7 @@
         <v>1</v>
       </c>
       <c r="F657">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G657">
         <v>4</v>
@@ -15526,10 +15526,10 @@
         <v>3</v>
       </c>
       <c r="F658">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:7">
@@ -15549,10 +15549,10 @@
         <v>2</v>
       </c>
       <c r="F659">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G659">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="660" spans="1:7">
@@ -15572,10 +15572,10 @@
         <v>2</v>
       </c>
       <c r="F660">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G660">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="661" spans="1:7">
@@ -15595,10 +15595,10 @@
         <v>1</v>
       </c>
       <c r="F661">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G661">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="662" spans="1:7">
@@ -15618,7 +15618,7 @@
         <v>2</v>
       </c>
       <c r="F662">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G662">
         <v>2</v>
@@ -15641,10 +15641,10 @@
         <v>1</v>
       </c>
       <c r="F663">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G663">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="664" spans="1:7">
@@ -15664,10 +15664,10 @@
         <v>2</v>
       </c>
       <c r="F664">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G664">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="665" spans="1:7">
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
       <c r="G665">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="666" spans="1:7">
@@ -15710,10 +15710,10 @@
         <v>1</v>
       </c>
       <c r="F666">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G666">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="667" spans="1:7">
@@ -15733,10 +15733,10 @@
         <v>2</v>
       </c>
       <c r="F667">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G667">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="668" spans="1:7">
@@ -15756,10 +15756,10 @@
         <v>2</v>
       </c>
       <c r="F668">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G668">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="669" spans="1:7">
@@ -15779,7 +15779,7 @@
         <v>2</v>
       </c>
       <c r="F669">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G669">
         <v>2</v>
@@ -15802,7 +15802,7 @@
         <v>1</v>
       </c>
       <c r="F670">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G670">
         <v>0</v>
@@ -15828,7 +15828,7 @@
         <v>1</v>
       </c>
       <c r="G671">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:7">
@@ -15848,10 +15848,10 @@
         <v>1</v>
       </c>
       <c r="F672">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G672">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="673" spans="1:7">
@@ -15871,10 +15871,10 @@
         <v>2</v>
       </c>
       <c r="F673">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G673">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="674" spans="1:7">
@@ -15894,7 +15894,7 @@
         <v>2</v>
       </c>
       <c r="F674">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G674">
         <v>2</v>
@@ -15920,7 +15920,7 @@
         <v>1</v>
       </c>
       <c r="G675">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676" spans="1:7">
@@ -15940,10 +15940,10 @@
         <v>1</v>
       </c>
       <c r="F676">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:7">
@@ -15963,10 +15963,10 @@
         <v>2</v>
       </c>
       <c r="F677">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G677">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="678" spans="1:7">
@@ -15986,10 +15986,10 @@
         <v>2</v>
       </c>
       <c r="F678">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:7">
@@ -16009,7 +16009,7 @@
         <v>1</v>
       </c>
       <c r="F679">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G679">
         <v>0</v>
@@ -16032,7 +16032,7 @@
         <v>2</v>
       </c>
       <c r="F680">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G680">
         <v>2</v>
@@ -16055,10 +16055,10 @@
         <v>3</v>
       </c>
       <c r="F681">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:7">
@@ -16078,7 +16078,7 @@
         <v>4</v>
       </c>
       <c r="F682">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G682">
         <v>4</v>
@@ -16101,10 +16101,10 @@
         <v>2</v>
       </c>
       <c r="F683">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G683">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="684" spans="1:7">
@@ -16124,10 +16124,10 @@
         <v>2</v>
       </c>
       <c r="F684">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G684">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="685" spans="1:7">
@@ -16170,7 +16170,7 @@
         <v>1</v>
       </c>
       <c r="F686">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G686">
         <v>0</v>
@@ -16193,10 +16193,10 @@
         <v>2</v>
       </c>
       <c r="F687">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G687">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="688" spans="1:7">
@@ -16219,7 +16219,7 @@
         <v>1</v>
       </c>
       <c r="G688">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="689" spans="1:7">
@@ -16239,10 +16239,10 @@
         <v>4</v>
       </c>
       <c r="F689">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G689">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="690" spans="1:7">
@@ -16262,7 +16262,7 @@
         <v>2</v>
       </c>
       <c r="F690">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G690">
         <v>1</v>
@@ -16285,7 +16285,7 @@
         <v>3</v>
       </c>
       <c r="F691">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G691">
         <v>0</v>
@@ -16311,7 +16311,7 @@
         <v>1</v>
       </c>
       <c r="G692">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:7">
@@ -16331,7 +16331,7 @@
         <v>3</v>
       </c>
       <c r="F693">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G693">
         <v>2</v>
@@ -16354,10 +16354,10 @@
         <v>2</v>
       </c>
       <c r="F694">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G694">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="695" spans="1:7">
@@ -16377,10 +16377,10 @@
         <v>2</v>
       </c>
       <c r="F695">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G695">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="696" spans="1:7">
@@ -16400,7 +16400,7 @@
         <v>2</v>
       </c>
       <c r="F696">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G696">
         <v>2</v>
@@ -16423,7 +16423,7 @@
         <v>5</v>
       </c>
       <c r="F697">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G697">
         <v>4</v>
@@ -16446,7 +16446,7 @@
         <v>2</v>
       </c>
       <c r="F698">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G698">
         <v>4</v>
@@ -16469,10 +16469,10 @@
         <v>3</v>
       </c>
       <c r="F699">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G699">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="700" spans="1:7">
@@ -16492,10 +16492,10 @@
         <v>2</v>
       </c>
       <c r="F700">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G700">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="701" spans="1:7">
@@ -16515,7 +16515,7 @@
         <v>4</v>
       </c>
       <c r="F701">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G701">
         <v>1</v>
@@ -16538,10 +16538,10 @@
         <v>1</v>
       </c>
       <c r="F702">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G702">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="703" spans="1:7">
@@ -16561,10 +16561,10 @@
         <v>1</v>
       </c>
       <c r="F703">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G703">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:7">
@@ -16584,10 +16584,10 @@
         <v>3</v>
       </c>
       <c r="F704">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:7">
@@ -16607,7 +16607,7 @@
         <v>2</v>
       </c>
       <c r="F705">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G705">
         <v>1</v>
@@ -16630,7 +16630,7 @@
         <v>3</v>
       </c>
       <c r="F706">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G706">
         <v>2</v>
@@ -16653,10 +16653,10 @@
         <v>1</v>
       </c>
       <c r="F707">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G707">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="708" spans="1:7">
@@ -16676,10 +16676,10 @@
         <v>1</v>
       </c>
       <c r="F708">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G708">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:7">
@@ -16699,10 +16699,10 @@
         <v>4</v>
       </c>
       <c r="F709">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G709">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:7">
@@ -16722,10 +16722,10 @@
         <v>2</v>
       </c>
       <c r="F710">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G710">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="711" spans="1:7">
@@ -16745,10 +16745,10 @@
         <v>2</v>
       </c>
       <c r="F711">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G711">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="712" spans="1:7">
@@ -16768,10 +16768,10 @@
         <v>1</v>
       </c>
       <c r="F712">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G712">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
